--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,43 +747,49 @@
         <v>2400</v>
       </c>
       <c r="E8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11500</v>
-      </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>49600</v>
+        <v>63700</v>
       </c>
       <c r="E12" s="3">
-        <v>47100</v>
+        <v>54400</v>
       </c>
       <c r="F12" s="3">
-        <v>55400</v>
+        <v>50000</v>
       </c>
       <c r="G12" s="3">
-        <v>41700</v>
+        <v>47500</v>
       </c>
       <c r="H12" s="3">
-        <v>34600</v>
+        <v>55900</v>
       </c>
       <c r="I12" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K12" s="3">
         <v>44200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>33500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>31500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>32600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>24500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>23100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>23500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,37 +1052,43 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1600</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G15" s="3">
         <v>1300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61800</v>
+        <v>83500</v>
       </c>
       <c r="E17" s="3">
-        <v>60200</v>
+        <v>74600</v>
       </c>
       <c r="F17" s="3">
-        <v>67700</v>
+        <v>62300</v>
       </c>
       <c r="G17" s="3">
-        <v>50900</v>
+        <v>60700</v>
       </c>
       <c r="H17" s="3">
-        <v>42100</v>
+        <v>68300</v>
       </c>
       <c r="I17" s="3">
+        <v>51400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K17" s="3">
         <v>49900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>38700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>36000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>35800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>28200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>26900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>27300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-59400</v>
+        <v>-81100</v>
       </c>
       <c r="E18" s="3">
-        <v>-56600</v>
+        <v>-71800</v>
       </c>
       <c r="F18" s="3">
-        <v>-61800</v>
+        <v>-59900</v>
       </c>
       <c r="G18" s="3">
-        <v>-39400</v>
+        <v>-57100</v>
       </c>
       <c r="H18" s="3">
-        <v>-42100</v>
+        <v>-62400</v>
       </c>
       <c r="I18" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-49900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-38700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-35700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-35400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-27700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-26400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-26100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,125 +1243,139 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32200</v>
+        <v>10900</v>
       </c>
       <c r="E20" s="3">
-        <v>-7900</v>
+        <v>-16900</v>
       </c>
       <c r="F20" s="3">
+        <v>32400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>24800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-6800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>6900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-25100</v>
+        <v>-68000</v>
       </c>
       <c r="E21" s="3">
-        <v>-62900</v>
+        <v>-86500</v>
       </c>
       <c r="F21" s="3">
-        <v>-57400</v>
+        <v>-25300</v>
       </c>
       <c r="G21" s="3">
-        <v>-34900</v>
+        <v>-63500</v>
       </c>
       <c r="H21" s="3">
-        <v>-37100</v>
+        <v>-57900</v>
       </c>
       <c r="I21" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-24900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-45300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-38300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-38100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-34300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-28000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-19100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-27600</v>
+        <v>-70200</v>
       </c>
       <c r="E23" s="3">
-        <v>-64700</v>
+        <v>-89100</v>
       </c>
       <c r="F23" s="3">
-        <v>-59000</v>
+        <v>-27900</v>
       </c>
       <c r="G23" s="3">
-        <v>-35200</v>
+        <v>-65300</v>
       </c>
       <c r="H23" s="3">
-        <v>-37400</v>
+        <v>-59500</v>
       </c>
       <c r="I23" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-25100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-45500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-38600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-38300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-34500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-28200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-19300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,7 +1454,7 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
@@ -1381,25 +1472,31 @@
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-27600</v>
+        <v>-70100</v>
       </c>
       <c r="E26" s="3">
-        <v>-64700</v>
+        <v>-89000</v>
       </c>
       <c r="F26" s="3">
-        <v>-58900</v>
+        <v>-27800</v>
       </c>
       <c r="G26" s="3">
-        <v>-35100</v>
+        <v>-65200</v>
       </c>
       <c r="H26" s="3">
-        <v>-37300</v>
+        <v>-59400</v>
       </c>
       <c r="I26" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-25000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-45400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-38300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-38000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-34500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-28200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-19300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-27600</v>
+        <v>-70100</v>
       </c>
       <c r="E27" s="3">
-        <v>-64700</v>
+        <v>-89000</v>
       </c>
       <c r="F27" s="3">
-        <v>-58900</v>
+        <v>-27800</v>
       </c>
       <c r="G27" s="3">
-        <v>-35100</v>
+        <v>-65200</v>
       </c>
       <c r="H27" s="3">
-        <v>-37300</v>
+        <v>-59400</v>
       </c>
       <c r="I27" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-25000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-45400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-38300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-38000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-34500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-28200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-19300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32200</v>
+        <v>-10900</v>
       </c>
       <c r="E32" s="3">
-        <v>7900</v>
+        <v>16900</v>
       </c>
       <c r="F32" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-24800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>6800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-6900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-27600</v>
+        <v>-70100</v>
       </c>
       <c r="E33" s="3">
-        <v>-64700</v>
+        <v>-89000</v>
       </c>
       <c r="F33" s="3">
-        <v>-58900</v>
+        <v>-27800</v>
       </c>
       <c r="G33" s="3">
-        <v>-35100</v>
+        <v>-65200</v>
       </c>
       <c r="H33" s="3">
-        <v>-37300</v>
+        <v>-59400</v>
       </c>
       <c r="I33" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-25000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-45400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-38300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-38000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-34500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-28200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-19300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-27600</v>
+        <v>-70100</v>
       </c>
       <c r="E35" s="3">
-        <v>-64700</v>
+        <v>-89000</v>
       </c>
       <c r="F35" s="3">
-        <v>-58900</v>
+        <v>-27800</v>
       </c>
       <c r="G35" s="3">
-        <v>-35100</v>
+        <v>-65200</v>
       </c>
       <c r="H35" s="3">
-        <v>-37300</v>
+        <v>-59400</v>
       </c>
       <c r="I35" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-25000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-45400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-38300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-38000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-34500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-28200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-19300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>723200</v>
+        <v>591900</v>
       </c>
       <c r="E41" s="3">
-        <v>758000</v>
+        <v>662500</v>
       </c>
       <c r="F41" s="3">
-        <v>764900</v>
+        <v>729500</v>
       </c>
       <c r="G41" s="3">
-        <v>305100</v>
+        <v>764600</v>
       </c>
       <c r="H41" s="3">
-        <v>340700</v>
+        <v>771600</v>
       </c>
       <c r="I41" s="3">
+        <v>307800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>343700</v>
+      </c>
+      <c r="K41" s="3">
         <v>387200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>382600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>219200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>231500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>142900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>176900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>211700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F43" s="3">
         <v>3400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>8600</v>
       </c>
       <c r="G43" s="3">
         <v>2900</v>
       </c>
       <c r="H43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J43" s="3">
         <v>4700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,125 +2334,143 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8700</v>
+        <v>11300</v>
       </c>
       <c r="E45" s="3">
-        <v>10900</v>
+        <v>8500</v>
       </c>
       <c r="F45" s="3">
-        <v>12400</v>
+        <v>8800</v>
       </c>
       <c r="G45" s="3">
-        <v>13600</v>
+        <v>11000</v>
       </c>
       <c r="H45" s="3">
-        <v>13600</v>
+        <v>12500</v>
       </c>
       <c r="I45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>735300</v>
+        <v>610900</v>
       </c>
       <c r="E46" s="3">
-        <v>771700</v>
+        <v>676900</v>
       </c>
       <c r="F46" s="3">
-        <v>785900</v>
+        <v>741700</v>
       </c>
       <c r="G46" s="3">
-        <v>321600</v>
+        <v>778500</v>
       </c>
       <c r="H46" s="3">
-        <v>359000</v>
+        <v>792800</v>
       </c>
       <c r="I46" s="3">
+        <v>324400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K46" s="3">
         <v>397100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>392800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>229600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>242100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>152600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>186700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>215900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G47" s="3">
         <v>18700</v>
       </c>
-      <c r="E47" s="3">
-        <v>18500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>18800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>18900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2275,81 +2484,93 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47500</v>
+        <v>55100</v>
       </c>
       <c r="E48" s="3">
-        <v>46700</v>
+        <v>49900</v>
       </c>
       <c r="F48" s="3">
-        <v>26400</v>
+        <v>47900</v>
       </c>
       <c r="G48" s="3">
-        <v>4700</v>
+        <v>47100</v>
       </c>
       <c r="H48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J48" s="3">
         <v>3900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2700</v>
       </c>
       <c r="K48" s="3">
         <v>2900</v>
       </c>
       <c r="L48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M48" s="3">
         <v>2900</v>
       </c>
       <c r="N48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="L49" s="3">
         <v>3800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>3900</v>
       </c>
       <c r="M49" s="3">
         <v>3900</v>
@@ -2358,13 +2579,19 @@
         <v>3900</v>
       </c>
       <c r="O49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q49" s="3">
         <v>4100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,37 +2684,43 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
-        <v>1500</v>
-      </c>
       <c r="F52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>807000</v>
+        <v>688300</v>
       </c>
       <c r="E54" s="3">
-        <v>842300</v>
+        <v>749500</v>
       </c>
       <c r="F54" s="3">
-        <v>836600</v>
+        <v>814000</v>
       </c>
       <c r="G54" s="3">
-        <v>350200</v>
+        <v>849700</v>
       </c>
       <c r="H54" s="3">
-        <v>368100</v>
+        <v>843900</v>
       </c>
       <c r="I54" s="3">
+        <v>353300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>371300</v>
+      </c>
+      <c r="K54" s="3">
         <v>405000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>400600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>236700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>249100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>159800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>193800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>223100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,81 +2878,89 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>30800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>21900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>40200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>19100</v>
+      </c>
+      <c r="M57" s="3">
         <v>26700</v>
       </c>
-      <c r="E57" s="3">
-        <v>23300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>21100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>21700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>34100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>40200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>19100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>26700</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>22000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>17400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>19600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>15400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3">
-        <v>5300</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,113 +2974,131 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14000</v>
+        <v>9100</v>
       </c>
       <c r="E59" s="3">
-        <v>37900</v>
+        <v>15900</v>
       </c>
       <c r="F59" s="3">
-        <v>9400</v>
+        <v>14100</v>
       </c>
       <c r="G59" s="3">
-        <v>21100</v>
+        <v>38300</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+        <v>21200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46700</v>
+        <v>46300</v>
       </c>
       <c r="E60" s="3">
-        <v>66600</v>
+        <v>53200</v>
       </c>
       <c r="F60" s="3">
-        <v>35200</v>
+        <v>47100</v>
       </c>
       <c r="G60" s="3">
-        <v>42700</v>
+        <v>67100</v>
       </c>
       <c r="H60" s="3">
-        <v>34100</v>
+        <v>35500</v>
       </c>
       <c r="I60" s="3">
+        <v>43100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K60" s="3">
         <v>40200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>22300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>17900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>20100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34600</v>
+        <v>34100</v>
       </c>
       <c r="E61" s="3">
-        <v>34500</v>
+        <v>34000</v>
       </c>
       <c r="F61" s="3">
-        <v>14500</v>
+        <v>34900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>34800</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,22 +3139,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>81300</v>
+        <v>80400</v>
       </c>
       <c r="E66" s="3">
-        <v>101100</v>
+        <v>88200</v>
       </c>
       <c r="F66" s="3">
-        <v>49700</v>
+        <v>82000</v>
       </c>
       <c r="G66" s="3">
-        <v>42700</v>
+        <v>102000</v>
       </c>
       <c r="H66" s="3">
-        <v>34100</v>
+        <v>50100</v>
       </c>
       <c r="I66" s="3">
+        <v>43100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K66" s="3">
         <v>40200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>20100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3279,26 +3626,32 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>221300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>137000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>168800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>202200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>725700</v>
+        <v>607900</v>
       </c>
       <c r="E76" s="3">
-        <v>741200</v>
+        <v>661400</v>
       </c>
       <c r="F76" s="3">
-        <v>786900</v>
+        <v>732000</v>
       </c>
       <c r="G76" s="3">
-        <v>307500</v>
+        <v>747700</v>
       </c>
       <c r="H76" s="3">
-        <v>334000</v>
+        <v>793800</v>
       </c>
       <c r="I76" s="3">
+        <v>310200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>336900</v>
+      </c>
+      <c r="K76" s="3">
         <v>364800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>381500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>210000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>226800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>141900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>173700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>207300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-27600</v>
+        <v>-70100</v>
       </c>
       <c r="E81" s="3">
-        <v>-64700</v>
+        <v>-89000</v>
       </c>
       <c r="F81" s="3">
-        <v>-58900</v>
+        <v>-27800</v>
       </c>
       <c r="G81" s="3">
-        <v>-35100</v>
+        <v>-65200</v>
       </c>
       <c r="H81" s="3">
-        <v>-37300</v>
+        <v>-59400</v>
       </c>
       <c r="I81" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-25000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-45400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-38300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-38000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-34500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-28200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-19300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +4023,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-65800</v>
+        <v>-74000</v>
       </c>
       <c r="E89" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
-        <v>-66800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-39000</v>
-      </c>
       <c r="H89" s="3">
-        <v>-50900</v>
+        <v>-67400</v>
       </c>
       <c r="I89" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-22100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-40300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-27100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-28900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-26800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-23800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-19600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>530600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
-        <v>8900</v>
-      </c>
-      <c r="F100" s="3">
-        <v>526000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>216200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>18400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>120800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>137100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>30100</v>
+        <v>11400</v>
       </c>
       <c r="E101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>30300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-9100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J101" s="3">
         <v>3500</v>
       </c>
-      <c r="H101" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>23400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-7700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>6700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34800</v>
+        <v>-70600</v>
       </c>
       <c r="E102" s="3">
-        <v>-6900</v>
+        <v>-67100</v>
       </c>
       <c r="F102" s="3">
-        <v>459800</v>
+        <v>-35100</v>
       </c>
       <c r="G102" s="3">
-        <v>-35700</v>
+        <v>-7000</v>
       </c>
       <c r="H102" s="3">
-        <v>-46400</v>
+        <v>463900</v>
       </c>
       <c r="I102" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="K102" s="3">
         <v>4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>168100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-12300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>88600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-34000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-25400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>124200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -744,22 +744,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G8" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="H8" s="3">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="I8" s="3">
-        <v>11600</v>
+        <v>12400</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -914,25 +914,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>63700</v>
+        <v>68000</v>
       </c>
       <c r="E12" s="3">
-        <v>54400</v>
+        <v>58100</v>
       </c>
       <c r="F12" s="3">
-        <v>50000</v>
+        <v>53400</v>
       </c>
       <c r="G12" s="3">
-        <v>47500</v>
+        <v>50800</v>
       </c>
       <c r="H12" s="3">
-        <v>55900</v>
+        <v>59700</v>
       </c>
       <c r="I12" s="3">
-        <v>42100</v>
+        <v>44900</v>
       </c>
       <c r="J12" s="3">
-        <v>34900</v>
+        <v>37300</v>
       </c>
       <c r="K12" s="3">
         <v>44200</v>
@@ -1067,16 +1067,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F15" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G15" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H15" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>83500</v>
+        <v>89200</v>
       </c>
       <c r="E17" s="3">
-        <v>74600</v>
+        <v>79700</v>
       </c>
       <c r="F17" s="3">
-        <v>62300</v>
+        <v>66500</v>
       </c>
       <c r="G17" s="3">
-        <v>60700</v>
+        <v>64800</v>
       </c>
       <c r="H17" s="3">
-        <v>68300</v>
+        <v>73000</v>
       </c>
       <c r="I17" s="3">
-        <v>51400</v>
+        <v>54800</v>
       </c>
       <c r="J17" s="3">
-        <v>42400</v>
+        <v>45300</v>
       </c>
       <c r="K17" s="3">
         <v>49900</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-81100</v>
+        <v>-86600</v>
       </c>
       <c r="E18" s="3">
-        <v>-71800</v>
+        <v>-76700</v>
       </c>
       <c r="F18" s="3">
-        <v>-59900</v>
+        <v>-63900</v>
       </c>
       <c r="G18" s="3">
-        <v>-57100</v>
+        <v>-61000</v>
       </c>
       <c r="H18" s="3">
-        <v>-62400</v>
+        <v>-66600</v>
       </c>
       <c r="I18" s="3">
-        <v>-39700</v>
+        <v>-42400</v>
       </c>
       <c r="J18" s="3">
-        <v>-42400</v>
+        <v>-45300</v>
       </c>
       <c r="K18" s="3">
         <v>-49900</v>
@@ -1251,25 +1251,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10900</v>
+        <v>11600</v>
       </c>
       <c r="E20" s="3">
-        <v>-16900</v>
+        <v>-18000</v>
       </c>
       <c r="F20" s="3">
-        <v>32400</v>
+        <v>34600</v>
       </c>
       <c r="G20" s="3">
-        <v>-8000</v>
+        <v>-8500</v>
       </c>
       <c r="H20" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="I20" s="3">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="J20" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="K20" s="3">
         <v>24800</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-68000</v>
+        <v>-72600</v>
       </c>
       <c r="E21" s="3">
-        <v>-86500</v>
+        <v>-92400</v>
       </c>
       <c r="F21" s="3">
-        <v>-25300</v>
+        <v>-27000</v>
       </c>
       <c r="G21" s="3">
-        <v>-63500</v>
+        <v>-67800</v>
       </c>
       <c r="H21" s="3">
-        <v>-57900</v>
+        <v>-61800</v>
       </c>
       <c r="I21" s="3">
-        <v>-35200</v>
+        <v>-37600</v>
       </c>
       <c r="J21" s="3">
-        <v>-37500</v>
+        <v>-40000</v>
       </c>
       <c r="K21" s="3">
         <v>-24900</v>
@@ -1354,10 +1354,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-70200</v>
+        <v>-75000</v>
       </c>
       <c r="E23" s="3">
-        <v>-89100</v>
+        <v>-95100</v>
       </c>
       <c r="F23" s="3">
-        <v>-27900</v>
+        <v>-29800</v>
       </c>
       <c r="G23" s="3">
-        <v>-65300</v>
+        <v>-69800</v>
       </c>
       <c r="H23" s="3">
-        <v>-59500</v>
+        <v>-63500</v>
       </c>
       <c r="I23" s="3">
-        <v>-35500</v>
+        <v>-37900</v>
       </c>
       <c r="J23" s="3">
-        <v>-37700</v>
+        <v>-40300</v>
       </c>
       <c r="K23" s="3">
         <v>-25100</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-70100</v>
+        <v>-74900</v>
       </c>
       <c r="E26" s="3">
-        <v>-89000</v>
+        <v>-95100</v>
       </c>
       <c r="F26" s="3">
-        <v>-27800</v>
+        <v>-29700</v>
       </c>
       <c r="G26" s="3">
-        <v>-65200</v>
+        <v>-69700</v>
       </c>
       <c r="H26" s="3">
-        <v>-59400</v>
+        <v>-63400</v>
       </c>
       <c r="I26" s="3">
-        <v>-35400</v>
+        <v>-37800</v>
       </c>
       <c r="J26" s="3">
-        <v>-37600</v>
+        <v>-40200</v>
       </c>
       <c r="K26" s="3">
         <v>-25000</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70100</v>
+        <v>-74900</v>
       </c>
       <c r="E27" s="3">
-        <v>-89000</v>
+        <v>-95100</v>
       </c>
       <c r="F27" s="3">
-        <v>-27800</v>
+        <v>-29700</v>
       </c>
       <c r="G27" s="3">
-        <v>-65200</v>
+        <v>-69700</v>
       </c>
       <c r="H27" s="3">
-        <v>-59400</v>
+        <v>-63400</v>
       </c>
       <c r="I27" s="3">
-        <v>-35400</v>
+        <v>-37800</v>
       </c>
       <c r="J27" s="3">
-        <v>-37600</v>
+        <v>-40200</v>
       </c>
       <c r="K27" s="3">
         <v>-25000</v>
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10900</v>
+        <v>-11600</v>
       </c>
       <c r="E32" s="3">
-        <v>16900</v>
+        <v>18000</v>
       </c>
       <c r="F32" s="3">
-        <v>-32400</v>
+        <v>-34600</v>
       </c>
       <c r="G32" s="3">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="H32" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="I32" s="3">
-        <v>-4200</v>
+        <v>-4500</v>
       </c>
       <c r="J32" s="3">
-        <v>-4700</v>
+        <v>-5000</v>
       </c>
       <c r="K32" s="3">
         <v>-24800</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70100</v>
+        <v>-74900</v>
       </c>
       <c r="E33" s="3">
-        <v>-89000</v>
+        <v>-95100</v>
       </c>
       <c r="F33" s="3">
-        <v>-27800</v>
+        <v>-29700</v>
       </c>
       <c r="G33" s="3">
-        <v>-65200</v>
+        <v>-69700</v>
       </c>
       <c r="H33" s="3">
-        <v>-59400</v>
+        <v>-63400</v>
       </c>
       <c r="I33" s="3">
-        <v>-35400</v>
+        <v>-37800</v>
       </c>
       <c r="J33" s="3">
-        <v>-37600</v>
+        <v>-40200</v>
       </c>
       <c r="K33" s="3">
         <v>-25000</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70100</v>
+        <v>-74900</v>
       </c>
       <c r="E35" s="3">
-        <v>-89000</v>
+        <v>-95100</v>
       </c>
       <c r="F35" s="3">
-        <v>-27800</v>
+        <v>-29700</v>
       </c>
       <c r="G35" s="3">
-        <v>-65200</v>
+        <v>-69700</v>
       </c>
       <c r="H35" s="3">
-        <v>-59400</v>
+        <v>-63400</v>
       </c>
       <c r="I35" s="3">
-        <v>-35400</v>
+        <v>-37800</v>
       </c>
       <c r="J35" s="3">
-        <v>-37600</v>
+        <v>-40200</v>
       </c>
       <c r="K35" s="3">
         <v>-25000</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>591900</v>
+        <v>632100</v>
       </c>
       <c r="E41" s="3">
-        <v>662500</v>
+        <v>707500</v>
       </c>
       <c r="F41" s="3">
-        <v>729500</v>
+        <v>779100</v>
       </c>
       <c r="G41" s="3">
-        <v>764600</v>
+        <v>816600</v>
       </c>
       <c r="H41" s="3">
-        <v>771600</v>
+        <v>824100</v>
       </c>
       <c r="I41" s="3">
-        <v>307800</v>
+        <v>328700</v>
       </c>
       <c r="J41" s="3">
-        <v>343700</v>
+        <v>367100</v>
       </c>
       <c r="K41" s="3">
         <v>387200</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="E43" s="3">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="F43" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="G43" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="H43" s="3">
-        <v>8700</v>
+        <v>9300</v>
       </c>
       <c r="I43" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="J43" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="K43" s="3">
         <v>3400</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11300</v>
+        <v>12000</v>
       </c>
       <c r="E45" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="F45" s="3">
-        <v>8800</v>
+        <v>9400</v>
       </c>
       <c r="G45" s="3">
-        <v>11000</v>
+        <v>11700</v>
       </c>
       <c r="H45" s="3">
-        <v>12500</v>
+        <v>13300</v>
       </c>
       <c r="I45" s="3">
-        <v>13800</v>
+        <v>14700</v>
       </c>
       <c r="J45" s="3">
-        <v>13700</v>
+        <v>14700</v>
       </c>
       <c r="K45" s="3">
         <v>6500</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>610900</v>
+        <v>652500</v>
       </c>
       <c r="E46" s="3">
-        <v>676900</v>
+        <v>722900</v>
       </c>
       <c r="F46" s="3">
-        <v>741700</v>
+        <v>792100</v>
       </c>
       <c r="G46" s="3">
-        <v>778500</v>
+        <v>831400</v>
       </c>
       <c r="H46" s="3">
-        <v>792800</v>
+        <v>846700</v>
       </c>
       <c r="I46" s="3">
-        <v>324400</v>
+        <v>346500</v>
       </c>
       <c r="J46" s="3">
-        <v>362200</v>
+        <v>386800</v>
       </c>
       <c r="K46" s="3">
         <v>397100</v>
@@ -2446,22 +2446,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17000</v>
+        <v>18100</v>
       </c>
       <c r="E47" s="3">
-        <v>17200</v>
+        <v>18400</v>
       </c>
       <c r="F47" s="3">
-        <v>18900</v>
+        <v>20200</v>
       </c>
       <c r="G47" s="3">
-        <v>18700</v>
+        <v>20000</v>
       </c>
       <c r="H47" s="3">
-        <v>19400</v>
+        <v>20700</v>
       </c>
       <c r="I47" s="3">
-        <v>18900</v>
+        <v>20200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55100</v>
+        <v>58900</v>
       </c>
       <c r="E48" s="3">
-        <v>49900</v>
+        <v>53300</v>
       </c>
       <c r="F48" s="3">
-        <v>47900</v>
+        <v>51200</v>
       </c>
       <c r="G48" s="3">
-        <v>47100</v>
+        <v>50300</v>
       </c>
       <c r="H48" s="3">
-        <v>26600</v>
+        <v>28400</v>
       </c>
       <c r="I48" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="J48" s="3">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="K48" s="3">
         <v>2900</v>
@@ -2546,25 +2546,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="F49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="G49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="H49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="J49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="K49" s="3">
         <v>3800</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1300</v>
-      </c>
       <c r="I52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K52" s="3">
         <v>1200</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>688300</v>
+        <v>735100</v>
       </c>
       <c r="E54" s="3">
-        <v>749500</v>
+        <v>800500</v>
       </c>
       <c r="F54" s="3">
-        <v>814000</v>
+        <v>869400</v>
       </c>
       <c r="G54" s="3">
-        <v>849700</v>
+        <v>907500</v>
       </c>
       <c r="H54" s="3">
-        <v>843900</v>
+        <v>901300</v>
       </c>
       <c r="I54" s="3">
-        <v>353300</v>
+        <v>377300</v>
       </c>
       <c r="J54" s="3">
-        <v>371300</v>
+        <v>396500</v>
       </c>
       <c r="K54" s="3">
         <v>405000</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30200</v>
+        <v>32300</v>
       </c>
       <c r="E57" s="3">
-        <v>30800</v>
+        <v>32800</v>
       </c>
       <c r="F57" s="3">
-        <v>27000</v>
+        <v>28800</v>
       </c>
       <c r="G57" s="3">
-        <v>23500</v>
+        <v>25100</v>
       </c>
       <c r="H57" s="3">
-        <v>21300</v>
+        <v>22800</v>
       </c>
       <c r="I57" s="3">
-        <v>21900</v>
+        <v>23400</v>
       </c>
       <c r="J57" s="3">
-        <v>34400</v>
+        <v>36700</v>
       </c>
       <c r="K57" s="3">
         <v>40200</v>
@@ -2936,19 +2936,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
-        <v>6500</v>
-      </c>
       <c r="F58" s="3">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="G58" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="H58" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2986,22 +2986,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9100</v>
+        <v>9700</v>
       </c>
       <c r="E59" s="3">
-        <v>15900</v>
+        <v>16900</v>
       </c>
       <c r="F59" s="3">
-        <v>14100</v>
+        <v>15100</v>
       </c>
       <c r="G59" s="3">
-        <v>38300</v>
+        <v>40900</v>
       </c>
       <c r="H59" s="3">
-        <v>9500</v>
+        <v>10100</v>
       </c>
       <c r="I59" s="3">
-        <v>21200</v>
+        <v>22700</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46300</v>
+        <v>49500</v>
       </c>
       <c r="E60" s="3">
-        <v>53200</v>
+        <v>56800</v>
       </c>
       <c r="F60" s="3">
-        <v>47100</v>
+        <v>50300</v>
       </c>
       <c r="G60" s="3">
-        <v>67100</v>
+        <v>71700</v>
       </c>
       <c r="H60" s="3">
-        <v>35500</v>
+        <v>37900</v>
       </c>
       <c r="I60" s="3">
-        <v>43100</v>
+        <v>46000</v>
       </c>
       <c r="J60" s="3">
-        <v>34400</v>
+        <v>36700</v>
       </c>
       <c r="K60" s="3">
         <v>40200</v>
@@ -3086,19 +3086,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34100</v>
+        <v>36400</v>
       </c>
       <c r="E61" s="3">
-        <v>34000</v>
+        <v>36300</v>
       </c>
       <c r="F61" s="3">
-        <v>34900</v>
+        <v>37300</v>
       </c>
       <c r="G61" s="3">
-        <v>34800</v>
+        <v>37200</v>
       </c>
       <c r="H61" s="3">
-        <v>14600</v>
+        <v>15600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80400</v>
+        <v>85800</v>
       </c>
       <c r="E66" s="3">
-        <v>88200</v>
+        <v>94200</v>
       </c>
       <c r="F66" s="3">
-        <v>82000</v>
+        <v>87600</v>
       </c>
       <c r="G66" s="3">
-        <v>102000</v>
+        <v>108900</v>
       </c>
       <c r="H66" s="3">
-        <v>50100</v>
+        <v>53600</v>
       </c>
       <c r="I66" s="3">
-        <v>43100</v>
+        <v>46000</v>
       </c>
       <c r="J66" s="3">
-        <v>34400</v>
+        <v>36700</v>
       </c>
       <c r="K66" s="3">
         <v>40200</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>607900</v>
+        <v>649200</v>
       </c>
       <c r="E76" s="3">
-        <v>661400</v>
+        <v>706300</v>
       </c>
       <c r="F76" s="3">
-        <v>732000</v>
+        <v>781800</v>
       </c>
       <c r="G76" s="3">
-        <v>747700</v>
+        <v>798500</v>
       </c>
       <c r="H76" s="3">
-        <v>793800</v>
+        <v>847700</v>
       </c>
       <c r="I76" s="3">
-        <v>310200</v>
+        <v>331300</v>
       </c>
       <c r="J76" s="3">
-        <v>336900</v>
+        <v>359800</v>
       </c>
       <c r="K76" s="3">
         <v>364800</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70100</v>
+        <v>-74900</v>
       </c>
       <c r="E81" s="3">
-        <v>-89000</v>
+        <v>-95100</v>
       </c>
       <c r="F81" s="3">
-        <v>-27800</v>
+        <v>-29700</v>
       </c>
       <c r="G81" s="3">
-        <v>-65200</v>
+        <v>-69700</v>
       </c>
       <c r="H81" s="3">
-        <v>-59400</v>
+        <v>-63400</v>
       </c>
       <c r="I81" s="3">
-        <v>-35400</v>
+        <v>-37800</v>
       </c>
       <c r="J81" s="3">
-        <v>-37600</v>
+        <v>-40200</v>
       </c>
       <c r="K81" s="3">
         <v>-25000</v>
@@ -4031,19 +4031,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F83" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="G83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-74000</v>
+        <v>-79000</v>
       </c>
       <c r="E89" s="3">
-        <v>-54500</v>
+        <v>-58200</v>
       </c>
       <c r="F89" s="3">
-        <v>-66400</v>
+        <v>-70900</v>
       </c>
       <c r="G89" s="3">
-        <v>-6500</v>
+        <v>-7000</v>
       </c>
       <c r="H89" s="3">
-        <v>-67400</v>
+        <v>-72000</v>
       </c>
       <c r="I89" s="3">
-        <v>-39400</v>
+        <v>-42100</v>
       </c>
       <c r="J89" s="3">
-        <v>-51400</v>
+        <v>-54900</v>
       </c>
       <c r="K89" s="3">
         <v>-22100</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6800</v>
+        <v>-7300</v>
       </c>
       <c r="E91" s="3">
         <v>-1300</v>
       </c>
       <c r="F91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1300</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6800</v>
+        <v>-7300</v>
       </c>
       <c r="E94" s="3">
         <v>-1300</v>
       </c>
       <c r="F94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1300</v>
       </c>
       <c r="K94" s="3">
         <v>-400</v>
@@ -4821,25 +4821,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E100" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="F100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>566700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J100" s="3">
         <v>2400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>530600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2300</v>
       </c>
       <c r="K100" s="3">
         <v>3700</v>
@@ -4871,25 +4871,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11400</v>
+        <v>12200</v>
       </c>
       <c r="E101" s="3">
-        <v>-16000</v>
+        <v>-17100</v>
       </c>
       <c r="F101" s="3">
-        <v>30300</v>
+        <v>32400</v>
       </c>
       <c r="G101" s="3">
-        <v>-9100</v>
+        <v>-9800</v>
       </c>
       <c r="H101" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="I101" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J101" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="K101" s="3">
         <v>23400</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-70600</v>
+        <v>-75400</v>
       </c>
       <c r="E102" s="3">
-        <v>-67100</v>
+        <v>-71600</v>
       </c>
       <c r="F102" s="3">
-        <v>-35100</v>
+        <v>-37500</v>
       </c>
       <c r="G102" s="3">
-        <v>-7000</v>
+        <v>-7500</v>
       </c>
       <c r="H102" s="3">
-        <v>463900</v>
+        <v>495400</v>
       </c>
       <c r="I102" s="3">
-        <v>-36000</v>
+        <v>-38400</v>
       </c>
       <c r="J102" s="3">
-        <v>-46800</v>
+        <v>-50000</v>
       </c>
       <c r="K102" s="3">
         <v>4600</v>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="E8" s="3">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="F8" s="3">
         <v>2600</v>
       </c>
       <c r="G8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K8" s="3">
         <v>12400</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
       </c>
       <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
+        <v>400</v>
+      </c>
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>68000</v>
+        <v>76600</v>
       </c>
       <c r="E12" s="3">
-        <v>58100</v>
+        <v>76100</v>
       </c>
       <c r="F12" s="3">
-        <v>53400</v>
+        <v>68800</v>
       </c>
       <c r="G12" s="3">
-        <v>50800</v>
+        <v>58800</v>
       </c>
       <c r="H12" s="3">
-        <v>59700</v>
+        <v>54000</v>
       </c>
       <c r="I12" s="3">
+        <v>51300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K12" s="3">
         <v>44900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>37300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>44200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>33500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>31500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>32600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>24500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>23100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>23500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,43 +1098,49 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
         <v>1800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>89200</v>
+        <v>97600</v>
       </c>
       <c r="E17" s="3">
-        <v>79700</v>
+        <v>100900</v>
       </c>
       <c r="F17" s="3">
-        <v>66500</v>
+        <v>90200</v>
       </c>
       <c r="G17" s="3">
-        <v>64800</v>
+        <v>80600</v>
       </c>
       <c r="H17" s="3">
-        <v>73000</v>
+        <v>67300</v>
       </c>
       <c r="I17" s="3">
+        <v>65500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K17" s="3">
         <v>54800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>45300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>49900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>38700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>36000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>35800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>28200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>26900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>27300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-86600</v>
+        <v>-94200</v>
       </c>
       <c r="E18" s="3">
-        <v>-76700</v>
+        <v>-99300</v>
       </c>
       <c r="F18" s="3">
-        <v>-63900</v>
+        <v>-87600</v>
       </c>
       <c r="G18" s="3">
-        <v>-61000</v>
+        <v>-77600</v>
       </c>
       <c r="H18" s="3">
-        <v>-66600</v>
+        <v>-64700</v>
       </c>
       <c r="I18" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-42400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-45300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-49900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-38700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-35700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-35400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-27700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-26100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,143 +1311,157 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11600</v>
+        <v>-51400</v>
       </c>
       <c r="E20" s="3">
-        <v>-18000</v>
+        <v>-14400</v>
       </c>
       <c r="F20" s="3">
-        <v>34600</v>
+        <v>11800</v>
       </c>
       <c r="G20" s="3">
-        <v>-8500</v>
+        <v>-18200</v>
       </c>
       <c r="H20" s="3">
-        <v>3200</v>
+        <v>35000</v>
       </c>
       <c r="I20" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>24800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>6900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-72600</v>
+        <v>-142900</v>
       </c>
       <c r="E21" s="3">
-        <v>-92400</v>
+        <v>-111100</v>
       </c>
       <c r="F21" s="3">
-        <v>-27000</v>
+        <v>-73400</v>
       </c>
       <c r="G21" s="3">
-        <v>-67800</v>
+        <v>-93400</v>
       </c>
       <c r="H21" s="3">
-        <v>-61800</v>
+        <v>-27300</v>
       </c>
       <c r="I21" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-37600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-40000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-24900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-45300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-38300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-38100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-34300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-19100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1395,72 +1475,84 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-75000</v>
+        <v>-145600</v>
       </c>
       <c r="E23" s="3">
-        <v>-95100</v>
+        <v>-113700</v>
       </c>
       <c r="F23" s="3">
-        <v>-29800</v>
+        <v>-75800</v>
       </c>
       <c r="G23" s="3">
-        <v>-69800</v>
+        <v>-96200</v>
       </c>
       <c r="H23" s="3">
-        <v>-63500</v>
+        <v>-30100</v>
       </c>
       <c r="I23" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-37900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-40300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-25100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-45500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-38600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-38300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-34500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-19300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
@@ -1478,25 +1570,31 @@
         <v>-100</v>
       </c>
       <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-74900</v>
+        <v>-145600</v>
       </c>
       <c r="E26" s="3">
-        <v>-95100</v>
+        <v>-113600</v>
       </c>
       <c r="F26" s="3">
-        <v>-29700</v>
+        <v>-75700</v>
       </c>
       <c r="G26" s="3">
-        <v>-69700</v>
+        <v>-96100</v>
       </c>
       <c r="H26" s="3">
-        <v>-63400</v>
+        <v>-30000</v>
       </c>
       <c r="I26" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-37800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-40200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-25000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-45400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-38300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-38000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-34500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-19300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-74900</v>
+        <v>-145600</v>
       </c>
       <c r="E27" s="3">
-        <v>-95100</v>
+        <v>-113600</v>
       </c>
       <c r="F27" s="3">
-        <v>-29700</v>
+        <v>-75700</v>
       </c>
       <c r="G27" s="3">
-        <v>-69700</v>
+        <v>-96100</v>
       </c>
       <c r="H27" s="3">
-        <v>-63400</v>
+        <v>-30000</v>
       </c>
       <c r="I27" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-37800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-40200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-25000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-45400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-38300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-38000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-34500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-19300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11600</v>
+        <v>51400</v>
       </c>
       <c r="E32" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="F32" s="3">
-        <v>-34600</v>
+        <v>-11800</v>
       </c>
       <c r="G32" s="3">
-        <v>8500</v>
+        <v>18200</v>
       </c>
       <c r="H32" s="3">
-        <v>-3200</v>
+        <v>-35000</v>
       </c>
       <c r="I32" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-24800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-6900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-74900</v>
+        <v>-145600</v>
       </c>
       <c r="E33" s="3">
-        <v>-95100</v>
+        <v>-113600</v>
       </c>
       <c r="F33" s="3">
-        <v>-29700</v>
+        <v>-75700</v>
       </c>
       <c r="G33" s="3">
-        <v>-69700</v>
+        <v>-96100</v>
       </c>
       <c r="H33" s="3">
-        <v>-63400</v>
+        <v>-30000</v>
       </c>
       <c r="I33" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-37800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-40200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-25000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-45400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-38300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-38000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-34500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-19300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-74900</v>
+        <v>-145600</v>
       </c>
       <c r="E35" s="3">
-        <v>-95100</v>
+        <v>-113600</v>
       </c>
       <c r="F35" s="3">
-        <v>-29700</v>
+        <v>-75700</v>
       </c>
       <c r="G35" s="3">
-        <v>-69700</v>
+        <v>-96100</v>
       </c>
       <c r="H35" s="3">
-        <v>-63400</v>
+        <v>-30000</v>
       </c>
       <c r="I35" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-37800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-40200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-25000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-45400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-38300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-38000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-34500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-19300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,81 +2312,89 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>632100</v>
+        <v>913200</v>
       </c>
       <c r="E41" s="3">
-        <v>707500</v>
+        <v>287800</v>
       </c>
       <c r="F41" s="3">
-        <v>779100</v>
+        <v>639200</v>
       </c>
       <c r="G41" s="3">
-        <v>816600</v>
+        <v>715500</v>
       </c>
       <c r="H41" s="3">
-        <v>824100</v>
+        <v>787900</v>
       </c>
       <c r="I41" s="3">
+        <v>825800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>833300</v>
+      </c>
+      <c r="K41" s="3">
         <v>328700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>367100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>387200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>382600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>219200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>231500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>142900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>176900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>211700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>199000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>276300</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2240,58 +2420,70 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8300</v>
+        <v>10200</v>
       </c>
       <c r="E43" s="3">
-        <v>6400</v>
+        <v>8400</v>
       </c>
       <c r="F43" s="3">
-        <v>3600</v>
+        <v>8400</v>
       </c>
       <c r="G43" s="3">
-        <v>3100</v>
+        <v>6500</v>
       </c>
       <c r="H43" s="3">
-        <v>9300</v>
+        <v>3700</v>
       </c>
       <c r="I43" s="3">
         <v>3100</v>
       </c>
       <c r="J43" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L43" s="3">
         <v>5000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,143 +2532,161 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12000</v>
+        <v>18300</v>
       </c>
       <c r="E45" s="3">
-        <v>9000</v>
+        <v>15600</v>
       </c>
       <c r="F45" s="3">
-        <v>9400</v>
+        <v>12200</v>
       </c>
       <c r="G45" s="3">
-        <v>11700</v>
+        <v>9100</v>
       </c>
       <c r="H45" s="3">
-        <v>13300</v>
+        <v>9500</v>
       </c>
       <c r="I45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K45" s="3">
         <v>14700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>14700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>8100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>652500</v>
+        <v>1140700</v>
       </c>
       <c r="E46" s="3">
-        <v>722900</v>
+        <v>588100</v>
       </c>
       <c r="F46" s="3">
-        <v>792100</v>
+        <v>659800</v>
       </c>
       <c r="G46" s="3">
-        <v>831400</v>
+        <v>731100</v>
       </c>
       <c r="H46" s="3">
-        <v>846700</v>
+        <v>801000</v>
       </c>
       <c r="I46" s="3">
+        <v>840700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>856200</v>
+      </c>
+      <c r="K46" s="3">
         <v>346500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>386800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>397100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>392800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>229600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>242100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>152600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>186700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>215900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18100</v>
+        <v>47000</v>
       </c>
       <c r="E47" s="3">
-        <v>18400</v>
+        <v>16900</v>
       </c>
       <c r="F47" s="3">
-        <v>20200</v>
+        <v>18300</v>
       </c>
       <c r="G47" s="3">
-        <v>20000</v>
+        <v>18600</v>
       </c>
       <c r="H47" s="3">
-        <v>20700</v>
+        <v>20400</v>
       </c>
       <c r="I47" s="3">
         <v>20200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K47" s="3">
+        <v>20200</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2490,93 +2700,105 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>58900</v>
+        <v>56600</v>
       </c>
       <c r="E48" s="3">
-        <v>53300</v>
+        <v>59500</v>
       </c>
       <c r="F48" s="3">
-        <v>51200</v>
+        <v>59500</v>
       </c>
       <c r="G48" s="3">
-        <v>50300</v>
+        <v>53900</v>
       </c>
       <c r="H48" s="3">
-        <v>28400</v>
+        <v>51800</v>
       </c>
       <c r="I48" s="3">
+        <v>50900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2700</v>
       </c>
       <c r="M48" s="3">
         <v>2900</v>
       </c>
       <c r="N48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="O48" s="3">
         <v>2900</v>
       </c>
       <c r="P48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S48" s="3">
         <v>2800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="L49" s="3">
         <v>4100</v>
       </c>
-      <c r="F49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3800</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>3900</v>
       </c>
       <c r="O49" s="3">
         <v>3900</v>
@@ -2585,13 +2807,19 @@
         <v>3900</v>
       </c>
       <c r="Q49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S49" s="3">
         <v>4100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,34 +2939,34 @@
         <v>1500</v>
       </c>
       <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>735100</v>
+        <v>1251400</v>
       </c>
       <c r="E54" s="3">
-        <v>800500</v>
+        <v>670600</v>
       </c>
       <c r="F54" s="3">
-        <v>869400</v>
+        <v>743300</v>
       </c>
       <c r="G54" s="3">
-        <v>907500</v>
+        <v>809500</v>
       </c>
       <c r="H54" s="3">
-        <v>901300</v>
+        <v>879200</v>
       </c>
       <c r="I54" s="3">
+        <v>917700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>911400</v>
+      </c>
+      <c r="K54" s="3">
         <v>377300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>396500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>405000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>400600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>236700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>249100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>159800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>193800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>223100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,93 +3140,101 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32300</v>
+        <v>45600</v>
       </c>
       <c r="E57" s="3">
-        <v>32800</v>
+        <v>37800</v>
       </c>
       <c r="F57" s="3">
-        <v>28800</v>
+        <v>32600</v>
       </c>
       <c r="G57" s="3">
-        <v>25100</v>
+        <v>33200</v>
       </c>
       <c r="H57" s="3">
-        <v>22800</v>
+        <v>29100</v>
       </c>
       <c r="I57" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K57" s="3">
         <v>23400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>36700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>40200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>19100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>26700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>22000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>17400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>19600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>15400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3">
-        <v>7000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6400</v>
-      </c>
       <c r="G58" s="3">
-        <v>5700</v>
+        <v>7100</v>
       </c>
       <c r="H58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2980,131 +3248,149 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9700</v>
+        <v>23900</v>
       </c>
       <c r="E59" s="3">
-        <v>16900</v>
+        <v>19600</v>
       </c>
       <c r="F59" s="3">
-        <v>15100</v>
+        <v>9800</v>
       </c>
       <c r="G59" s="3">
-        <v>40900</v>
+        <v>17100</v>
       </c>
       <c r="H59" s="3">
-        <v>10100</v>
+        <v>15300</v>
       </c>
       <c r="I59" s="3">
+        <v>41300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K59" s="3">
         <v>22700</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>500</v>
+      </c>
+      <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49500</v>
+        <v>77100</v>
       </c>
       <c r="E60" s="3">
-        <v>56800</v>
+        <v>65000</v>
       </c>
       <c r="F60" s="3">
-        <v>50300</v>
+        <v>50000</v>
       </c>
       <c r="G60" s="3">
-        <v>71700</v>
+        <v>57400</v>
       </c>
       <c r="H60" s="3">
-        <v>37900</v>
+        <v>50900</v>
       </c>
       <c r="I60" s="3">
+        <v>72500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K60" s="3">
         <v>46000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>36700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>40200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>26700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>20100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36400</v>
+        <v>32200</v>
       </c>
       <c r="E61" s="3">
-        <v>36300</v>
+        <v>34800</v>
       </c>
       <c r="F61" s="3">
-        <v>37300</v>
+        <v>36800</v>
       </c>
       <c r="G61" s="3">
-        <v>37200</v>
+        <v>36700</v>
       </c>
       <c r="H61" s="3">
-        <v>15600</v>
+        <v>37700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>15800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3130,23 +3416,29 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3156,11 +3448,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85800</v>
+        <v>113100</v>
       </c>
       <c r="E66" s="3">
-        <v>94200</v>
+        <v>99800</v>
       </c>
       <c r="F66" s="3">
-        <v>87600</v>
+        <v>86800</v>
       </c>
       <c r="G66" s="3">
-        <v>108900</v>
+        <v>95200</v>
       </c>
       <c r="H66" s="3">
-        <v>53600</v>
+        <v>88600</v>
       </c>
       <c r="I66" s="3">
+        <v>110100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K66" s="3">
         <v>46000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>36700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>40200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>26700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>22300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>17900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>20100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3942,14 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3632,26 +3980,32 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>221300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>137000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>168800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>202200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>649200</v>
+        <v>1138300</v>
       </c>
       <c r="E76" s="3">
-        <v>706300</v>
+        <v>570800</v>
       </c>
       <c r="F76" s="3">
-        <v>781800</v>
+        <v>656500</v>
       </c>
       <c r="G76" s="3">
-        <v>798500</v>
+        <v>714300</v>
       </c>
       <c r="H76" s="3">
-        <v>847700</v>
+        <v>790600</v>
       </c>
       <c r="I76" s="3">
+        <v>807500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>857300</v>
+      </c>
+      <c r="K76" s="3">
         <v>331300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>359800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>364800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>381500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>210000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>226800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>141900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>173700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>207300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-74900</v>
+        <v>-145600</v>
       </c>
       <c r="E81" s="3">
-        <v>-95100</v>
+        <v>-113600</v>
       </c>
       <c r="F81" s="3">
-        <v>-29700</v>
+        <v>-75700</v>
       </c>
       <c r="G81" s="3">
-        <v>-69700</v>
+        <v>-96100</v>
       </c>
       <c r="H81" s="3">
-        <v>-63400</v>
+        <v>-30000</v>
       </c>
       <c r="I81" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-37800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-40200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-25000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-45400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-38300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-38000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-34500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-19300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,37 +4421,39 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F83" s="3">
         <v>2400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H83" s="3">
         <v>2300</v>
       </c>
-      <c r="F83" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-79000</v>
+        <v>-69200</v>
       </c>
       <c r="E89" s="3">
-        <v>-58200</v>
+        <v>-67700</v>
       </c>
       <c r="F89" s="3">
-        <v>-70900</v>
+        <v>-79900</v>
       </c>
       <c r="G89" s="3">
-        <v>-7000</v>
+        <v>-58900</v>
       </c>
       <c r="H89" s="3">
-        <v>-72000</v>
+        <v>-71700</v>
       </c>
       <c r="I89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-72800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-42100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-54900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-22100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-40300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-27100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-28900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-26800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-19600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="L91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-285100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="L94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-300</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5301,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>699400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>566700</v>
-      </c>
       <c r="I100" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>573100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>216200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>18400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>120800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>137100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12200</v>
+        <v>-34000</v>
       </c>
       <c r="E101" s="3">
-        <v>-17100</v>
+        <v>-9100</v>
       </c>
       <c r="F101" s="3">
-        <v>32400</v>
+        <v>12300</v>
       </c>
       <c r="G101" s="3">
-        <v>-9800</v>
+        <v>-17300</v>
       </c>
       <c r="H101" s="3">
-        <v>3600</v>
+        <v>32700</v>
       </c>
       <c r="I101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K101" s="3">
         <v>3800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>23400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-7700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-75400</v>
+        <v>625400</v>
       </c>
       <c r="E102" s="3">
-        <v>-71600</v>
+        <v>-351400</v>
       </c>
       <c r="F102" s="3">
-        <v>-37500</v>
+        <v>-76200</v>
       </c>
       <c r="G102" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="I102" s="3">
         <v>-7500</v>
       </c>
-      <c r="H102" s="3">
-        <v>495400</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>501000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-38400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-50000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>168100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-12300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>88600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-34000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>124200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
-        <v>1700</v>
-      </c>
       <c r="F8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
-        <v>3000</v>
-      </c>
       <c r="H8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12400</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -785,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
@@ -797,13 +800,16 @@
         <v>400</v>
       </c>
       <c r="S8" s="3">
+        <v>400</v>
+      </c>
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>76600</v>
+        <v>89100</v>
       </c>
       <c r="E12" s="3">
-        <v>76100</v>
+        <v>75400</v>
       </c>
       <c r="F12" s="3">
-        <v>68800</v>
+        <v>74800</v>
       </c>
       <c r="G12" s="3">
-        <v>58800</v>
+        <v>67700</v>
       </c>
       <c r="H12" s="3">
-        <v>54000</v>
+        <v>57800</v>
       </c>
       <c r="I12" s="3">
-        <v>51300</v>
+        <v>53100</v>
       </c>
       <c r="J12" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K12" s="3">
         <v>60400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>44900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>37300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>44200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>32600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1118,21 +1140,21 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>1800</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>1800</v>
       </c>
       <c r="I15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J15" s="3">
         <v>1400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1142,8 +1164,8 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>97600</v>
+        <v>113100</v>
       </c>
       <c r="E17" s="3">
-        <v>100900</v>
+        <v>96000</v>
       </c>
       <c r="F17" s="3">
-        <v>90200</v>
+        <v>99300</v>
       </c>
       <c r="G17" s="3">
-        <v>80600</v>
+        <v>88700</v>
       </c>
       <c r="H17" s="3">
-        <v>67300</v>
+        <v>79200</v>
       </c>
       <c r="I17" s="3">
-        <v>65500</v>
+        <v>66200</v>
       </c>
       <c r="J17" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K17" s="3">
         <v>73800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>27300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-94200</v>
+        <v>-112600</v>
       </c>
       <c r="E18" s="3">
-        <v>-99300</v>
+        <v>-92700</v>
       </c>
       <c r="F18" s="3">
-        <v>-87600</v>
+        <v>-97600</v>
       </c>
       <c r="G18" s="3">
-        <v>-77600</v>
+        <v>-86100</v>
       </c>
       <c r="H18" s="3">
-        <v>-64700</v>
+        <v>-76300</v>
       </c>
       <c r="I18" s="3">
-        <v>-61700</v>
+        <v>-63600</v>
       </c>
       <c r="J18" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-67300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-45300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-49900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-38700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-35700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-27700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-26400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-26100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-51400</v>
+        <v>-50900</v>
       </c>
       <c r="E20" s="3">
-        <v>-14400</v>
+        <v>-50600</v>
       </c>
       <c r="F20" s="3">
-        <v>11800</v>
+        <v>-14200</v>
       </c>
       <c r="G20" s="3">
-        <v>-18200</v>
+        <v>11600</v>
       </c>
       <c r="H20" s="3">
-        <v>35000</v>
+        <v>-17900</v>
       </c>
       <c r="I20" s="3">
-        <v>-8600</v>
+        <v>34400</v>
       </c>
       <c r="J20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2900</v>
       </c>
       <c r="P20" s="3">
         <v>-2900</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="R20" s="3">
         <v>-6800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-142900</v>
+        <v>-160000</v>
       </c>
       <c r="E21" s="3">
-        <v>-111100</v>
+        <v>-140600</v>
       </c>
       <c r="F21" s="3">
-        <v>-73400</v>
+        <v>-109200</v>
       </c>
       <c r="G21" s="3">
-        <v>-93400</v>
+        <v>-72200</v>
       </c>
       <c r="H21" s="3">
-        <v>-27300</v>
+        <v>-91900</v>
       </c>
       <c r="I21" s="3">
-        <v>-68500</v>
+        <v>-26900</v>
       </c>
       <c r="J21" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-62500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-40000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-45300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-38300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-34300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-28000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-19100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,20 +1478,20 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>200</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1463,8 +1502,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-145600</v>
+        <v>-163500</v>
       </c>
       <c r="E23" s="3">
-        <v>-113700</v>
+        <v>-143200</v>
       </c>
       <c r="F23" s="3">
-        <v>-75800</v>
+        <v>-111800</v>
       </c>
       <c r="G23" s="3">
-        <v>-96200</v>
+        <v>-74600</v>
       </c>
       <c r="H23" s="3">
-        <v>-30100</v>
+        <v>-94600</v>
       </c>
       <c r="I23" s="3">
-        <v>-70500</v>
+        <v>-29600</v>
       </c>
       <c r="J23" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-64200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-45500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-38600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-34500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-28200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,16 +1591,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1576,14 +1621,14 @@
         <v>-100</v>
       </c>
       <c r="O24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1591,10 +1636,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-145600</v>
+        <v>-163500</v>
       </c>
       <c r="E26" s="3">
-        <v>-113600</v>
+        <v>-143200</v>
       </c>
       <c r="F26" s="3">
-        <v>-75700</v>
+        <v>-111700</v>
       </c>
       <c r="G26" s="3">
-        <v>-96100</v>
+        <v>-74500</v>
       </c>
       <c r="H26" s="3">
-        <v>-30000</v>
+        <v>-94500</v>
       </c>
       <c r="I26" s="3">
-        <v>-70500</v>
+        <v>-29500</v>
       </c>
       <c r="J26" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-64200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-45400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-38300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-34500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-28200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-145600</v>
+        <v>-163500</v>
       </c>
       <c r="E27" s="3">
-        <v>-113600</v>
+        <v>-143200</v>
       </c>
       <c r="F27" s="3">
-        <v>-75700</v>
+        <v>-111700</v>
       </c>
       <c r="G27" s="3">
-        <v>-96100</v>
+        <v>-74500</v>
       </c>
       <c r="H27" s="3">
-        <v>-30000</v>
+        <v>-94500</v>
       </c>
       <c r="I27" s="3">
-        <v>-70500</v>
+        <v>-29500</v>
       </c>
       <c r="J27" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-64200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-40200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-38300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-34500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-28200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>51400</v>
+        <v>50900</v>
       </c>
       <c r="E32" s="3">
-        <v>14400</v>
+        <v>50600</v>
       </c>
       <c r="F32" s="3">
-        <v>-11800</v>
+        <v>14200</v>
       </c>
       <c r="G32" s="3">
-        <v>18200</v>
+        <v>-11600</v>
       </c>
       <c r="H32" s="3">
-        <v>-35000</v>
+        <v>17900</v>
       </c>
       <c r="I32" s="3">
-        <v>8600</v>
+        <v>-34400</v>
       </c>
       <c r="J32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2900</v>
       </c>
       <c r="P32" s="3">
         <v>2900</v>
       </c>
       <c r="Q32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R32" s="3">
         <v>6800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-145600</v>
+        <v>-163500</v>
       </c>
       <c r="E33" s="3">
-        <v>-113600</v>
+        <v>-143200</v>
       </c>
       <c r="F33" s="3">
-        <v>-75700</v>
+        <v>-111700</v>
       </c>
       <c r="G33" s="3">
-        <v>-96100</v>
+        <v>-74500</v>
       </c>
       <c r="H33" s="3">
-        <v>-30000</v>
+        <v>-94500</v>
       </c>
       <c r="I33" s="3">
-        <v>-70500</v>
+        <v>-29500</v>
       </c>
       <c r="J33" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-64200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-40200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-45400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-38300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-34500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-28200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-145600</v>
+        <v>-163500</v>
       </c>
       <c r="E35" s="3">
-        <v>-113600</v>
+        <v>-143200</v>
       </c>
       <c r="F35" s="3">
-        <v>-75700</v>
+        <v>-111700</v>
       </c>
       <c r="G35" s="3">
-        <v>-96100</v>
+        <v>-74500</v>
       </c>
       <c r="H35" s="3">
-        <v>-30000</v>
+        <v>-94500</v>
       </c>
       <c r="I35" s="3">
-        <v>-70500</v>
+        <v>-29500</v>
       </c>
       <c r="J35" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-64200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-40200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-45400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-38300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-34500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-28200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,75 +2399,79 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>913200</v>
+        <v>687600</v>
       </c>
       <c r="E41" s="3">
-        <v>287800</v>
+        <v>898100</v>
       </c>
       <c r="F41" s="3">
-        <v>639200</v>
+        <v>283000</v>
       </c>
       <c r="G41" s="3">
-        <v>715500</v>
+        <v>628600</v>
       </c>
       <c r="H41" s="3">
-        <v>787900</v>
+        <v>703600</v>
       </c>
       <c r="I41" s="3">
-        <v>825800</v>
+        <v>774800</v>
       </c>
       <c r="J41" s="3">
+        <v>812100</v>
+      </c>
+      <c r="K41" s="3">
         <v>833300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>328700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>367100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>387200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>382600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>219200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>231500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>142900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>176900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>211700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>199000</v>
+        <v>158000</v>
       </c>
       <c r="E42" s="3">
-        <v>276300</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+        <v>195700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>271700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -2396,8 +2485,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10200</v>
+        <v>8600</v>
       </c>
       <c r="E43" s="3">
-        <v>8400</v>
+        <v>10000</v>
       </c>
       <c r="F43" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="G43" s="3">
-        <v>6500</v>
+        <v>8200</v>
       </c>
       <c r="H43" s="3">
-        <v>3700</v>
+        <v>6400</v>
       </c>
       <c r="I43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K43" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,158 +2633,167 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18300</v>
+        <v>16500</v>
       </c>
       <c r="E45" s="3">
-        <v>15600</v>
+        <v>18000</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>15300</v>
       </c>
       <c r="G45" s="3">
-        <v>9100</v>
+        <v>12000</v>
       </c>
       <c r="H45" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="I45" s="3">
-        <v>11800</v>
+        <v>9300</v>
       </c>
       <c r="J45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K45" s="3">
         <v>13500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>14700</v>
       </c>
       <c r="L45" s="3">
         <v>14700</v>
       </c>
       <c r="M45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="N45" s="3">
         <v>6500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1140700</v>
+        <v>870700</v>
       </c>
       <c r="E46" s="3">
-        <v>588100</v>
+        <v>1121800</v>
       </c>
       <c r="F46" s="3">
-        <v>659800</v>
+        <v>578300</v>
       </c>
       <c r="G46" s="3">
-        <v>731100</v>
+        <v>648900</v>
       </c>
       <c r="H46" s="3">
-        <v>801000</v>
+        <v>719000</v>
       </c>
       <c r="I46" s="3">
-        <v>840700</v>
+        <v>787800</v>
       </c>
       <c r="J46" s="3">
+        <v>826800</v>
+      </c>
+      <c r="K46" s="3">
         <v>856200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>346500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>386800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>397100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>392800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>229600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>242100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>152600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>186700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>215900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47000</v>
+        <v>148000</v>
       </c>
       <c r="E47" s="3">
-        <v>16900</v>
+        <v>46200</v>
       </c>
       <c r="F47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H47" s="3">
         <v>18300</v>
       </c>
-      <c r="G47" s="3">
-        <v>18600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>20400</v>
-      </c>
       <c r="I47" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K47" s="3">
+        <v>20900</v>
+      </c>
+      <c r="L47" s="3">
         <v>20200</v>
       </c>
-      <c r="J47" s="3">
-        <v>20900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>20200</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,102 +2810,108 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56600</v>
+        <v>127200</v>
       </c>
       <c r="E48" s="3">
-        <v>59500</v>
+        <v>55700</v>
       </c>
       <c r="F48" s="3">
-        <v>59500</v>
+        <v>58500</v>
       </c>
       <c r="G48" s="3">
-        <v>53900</v>
+        <v>58500</v>
       </c>
       <c r="H48" s="3">
-        <v>51800</v>
+        <v>53000</v>
       </c>
       <c r="I48" s="3">
         <v>50900</v>
       </c>
       <c r="J48" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K48" s="3">
         <v>28700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2900</v>
       </c>
       <c r="R48" s="3">
         <v>2900</v>
       </c>
       <c r="S48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="T48" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5600</v>
+        <v>6700</v>
       </c>
       <c r="E49" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="F49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K49" s="3">
         <v>4200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4100</v>
       </c>
       <c r="L49" s="3">
         <v>4100</v>
       </c>
       <c r="M49" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="N49" s="3">
         <v>3800</v>
       </c>
       <c r="O49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="P49" s="3">
         <v>3900</v>
@@ -2813,13 +2923,16 @@
         <v>3900</v>
       </c>
       <c r="S49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="T49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1500</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
@@ -2945,31 +3064,31 @@
         <v>1500</v>
       </c>
       <c r="G52" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I52" s="3">
         <v>1700</v>
       </c>
       <c r="J52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
       </c>
       <c r="L52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M52" s="3">
         <v>1500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1200</v>
       </c>
       <c r="N52" s="3">
         <v>1200</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1251400</v>
+        <v>1152600</v>
       </c>
       <c r="E54" s="3">
-        <v>670600</v>
+        <v>1230700</v>
       </c>
       <c r="F54" s="3">
-        <v>743300</v>
+        <v>659500</v>
       </c>
       <c r="G54" s="3">
-        <v>809500</v>
+        <v>731000</v>
       </c>
       <c r="H54" s="3">
-        <v>879200</v>
+        <v>796100</v>
       </c>
       <c r="I54" s="3">
-        <v>917700</v>
+        <v>864600</v>
       </c>
       <c r="J54" s="3">
+        <v>902500</v>
+      </c>
+      <c r="K54" s="3">
         <v>911400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>377300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>396500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>405000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>236700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>249100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>159800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>193800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>223100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,91 +3271,95 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45600</v>
+        <v>25800</v>
       </c>
       <c r="E57" s="3">
-        <v>37800</v>
+        <v>44800</v>
       </c>
       <c r="F57" s="3">
-        <v>32600</v>
+        <v>37100</v>
       </c>
       <c r="G57" s="3">
-        <v>33200</v>
+        <v>32100</v>
       </c>
       <c r="H57" s="3">
-        <v>29100</v>
+        <v>32700</v>
       </c>
       <c r="I57" s="3">
-        <v>25400</v>
+        <v>28600</v>
       </c>
       <c r="J57" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K57" s="3">
         <v>23000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7600</v>
+        <v>8100</v>
       </c>
       <c r="E58" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="F58" s="3">
         <v>7500</v>
       </c>
       <c r="G58" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="H58" s="3">
-        <v>6500</v>
+        <v>6900</v>
       </c>
       <c r="I58" s="3">
-        <v>5800</v>
+        <v>6400</v>
       </c>
       <c r="J58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3236,8 +3369,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,147 +3387,156 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23900</v>
+        <v>28300</v>
       </c>
       <c r="E59" s="3">
-        <v>19600</v>
+        <v>23500</v>
       </c>
       <c r="F59" s="3">
-        <v>9800</v>
+        <v>19300</v>
       </c>
       <c r="G59" s="3">
-        <v>17100</v>
+        <v>9700</v>
       </c>
       <c r="H59" s="3">
-        <v>15300</v>
+        <v>16900</v>
       </c>
       <c r="I59" s="3">
-        <v>41300</v>
+        <v>15000</v>
       </c>
       <c r="J59" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22700</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>77100</v>
+        <v>62100</v>
       </c>
       <c r="E60" s="3">
-        <v>65000</v>
+        <v>75800</v>
       </c>
       <c r="F60" s="3">
+        <v>64000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>49200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>56500</v>
+      </c>
+      <c r="I60" s="3">
         <v>50000</v>
       </c>
-      <c r="G60" s="3">
-        <v>57400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>50900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>72500</v>
-      </c>
       <c r="J60" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K60" s="3">
         <v>38400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32200</v>
+        <v>100100</v>
       </c>
       <c r="E61" s="3">
-        <v>34800</v>
+        <v>31700</v>
       </c>
       <c r="F61" s="3">
-        <v>36800</v>
+        <v>34200</v>
       </c>
       <c r="G61" s="3">
-        <v>36700</v>
+        <v>36200</v>
       </c>
       <c r="H61" s="3">
-        <v>37700</v>
+        <v>36100</v>
       </c>
       <c r="I61" s="3">
-        <v>37600</v>
+        <v>37100</v>
       </c>
       <c r="J61" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K61" s="3">
         <v>15800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,26 +3564,29 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3454,8 +3599,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>113100</v>
+        <v>166000</v>
       </c>
       <c r="E66" s="3">
-        <v>99800</v>
+        <v>111200</v>
       </c>
       <c r="F66" s="3">
-        <v>86800</v>
+        <v>98200</v>
       </c>
       <c r="G66" s="3">
-        <v>95200</v>
+        <v>85400</v>
       </c>
       <c r="H66" s="3">
-        <v>88600</v>
+        <v>93700</v>
       </c>
       <c r="I66" s="3">
-        <v>110100</v>
+        <v>87100</v>
       </c>
       <c r="J66" s="3">
+        <v>108300</v>
+      </c>
+      <c r="K66" s="3">
         <v>54200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3986,26 +4159,29 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>221300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>137000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>168800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>202200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1138300</v>
+        <v>986700</v>
       </c>
       <c r="E76" s="3">
-        <v>570800</v>
+        <v>1119400</v>
       </c>
       <c r="F76" s="3">
-        <v>656500</v>
+        <v>561300</v>
       </c>
       <c r="G76" s="3">
-        <v>714300</v>
+        <v>645600</v>
       </c>
       <c r="H76" s="3">
-        <v>790600</v>
+        <v>702400</v>
       </c>
       <c r="I76" s="3">
-        <v>807500</v>
+        <v>777500</v>
       </c>
       <c r="J76" s="3">
+        <v>794200</v>
+      </c>
+      <c r="K76" s="3">
         <v>857300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>331300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>359800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>364800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>381500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>210000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>226800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>141900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>173700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>207300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-145600</v>
+        <v>-163500</v>
       </c>
       <c r="E81" s="3">
-        <v>-113600</v>
+        <v>-143200</v>
       </c>
       <c r="F81" s="3">
-        <v>-75700</v>
+        <v>-111700</v>
       </c>
       <c r="G81" s="3">
-        <v>-96100</v>
+        <v>-74500</v>
       </c>
       <c r="H81" s="3">
-        <v>-30000</v>
+        <v>-94500</v>
       </c>
       <c r="I81" s="3">
-        <v>-70500</v>
+        <v>-29500</v>
       </c>
       <c r="J81" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-64200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-40200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-45400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-38300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-34500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-28200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,40 +4620,41 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
-        <v>2400</v>
-      </c>
       <c r="G83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H83" s="3">
         <v>2300</v>
       </c>
       <c r="I83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-69200</v>
+        <v>-106300</v>
       </c>
       <c r="E89" s="3">
-        <v>-67700</v>
+        <v>-68000</v>
       </c>
       <c r="F89" s="3">
-        <v>-79900</v>
+        <v>-66600</v>
       </c>
       <c r="G89" s="3">
-        <v>-58900</v>
+        <v>-78600</v>
       </c>
       <c r="H89" s="3">
-        <v>-71700</v>
+        <v>-57900</v>
       </c>
       <c r="I89" s="3">
-        <v>-7100</v>
+        <v>-70500</v>
       </c>
       <c r="J89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-72800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-42100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-54900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-40300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-27100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-26800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-23800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-19600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5800</v>
+        <v>-5000</v>
       </c>
       <c r="E91" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="F91" s="3">
-        <v>-7300</v>
+        <v>-5400</v>
       </c>
       <c r="G91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>29200</v>
+        <v>-83700</v>
       </c>
       <c r="E94" s="3">
-        <v>-285100</v>
+        <v>28700</v>
       </c>
       <c r="F94" s="3">
-        <v>-7300</v>
+        <v>-280400</v>
       </c>
       <c r="G94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>699400</v>
+        <v>12100</v>
       </c>
       <c r="E100" s="3">
-        <v>10500</v>
+        <v>687800</v>
       </c>
       <c r="F100" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
-        <v>5100</v>
-      </c>
       <c r="H100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
-        <v>9700</v>
-      </c>
       <c r="J100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K100" s="3">
         <v>573100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>216200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>18400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>120800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>137100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-34000</v>
+        <v>-32700</v>
       </c>
       <c r="E101" s="3">
-        <v>-9100</v>
+        <v>-33400</v>
       </c>
       <c r="F101" s="3">
-        <v>12300</v>
+        <v>-9000</v>
       </c>
       <c r="G101" s="3">
-        <v>-17300</v>
+        <v>12100</v>
       </c>
       <c r="H101" s="3">
-        <v>32700</v>
+        <v>-17000</v>
       </c>
       <c r="I101" s="3">
-        <v>-9900</v>
+        <v>32200</v>
       </c>
       <c r="J101" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K101" s="3">
         <v>3700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>3800</v>
       </c>
       <c r="L101" s="3">
         <v>3800</v>
       </c>
       <c r="M101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N101" s="3">
         <v>23400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>625400</v>
+        <v>-210500</v>
       </c>
       <c r="E102" s="3">
-        <v>-351400</v>
+        <v>615100</v>
       </c>
       <c r="F102" s="3">
-        <v>-76200</v>
+        <v>-345600</v>
       </c>
       <c r="G102" s="3">
-        <v>-72400</v>
+        <v>-75000</v>
       </c>
       <c r="H102" s="3">
-        <v>-37900</v>
+        <v>-71200</v>
       </c>
       <c r="I102" s="3">
-        <v>-7500</v>
+        <v>-37300</v>
       </c>
       <c r="J102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K102" s="3">
         <v>501000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-38400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-50000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>168100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>88600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-34000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>124200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -758,22 +758,22 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G8" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H8" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="I8" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J8" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K8" s="3">
         <v>6500</v>
@@ -955,25 +955,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>89100</v>
+        <v>92800</v>
       </c>
       <c r="E12" s="3">
-        <v>75400</v>
+        <v>78500</v>
       </c>
       <c r="F12" s="3">
-        <v>74800</v>
+        <v>77900</v>
       </c>
       <c r="G12" s="3">
-        <v>67700</v>
+        <v>70500</v>
       </c>
       <c r="H12" s="3">
-        <v>57800</v>
+        <v>60200</v>
       </c>
       <c r="I12" s="3">
-        <v>53100</v>
+        <v>55300</v>
       </c>
       <c r="J12" s="3">
-        <v>50500</v>
+        <v>52600</v>
       </c>
       <c r="K12" s="3">
         <v>60400</v>
@@ -1144,13 +1144,13 @@
         <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I15" s="3">
         <v>1800</v>
       </c>
       <c r="J15" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K15" s="3">
         <v>1200</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>113100</v>
+        <v>117800</v>
       </c>
       <c r="E17" s="3">
-        <v>96000</v>
+        <v>99900</v>
       </c>
       <c r="F17" s="3">
-        <v>99300</v>
+        <v>103400</v>
       </c>
       <c r="G17" s="3">
-        <v>88700</v>
+        <v>92400</v>
       </c>
       <c r="H17" s="3">
-        <v>79200</v>
+        <v>82500</v>
       </c>
       <c r="I17" s="3">
-        <v>66200</v>
+        <v>68900</v>
       </c>
       <c r="J17" s="3">
-        <v>64500</v>
+        <v>67100</v>
       </c>
       <c r="K17" s="3">
         <v>73800</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-112600</v>
+        <v>-117200</v>
       </c>
       <c r="E18" s="3">
-        <v>-92700</v>
+        <v>-96500</v>
       </c>
       <c r="F18" s="3">
-        <v>-97600</v>
+        <v>-101700</v>
       </c>
       <c r="G18" s="3">
-        <v>-86100</v>
+        <v>-89700</v>
       </c>
       <c r="H18" s="3">
-        <v>-76300</v>
+        <v>-79400</v>
       </c>
       <c r="I18" s="3">
-        <v>-63600</v>
+        <v>-66200</v>
       </c>
       <c r="J18" s="3">
-        <v>-60700</v>
+        <v>-63200</v>
       </c>
       <c r="K18" s="3">
         <v>-67300</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-50900</v>
+        <v>-53000</v>
       </c>
       <c r="E20" s="3">
-        <v>-50600</v>
+        <v>-52600</v>
       </c>
       <c r="F20" s="3">
-        <v>-14200</v>
+        <v>-14800</v>
       </c>
       <c r="G20" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="H20" s="3">
-        <v>-17900</v>
+        <v>-18700</v>
       </c>
       <c r="I20" s="3">
-        <v>34400</v>
+        <v>35900</v>
       </c>
       <c r="J20" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="K20" s="3">
         <v>3300</v>
@@ -1411,25 +1411,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-160000</v>
+        <v>-166600</v>
       </c>
       <c r="E21" s="3">
-        <v>-140600</v>
+        <v>-146400</v>
       </c>
       <c r="F21" s="3">
-        <v>-109200</v>
+        <v>-113700</v>
       </c>
       <c r="G21" s="3">
-        <v>-72200</v>
+        <v>-75200</v>
       </c>
       <c r="H21" s="3">
-        <v>-91900</v>
+        <v>-95700</v>
       </c>
       <c r="I21" s="3">
-        <v>-26900</v>
+        <v>-28000</v>
       </c>
       <c r="J21" s="3">
-        <v>-67400</v>
+        <v>-70200</v>
       </c>
       <c r="K21" s="3">
         <v>-62500</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-163500</v>
+        <v>-170300</v>
       </c>
       <c r="E23" s="3">
-        <v>-143200</v>
+        <v>-149200</v>
       </c>
       <c r="F23" s="3">
-        <v>-111800</v>
+        <v>-116400</v>
       </c>
       <c r="G23" s="3">
-        <v>-74600</v>
+        <v>-77700</v>
       </c>
       <c r="H23" s="3">
-        <v>-94600</v>
+        <v>-98500</v>
       </c>
       <c r="I23" s="3">
-        <v>-29600</v>
+        <v>-30800</v>
       </c>
       <c r="J23" s="3">
-        <v>-69400</v>
+        <v>-72200</v>
       </c>
       <c r="K23" s="3">
         <v>-64200</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-163500</v>
+        <v>-170200</v>
       </c>
       <c r="E26" s="3">
-        <v>-143200</v>
+        <v>-149100</v>
       </c>
       <c r="F26" s="3">
-        <v>-111700</v>
+        <v>-116300</v>
       </c>
       <c r="G26" s="3">
-        <v>-74500</v>
+        <v>-77600</v>
       </c>
       <c r="H26" s="3">
-        <v>-94500</v>
+        <v>-98400</v>
       </c>
       <c r="I26" s="3">
-        <v>-29500</v>
+        <v>-30800</v>
       </c>
       <c r="J26" s="3">
-        <v>-69300</v>
+        <v>-72200</v>
       </c>
       <c r="K26" s="3">
         <v>-64200</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-163500</v>
+        <v>-170200</v>
       </c>
       <c r="E27" s="3">
-        <v>-143200</v>
+        <v>-149100</v>
       </c>
       <c r="F27" s="3">
-        <v>-111700</v>
+        <v>-116300</v>
       </c>
       <c r="G27" s="3">
-        <v>-74500</v>
+        <v>-77600</v>
       </c>
       <c r="H27" s="3">
-        <v>-94500</v>
+        <v>-98400</v>
       </c>
       <c r="I27" s="3">
-        <v>-29500</v>
+        <v>-30800</v>
       </c>
       <c r="J27" s="3">
-        <v>-69300</v>
+        <v>-72200</v>
       </c>
       <c r="K27" s="3">
         <v>-64200</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>50900</v>
+        <v>53000</v>
       </c>
       <c r="E32" s="3">
-        <v>50600</v>
+        <v>52600</v>
       </c>
       <c r="F32" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="G32" s="3">
-        <v>-11600</v>
+        <v>-12000</v>
       </c>
       <c r="H32" s="3">
-        <v>17900</v>
+        <v>18700</v>
       </c>
       <c r="I32" s="3">
-        <v>-34400</v>
+        <v>-35900</v>
       </c>
       <c r="J32" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="K32" s="3">
         <v>-3300</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-163500</v>
+        <v>-170200</v>
       </c>
       <c r="E33" s="3">
-        <v>-143200</v>
+        <v>-149100</v>
       </c>
       <c r="F33" s="3">
-        <v>-111700</v>
+        <v>-116300</v>
       </c>
       <c r="G33" s="3">
-        <v>-74500</v>
+        <v>-77600</v>
       </c>
       <c r="H33" s="3">
-        <v>-94500</v>
+        <v>-98400</v>
       </c>
       <c r="I33" s="3">
-        <v>-29500</v>
+        <v>-30800</v>
       </c>
       <c r="J33" s="3">
-        <v>-69300</v>
+        <v>-72200</v>
       </c>
       <c r="K33" s="3">
         <v>-64200</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-163500</v>
+        <v>-170200</v>
       </c>
       <c r="E35" s="3">
-        <v>-143200</v>
+        <v>-149100</v>
       </c>
       <c r="F35" s="3">
-        <v>-111700</v>
+        <v>-116300</v>
       </c>
       <c r="G35" s="3">
-        <v>-74500</v>
+        <v>-77600</v>
       </c>
       <c r="H35" s="3">
-        <v>-94500</v>
+        <v>-98400</v>
       </c>
       <c r="I35" s="3">
-        <v>-29500</v>
+        <v>-30800</v>
       </c>
       <c r="J35" s="3">
-        <v>-69300</v>
+        <v>-72200</v>
       </c>
       <c r="K35" s="3">
         <v>-64200</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>687600</v>
+        <v>716000</v>
       </c>
       <c r="E41" s="3">
-        <v>898100</v>
+        <v>935200</v>
       </c>
       <c r="F41" s="3">
-        <v>283000</v>
+        <v>294700</v>
       </c>
       <c r="G41" s="3">
-        <v>628600</v>
+        <v>654600</v>
       </c>
       <c r="H41" s="3">
-        <v>703600</v>
+        <v>732700</v>
       </c>
       <c r="I41" s="3">
-        <v>774800</v>
+        <v>806900</v>
       </c>
       <c r="J41" s="3">
-        <v>812100</v>
+        <v>845700</v>
       </c>
       <c r="K41" s="3">
         <v>833300</v>
@@ -2465,13 +2465,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>158000</v>
+        <v>164500</v>
       </c>
       <c r="E42" s="3">
-        <v>195700</v>
+        <v>203800</v>
       </c>
       <c r="F42" s="3">
-        <v>271700</v>
+        <v>282900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F43" s="3">
         <v>8600</v>
       </c>
-      <c r="E43" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>8300</v>
-      </c>
       <c r="G43" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="H43" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="I43" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J43" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K43" s="3">
         <v>9400</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="E45" s="3">
-        <v>18000</v>
+        <v>18700</v>
       </c>
       <c r="F45" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="G45" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="H45" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="I45" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="J45" s="3">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="K45" s="3">
         <v>13500</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>870700</v>
+        <v>906700</v>
       </c>
       <c r="E46" s="3">
-        <v>1121800</v>
+        <v>1168200</v>
       </c>
       <c r="F46" s="3">
-        <v>578300</v>
+        <v>602200</v>
       </c>
       <c r="G46" s="3">
-        <v>648900</v>
+        <v>675700</v>
       </c>
       <c r="H46" s="3">
-        <v>719000</v>
+        <v>748700</v>
       </c>
       <c r="I46" s="3">
-        <v>787800</v>
+        <v>820300</v>
       </c>
       <c r="J46" s="3">
-        <v>826800</v>
+        <v>861000</v>
       </c>
       <c r="K46" s="3">
         <v>856200</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>148000</v>
+        <v>154100</v>
       </c>
       <c r="E47" s="3">
-        <v>46200</v>
+        <v>48100</v>
       </c>
       <c r="F47" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="G47" s="3">
-        <v>18000</v>
+        <v>18800</v>
       </c>
       <c r="H47" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="I47" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="J47" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="K47" s="3">
         <v>20900</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>127200</v>
+        <v>132400</v>
       </c>
       <c r="E48" s="3">
-        <v>55700</v>
+        <v>58000</v>
       </c>
       <c r="F48" s="3">
-        <v>58500</v>
+        <v>60900</v>
       </c>
       <c r="G48" s="3">
-        <v>58500</v>
+        <v>61000</v>
       </c>
       <c r="H48" s="3">
+        <v>55200</v>
+      </c>
+      <c r="I48" s="3">
         <v>53000</v>
       </c>
-      <c r="I48" s="3">
-        <v>50900</v>
-      </c>
       <c r="J48" s="3">
-        <v>50000</v>
+        <v>52100</v>
       </c>
       <c r="K48" s="3">
         <v>28700</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="E49" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F49" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="K49" s="3">
         <v>4200</v>
@@ -3061,16 +3061,16 @@
         <v>1500</v>
       </c>
       <c r="F52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J52" s="3">
         <v>1700</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1152600</v>
+        <v>1200200</v>
       </c>
       <c r="E54" s="3">
-        <v>1230700</v>
+        <v>1281500</v>
       </c>
       <c r="F54" s="3">
-        <v>659500</v>
+        <v>686700</v>
       </c>
       <c r="G54" s="3">
-        <v>731000</v>
+        <v>761200</v>
       </c>
       <c r="H54" s="3">
-        <v>796100</v>
+        <v>829000</v>
       </c>
       <c r="I54" s="3">
-        <v>864600</v>
+        <v>900300</v>
       </c>
       <c r="J54" s="3">
-        <v>902500</v>
+        <v>939800</v>
       </c>
       <c r="K54" s="3">
         <v>911400</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25800</v>
+        <v>26800</v>
       </c>
       <c r="E57" s="3">
-        <v>44800</v>
+        <v>46700</v>
       </c>
       <c r="F57" s="3">
-        <v>37100</v>
+        <v>38700</v>
       </c>
       <c r="G57" s="3">
-        <v>32100</v>
+        <v>33400</v>
       </c>
       <c r="H57" s="3">
-        <v>32700</v>
+        <v>34000</v>
       </c>
       <c r="I57" s="3">
-        <v>28600</v>
+        <v>29800</v>
       </c>
       <c r="J57" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="K57" s="3">
         <v>23000</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="E58" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="F58" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="G58" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="H58" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="J58" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="K58" s="3">
         <v>5100</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28300</v>
+        <v>29500</v>
       </c>
       <c r="E59" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="F59" s="3">
-        <v>19300</v>
+        <v>20100</v>
       </c>
       <c r="G59" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="H59" s="3">
-        <v>16900</v>
+        <v>17500</v>
       </c>
       <c r="I59" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="J59" s="3">
-        <v>40600</v>
+        <v>42300</v>
       </c>
       <c r="K59" s="3">
         <v>10200</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>62100</v>
+        <v>64700</v>
       </c>
       <c r="E60" s="3">
-        <v>75800</v>
+        <v>78900</v>
       </c>
       <c r="F60" s="3">
-        <v>64000</v>
+        <v>66600</v>
       </c>
       <c r="G60" s="3">
-        <v>49200</v>
+        <v>51200</v>
       </c>
       <c r="H60" s="3">
-        <v>56500</v>
+        <v>58800</v>
       </c>
       <c r="I60" s="3">
-        <v>50000</v>
+        <v>52100</v>
       </c>
       <c r="J60" s="3">
-        <v>71300</v>
+        <v>74300</v>
       </c>
       <c r="K60" s="3">
         <v>38400</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100100</v>
+        <v>104300</v>
       </c>
       <c r="E61" s="3">
-        <v>31700</v>
+        <v>33000</v>
       </c>
       <c r="F61" s="3">
-        <v>34200</v>
+        <v>35600</v>
       </c>
       <c r="G61" s="3">
-        <v>36200</v>
+        <v>37700</v>
       </c>
       <c r="H61" s="3">
-        <v>36100</v>
+        <v>37600</v>
       </c>
       <c r="I61" s="3">
-        <v>37100</v>
+        <v>38600</v>
       </c>
       <c r="J61" s="3">
-        <v>37000</v>
+        <v>38500</v>
       </c>
       <c r="K61" s="3">
         <v>15800</v>
@@ -3573,10 +3573,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>166000</v>
+        <v>172800</v>
       </c>
       <c r="E66" s="3">
-        <v>111200</v>
+        <v>115800</v>
       </c>
       <c r="F66" s="3">
-        <v>98200</v>
+        <v>102200</v>
       </c>
       <c r="G66" s="3">
-        <v>85400</v>
+        <v>88900</v>
       </c>
       <c r="H66" s="3">
-        <v>93700</v>
+        <v>97500</v>
       </c>
       <c r="I66" s="3">
-        <v>87100</v>
+        <v>90700</v>
       </c>
       <c r="J66" s="3">
-        <v>108300</v>
+        <v>112800</v>
       </c>
       <c r="K66" s="3">
         <v>54200</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>986700</v>
+        <v>1027400</v>
       </c>
       <c r="E76" s="3">
-        <v>1119400</v>
+        <v>1165700</v>
       </c>
       <c r="F76" s="3">
-        <v>561300</v>
+        <v>584500</v>
       </c>
       <c r="G76" s="3">
-        <v>645600</v>
+        <v>672300</v>
       </c>
       <c r="H76" s="3">
-        <v>702400</v>
+        <v>731500</v>
       </c>
       <c r="I76" s="3">
-        <v>777500</v>
+        <v>809600</v>
       </c>
       <c r="J76" s="3">
-        <v>794200</v>
+        <v>827000</v>
       </c>
       <c r="K76" s="3">
         <v>857300</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-163500</v>
+        <v>-170200</v>
       </c>
       <c r="E81" s="3">
-        <v>-143200</v>
+        <v>-149100</v>
       </c>
       <c r="F81" s="3">
-        <v>-111700</v>
+        <v>-116300</v>
       </c>
       <c r="G81" s="3">
-        <v>-74500</v>
+        <v>-77600</v>
       </c>
       <c r="H81" s="3">
-        <v>-94500</v>
+        <v>-98400</v>
       </c>
       <c r="I81" s="3">
-        <v>-29500</v>
+        <v>-30800</v>
       </c>
       <c r="J81" s="3">
-        <v>-69300</v>
+        <v>-72200</v>
       </c>
       <c r="K81" s="3">
         <v>-64200</v>
@@ -4627,19 +4627,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="E83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
-        <v>2600</v>
-      </c>
       <c r="G83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I83" s="3">
         <v>2300</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-106300</v>
+        <v>-110700</v>
       </c>
       <c r="E89" s="3">
-        <v>-68000</v>
+        <v>-70800</v>
       </c>
       <c r="F89" s="3">
-        <v>-66600</v>
+        <v>-69300</v>
       </c>
       <c r="G89" s="3">
-        <v>-78600</v>
+        <v>-81800</v>
       </c>
       <c r="H89" s="3">
-        <v>-57900</v>
+        <v>-60300</v>
       </c>
       <c r="I89" s="3">
-        <v>-70500</v>
+        <v>-73400</v>
       </c>
       <c r="J89" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="K89" s="3">
         <v>-72800</v>
@@ -5063,19 +5063,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="E91" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="G91" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I91" s="3">
         <v>-1500</v>
@@ -5240,19 +5240,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83700</v>
+        <v>-87100</v>
       </c>
       <c r="E94" s="3">
-        <v>28700</v>
+        <v>29900</v>
       </c>
       <c r="F94" s="3">
-        <v>-280400</v>
+        <v>-292000</v>
       </c>
       <c r="G94" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I94" s="3">
         <v>-1500</v>
@@ -5558,25 +5558,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="E100" s="3">
-        <v>687800</v>
+        <v>716200</v>
       </c>
       <c r="F100" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H100" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="I100" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J100" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="K100" s="3">
         <v>573100</v>
@@ -5617,25 +5617,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32700</v>
+        <v>-34000</v>
       </c>
       <c r="E101" s="3">
-        <v>-33400</v>
+        <v>-34800</v>
       </c>
       <c r="F101" s="3">
-        <v>-9000</v>
+        <v>-9300</v>
       </c>
       <c r="G101" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="H101" s="3">
-        <v>-17000</v>
+        <v>-17700</v>
       </c>
       <c r="I101" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="J101" s="3">
-        <v>-9700</v>
+        <v>-10100</v>
       </c>
       <c r="K101" s="3">
         <v>3700</v>
@@ -5676,25 +5676,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-210500</v>
+        <v>-219200</v>
       </c>
       <c r="E102" s="3">
-        <v>615100</v>
+        <v>640500</v>
       </c>
       <c r="F102" s="3">
-        <v>-345600</v>
+        <v>-359900</v>
       </c>
       <c r="G102" s="3">
-        <v>-75000</v>
+        <v>-78100</v>
       </c>
       <c r="H102" s="3">
-        <v>-71200</v>
+        <v>-74200</v>
       </c>
       <c r="I102" s="3">
-        <v>-37300</v>
+        <v>-38800</v>
       </c>
       <c r="J102" s="3">
-        <v>-7400</v>
+        <v>-7700</v>
       </c>
       <c r="K102" s="3">
         <v>501000</v>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
-        <v>3400</v>
-      </c>
       <c r="F8" s="3">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="G8" s="3">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="H8" s="3">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="I8" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="J8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12400</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -791,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
@@ -803,13 +807,16 @@
         <v>400</v>
       </c>
       <c r="T8" s="3">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>92800</v>
+        <v>102900</v>
       </c>
       <c r="E12" s="3">
-        <v>78500</v>
+        <v>88400</v>
       </c>
       <c r="F12" s="3">
-        <v>77900</v>
+        <v>74800</v>
       </c>
       <c r="G12" s="3">
-        <v>70500</v>
+        <v>74200</v>
       </c>
       <c r="H12" s="3">
-        <v>60200</v>
+        <v>67100</v>
       </c>
       <c r="I12" s="3">
-        <v>55300</v>
+        <v>57400</v>
       </c>
       <c r="J12" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K12" s="3">
         <v>52600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>60400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>44900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>37300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>44200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>31500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>32600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1143,21 +1166,21 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>1900</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>1800</v>
       </c>
       <c r="J15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K15" s="3">
         <v>1500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1167,8 +1190,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>117800</v>
+        <v>146400</v>
       </c>
       <c r="E17" s="3">
-        <v>99900</v>
+        <v>112300</v>
       </c>
       <c r="F17" s="3">
-        <v>103400</v>
+        <v>95200</v>
       </c>
       <c r="G17" s="3">
-        <v>92400</v>
+        <v>98500</v>
       </c>
       <c r="H17" s="3">
-        <v>82500</v>
+        <v>88100</v>
       </c>
       <c r="I17" s="3">
-        <v>68900</v>
+        <v>78600</v>
       </c>
       <c r="J17" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K17" s="3">
         <v>67100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>49900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>27300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-117200</v>
+        <v>-145600</v>
       </c>
       <c r="E18" s="3">
-        <v>-96500</v>
+        <v>-111700</v>
       </c>
       <c r="F18" s="3">
-        <v>-101700</v>
+        <v>-92000</v>
       </c>
       <c r="G18" s="3">
-        <v>-89700</v>
+        <v>-96900</v>
       </c>
       <c r="H18" s="3">
-        <v>-79400</v>
+        <v>-85500</v>
       </c>
       <c r="I18" s="3">
-        <v>-66200</v>
+        <v>-75700</v>
       </c>
       <c r="J18" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-63200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-67300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-42400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-45300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-49900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-38700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-35400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-27700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-26400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-26100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-53000</v>
+        <v>72000</v>
       </c>
       <c r="E20" s="3">
-        <v>-52600</v>
+        <v>-50600</v>
       </c>
       <c r="F20" s="3">
-        <v>-14800</v>
+        <v>-50200</v>
       </c>
       <c r="G20" s="3">
-        <v>12000</v>
+        <v>-14100</v>
       </c>
       <c r="H20" s="3">
-        <v>-18700</v>
+        <v>11500</v>
       </c>
       <c r="I20" s="3">
-        <v>35900</v>
+        <v>-17800</v>
       </c>
       <c r="J20" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2900</v>
       </c>
       <c r="Q20" s="3">
         <v>-2900</v>
       </c>
       <c r="R20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="S20" s="3">
         <v>-6800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-166600</v>
+        <v>-69200</v>
       </c>
       <c r="E21" s="3">
-        <v>-146400</v>
+        <v>-158800</v>
       </c>
       <c r="F21" s="3">
-        <v>-113700</v>
+        <v>-139500</v>
       </c>
       <c r="G21" s="3">
-        <v>-75200</v>
+        <v>-108400</v>
       </c>
       <c r="H21" s="3">
-        <v>-95700</v>
+        <v>-71700</v>
       </c>
       <c r="I21" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-28000</v>
       </c>
-      <c r="J21" s="3">
-        <v>-70200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-40000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-45300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-34300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-19100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,20 +1521,20 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>200</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1505,8 +1545,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1523,87 +1563,93 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-170300</v>
+        <v>-73500</v>
       </c>
       <c r="E23" s="3">
-        <v>-149200</v>
+        <v>-162200</v>
       </c>
       <c r="F23" s="3">
-        <v>-116400</v>
+        <v>-142100</v>
       </c>
       <c r="G23" s="3">
-        <v>-77700</v>
+        <v>-110900</v>
       </c>
       <c r="H23" s="3">
-        <v>-98500</v>
+        <v>-74000</v>
       </c>
       <c r="I23" s="3">
-        <v>-30800</v>
+        <v>-93900</v>
       </c>
       <c r="J23" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-72200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-64200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-45500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-38300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-34500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-28200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
@@ -1624,14 +1670,14 @@
         <v>-100</v>
       </c>
       <c r="P24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1639,10 +1685,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-170200</v>
+        <v>-73300</v>
       </c>
       <c r="E26" s="3">
-        <v>-149100</v>
+        <v>-162200</v>
       </c>
       <c r="F26" s="3">
-        <v>-116300</v>
+        <v>-142100</v>
       </c>
       <c r="G26" s="3">
-        <v>-77600</v>
+        <v>-110800</v>
       </c>
       <c r="H26" s="3">
-        <v>-98400</v>
+        <v>-73900</v>
       </c>
       <c r="I26" s="3">
-        <v>-30800</v>
+        <v>-93800</v>
       </c>
       <c r="J26" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-72200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-64200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-45400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-38000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-34500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-28200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-19300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-170200</v>
+        <v>-73300</v>
       </c>
       <c r="E27" s="3">
-        <v>-149100</v>
+        <v>-162200</v>
       </c>
       <c r="F27" s="3">
-        <v>-116300</v>
+        <v>-142100</v>
       </c>
       <c r="G27" s="3">
-        <v>-77600</v>
+        <v>-110800</v>
       </c>
       <c r="H27" s="3">
-        <v>-98400</v>
+        <v>-73900</v>
       </c>
       <c r="I27" s="3">
-        <v>-30800</v>
+        <v>-93800</v>
       </c>
       <c r="J27" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-72200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-64200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-38000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-34500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-28200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-19300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>53000</v>
+        <v>-72000</v>
       </c>
       <c r="E32" s="3">
-        <v>52600</v>
+        <v>50600</v>
       </c>
       <c r="F32" s="3">
-        <v>14800</v>
+        <v>50200</v>
       </c>
       <c r="G32" s="3">
-        <v>-12000</v>
+        <v>14100</v>
       </c>
       <c r="H32" s="3">
-        <v>18700</v>
+        <v>-11500</v>
       </c>
       <c r="I32" s="3">
-        <v>-35900</v>
+        <v>17800</v>
       </c>
       <c r="J32" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="K32" s="3">
         <v>8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2900</v>
       </c>
       <c r="Q32" s="3">
         <v>2900</v>
       </c>
       <c r="R32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S32" s="3">
         <v>6800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-170200</v>
+        <v>-73300</v>
       </c>
       <c r="E33" s="3">
-        <v>-149100</v>
+        <v>-162200</v>
       </c>
       <c r="F33" s="3">
-        <v>-116300</v>
+        <v>-142100</v>
       </c>
       <c r="G33" s="3">
-        <v>-77600</v>
+        <v>-110800</v>
       </c>
       <c r="H33" s="3">
-        <v>-98400</v>
+        <v>-73900</v>
       </c>
       <c r="I33" s="3">
-        <v>-30800</v>
+        <v>-93800</v>
       </c>
       <c r="J33" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-72200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-64200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-40200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-45400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-38000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-34500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-28200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-170200</v>
+        <v>-73300</v>
       </c>
       <c r="E35" s="3">
-        <v>-149100</v>
+        <v>-162200</v>
       </c>
       <c r="F35" s="3">
-        <v>-116300</v>
+        <v>-142100</v>
       </c>
       <c r="G35" s="3">
-        <v>-77600</v>
+        <v>-110800</v>
       </c>
       <c r="H35" s="3">
-        <v>-98400</v>
+        <v>-73900</v>
       </c>
       <c r="I35" s="3">
-        <v>-30800</v>
+        <v>-93800</v>
       </c>
       <c r="J35" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-72200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-64200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-40200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-45400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-38000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-34500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-28200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,81 +2486,85 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>716000</v>
+        <v>577900</v>
       </c>
       <c r="E41" s="3">
-        <v>935200</v>
+        <v>682400</v>
       </c>
       <c r="F41" s="3">
-        <v>294700</v>
+        <v>891300</v>
       </c>
       <c r="G41" s="3">
-        <v>654600</v>
+        <v>280900</v>
       </c>
       <c r="H41" s="3">
-        <v>732700</v>
+        <v>623800</v>
       </c>
       <c r="I41" s="3">
-        <v>806900</v>
+        <v>698200</v>
       </c>
       <c r="J41" s="3">
+        <v>768900</v>
+      </c>
+      <c r="K41" s="3">
         <v>845700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>833300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>328700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>367100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>387200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>382600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>219200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>231500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>142900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>176900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>211700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>164500</v>
+        <v>198100</v>
       </c>
       <c r="E42" s="3">
-        <v>203800</v>
+        <v>156800</v>
       </c>
       <c r="F42" s="3">
-        <v>282900</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+        <v>194200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>269600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -2488,8 +2578,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="E43" s="3">
-        <v>10500</v>
+        <v>8600</v>
       </c>
       <c r="F43" s="3">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="G43" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="H43" s="3">
-        <v>6600</v>
+        <v>8200</v>
       </c>
       <c r="I43" s="3">
-        <v>3700</v>
+        <v>6300</v>
       </c>
       <c r="J43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,167 +2732,176 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17100</v>
+        <v>17900</v>
       </c>
       <c r="E45" s="3">
-        <v>18700</v>
+        <v>16300</v>
       </c>
       <c r="F45" s="3">
-        <v>16000</v>
+        <v>17800</v>
       </c>
       <c r="G45" s="3">
-        <v>12500</v>
+        <v>15200</v>
       </c>
       <c r="H45" s="3">
-        <v>9400</v>
+        <v>11900</v>
       </c>
       <c r="I45" s="3">
-        <v>9700</v>
+        <v>8900</v>
       </c>
       <c r="J45" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K45" s="3">
         <v>12100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>14700</v>
       </c>
       <c r="M45" s="3">
         <v>14700</v>
       </c>
       <c r="N45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="O45" s="3">
         <v>6500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>906700</v>
+        <v>802300</v>
       </c>
       <c r="E46" s="3">
-        <v>1168200</v>
+        <v>864000</v>
       </c>
       <c r="F46" s="3">
-        <v>602200</v>
+        <v>1113200</v>
       </c>
       <c r="G46" s="3">
-        <v>675700</v>
+        <v>573900</v>
       </c>
       <c r="H46" s="3">
-        <v>748700</v>
+        <v>643900</v>
       </c>
       <c r="I46" s="3">
-        <v>820300</v>
+        <v>713500</v>
       </c>
       <c r="J46" s="3">
+        <v>781800</v>
+      </c>
+      <c r="K46" s="3">
         <v>861000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>856200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>346500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>386800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>397100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>392800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>229600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>242100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>152600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>186700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>215900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>154100</v>
+        <v>184700</v>
       </c>
       <c r="E47" s="3">
-        <v>48100</v>
+        <v>146900</v>
       </c>
       <c r="F47" s="3">
-        <v>17400</v>
+        <v>45900</v>
       </c>
       <c r="G47" s="3">
-        <v>18800</v>
+        <v>16500</v>
       </c>
       <c r="H47" s="3">
-        <v>19000</v>
+        <v>17900</v>
       </c>
       <c r="I47" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K47" s="3">
+        <v>20700</v>
+      </c>
+      <c r="L47" s="3">
         <v>20900</v>
       </c>
-      <c r="J47" s="3">
-        <v>20700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>20900</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2813,108 +2918,114 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>132400</v>
+        <v>133300</v>
       </c>
       <c r="E48" s="3">
-        <v>58000</v>
+        <v>126200</v>
       </c>
       <c r="F48" s="3">
-        <v>60900</v>
+        <v>55200</v>
       </c>
       <c r="G48" s="3">
-        <v>61000</v>
+        <v>58100</v>
       </c>
       <c r="H48" s="3">
-        <v>55200</v>
+        <v>58100</v>
       </c>
       <c r="I48" s="3">
-        <v>53000</v>
+        <v>52600</v>
       </c>
       <c r="J48" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K48" s="3">
         <v>52100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2900</v>
       </c>
       <c r="S48" s="3">
         <v>2900</v>
       </c>
       <c r="T48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="U48" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="E49" s="3">
-        <v>5700</v>
+        <v>6700</v>
       </c>
       <c r="F49" s="3">
-        <v>4700</v>
+        <v>5400</v>
       </c>
       <c r="G49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K49" s="3">
         <v>4300</v>
       </c>
-      <c r="H49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4100</v>
       </c>
       <c r="M49" s="3">
         <v>4100</v>
       </c>
       <c r="N49" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="O49" s="3">
         <v>3800</v>
       </c>
       <c r="P49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="Q49" s="3">
         <v>3900</v>
@@ -2926,13 +3037,16 @@
         <v>3900</v>
       </c>
       <c r="T49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="U49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,49 +3166,52 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
-        <v>1600</v>
-      </c>
       <c r="G52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="I52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J52" s="3">
         <v>1700</v>
       </c>
       <c r="K52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L52" s="3">
         <v>1400</v>
       </c>
       <c r="M52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N52" s="3">
         <v>1500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1200</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200200</v>
+        <v>1126900</v>
       </c>
       <c r="E54" s="3">
-        <v>1281500</v>
+        <v>1143800</v>
       </c>
       <c r="F54" s="3">
-        <v>686700</v>
+        <v>1221300</v>
       </c>
       <c r="G54" s="3">
-        <v>761200</v>
+        <v>654500</v>
       </c>
       <c r="H54" s="3">
-        <v>829000</v>
+        <v>725400</v>
       </c>
       <c r="I54" s="3">
-        <v>900300</v>
+        <v>790000</v>
       </c>
       <c r="J54" s="3">
+        <v>858000</v>
+      </c>
+      <c r="K54" s="3">
         <v>939800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>911400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>377300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>396500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>405000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>236700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>249100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>159800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>193800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>223100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,97 +3402,101 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26800</v>
+        <v>63200</v>
       </c>
       <c r="E57" s="3">
-        <v>46700</v>
+        <v>25600</v>
       </c>
       <c r="F57" s="3">
-        <v>38700</v>
+        <v>44500</v>
       </c>
       <c r="G57" s="3">
-        <v>33400</v>
+        <v>36900</v>
       </c>
       <c r="H57" s="3">
-        <v>34000</v>
+        <v>31800</v>
       </c>
       <c r="I57" s="3">
-        <v>29800</v>
+        <v>32400</v>
       </c>
       <c r="J57" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K57" s="3">
         <v>26000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="E58" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="F58" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="H58" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="I58" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="J58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3372,8 +3506,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3390,156 +3524,165 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>29500</v>
+        <v>13900</v>
       </c>
       <c r="E59" s="3">
-        <v>24500</v>
+        <v>28100</v>
       </c>
       <c r="F59" s="3">
-        <v>20100</v>
+        <v>23300</v>
       </c>
       <c r="G59" s="3">
-        <v>10100</v>
+        <v>19200</v>
       </c>
       <c r="H59" s="3">
-        <v>17500</v>
+        <v>9600</v>
       </c>
       <c r="I59" s="3">
-        <v>15600</v>
+        <v>16700</v>
       </c>
       <c r="J59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K59" s="3">
         <v>42300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22700</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64700</v>
+        <v>85100</v>
       </c>
       <c r="E60" s="3">
-        <v>78900</v>
+        <v>61600</v>
       </c>
       <c r="F60" s="3">
-        <v>66600</v>
+        <v>75200</v>
       </c>
       <c r="G60" s="3">
-        <v>51200</v>
+        <v>63500</v>
       </c>
       <c r="H60" s="3">
-        <v>58800</v>
+        <v>48800</v>
       </c>
       <c r="I60" s="3">
-        <v>52100</v>
+        <v>56000</v>
       </c>
       <c r="J60" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K60" s="3">
         <v>74300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>104300</v>
+        <v>104600</v>
       </c>
       <c r="E61" s="3">
-        <v>33000</v>
+        <v>99400</v>
       </c>
       <c r="F61" s="3">
-        <v>35600</v>
+        <v>31500</v>
       </c>
       <c r="G61" s="3">
-        <v>37700</v>
+        <v>34000</v>
       </c>
       <c r="H61" s="3">
-        <v>37600</v>
+        <v>35900</v>
       </c>
       <c r="I61" s="3">
-        <v>38600</v>
+        <v>35900</v>
       </c>
       <c r="J61" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K61" s="3">
         <v>38500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3567,29 +3710,32 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3602,8 +3748,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>172800</v>
+        <v>189700</v>
       </c>
       <c r="E66" s="3">
-        <v>115800</v>
+        <v>164700</v>
       </c>
       <c r="F66" s="3">
-        <v>102200</v>
+        <v>110400</v>
       </c>
       <c r="G66" s="3">
-        <v>88900</v>
+        <v>97400</v>
       </c>
       <c r="H66" s="3">
-        <v>97500</v>
+        <v>84700</v>
       </c>
       <c r="I66" s="3">
-        <v>90700</v>
+        <v>92900</v>
       </c>
       <c r="J66" s="3">
+        <v>86400</v>
+      </c>
+      <c r="K66" s="3">
         <v>112800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4162,26 +4336,29 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>221300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>137000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>168800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>202200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1027400</v>
+        <v>937200</v>
       </c>
       <c r="E76" s="3">
-        <v>1165700</v>
+        <v>979100</v>
       </c>
       <c r="F76" s="3">
-        <v>584500</v>
+        <v>1110900</v>
       </c>
       <c r="G76" s="3">
-        <v>672300</v>
+        <v>557000</v>
       </c>
       <c r="H76" s="3">
-        <v>731500</v>
+        <v>640700</v>
       </c>
       <c r="I76" s="3">
-        <v>809600</v>
+        <v>697100</v>
       </c>
       <c r="J76" s="3">
+        <v>771600</v>
+      </c>
+      <c r="K76" s="3">
         <v>827000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>857300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>331300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>359800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>364800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>381500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>210000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>226800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>141900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>173700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>207300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-170200</v>
+        <v>-73300</v>
       </c>
       <c r="E81" s="3">
-        <v>-149100</v>
+        <v>-162200</v>
       </c>
       <c r="F81" s="3">
-        <v>-116300</v>
+        <v>-142100</v>
       </c>
       <c r="G81" s="3">
-        <v>-77600</v>
+        <v>-110800</v>
       </c>
       <c r="H81" s="3">
-        <v>-98400</v>
+        <v>-73900</v>
       </c>
       <c r="I81" s="3">
-        <v>-30800</v>
+        <v>-93800</v>
       </c>
       <c r="J81" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-72200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-64200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-40200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-45400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-38000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-34500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-28200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,43 +4819,44 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="E83" s="3">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="F83" s="3">
         <v>2700</v>
       </c>
       <c r="G83" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="H83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I83" s="3">
         <v>2300</v>
       </c>
       <c r="J83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-110700</v>
+        <v>-95300</v>
       </c>
       <c r="E89" s="3">
-        <v>-70800</v>
+        <v>-105500</v>
       </c>
       <c r="F89" s="3">
-        <v>-69300</v>
+        <v>-67500</v>
       </c>
       <c r="G89" s="3">
-        <v>-81800</v>
+        <v>-66100</v>
       </c>
       <c r="H89" s="3">
-        <v>-60300</v>
+        <v>-78000</v>
       </c>
       <c r="I89" s="3">
-        <v>-73400</v>
+        <v>-57500</v>
       </c>
       <c r="J89" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-72800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-42100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-54900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-40300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-28900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-26800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-23800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-19600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5200</v>
+        <v>-4700</v>
       </c>
       <c r="E91" s="3">
-        <v>-6000</v>
+        <v>-5000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G91" s="3">
-        <v>-7500</v>
+        <v>-5400</v>
       </c>
       <c r="H91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-87100</v>
+        <v>-35200</v>
       </c>
       <c r="E94" s="3">
-        <v>29900</v>
+        <v>-83000</v>
       </c>
       <c r="F94" s="3">
-        <v>-292000</v>
+        <v>28500</v>
       </c>
       <c r="G94" s="3">
-        <v>-7500</v>
+        <v>-278200</v>
       </c>
       <c r="H94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>716200</v>
+        <v>12000</v>
       </c>
       <c r="F100" s="3">
-        <v>10800</v>
+        <v>682500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1400</v>
+        <v>10300</v>
       </c>
       <c r="H100" s="3">
-        <v>5200</v>
+        <v>-1300</v>
       </c>
       <c r="I100" s="3">
-        <v>2600</v>
+        <v>5000</v>
       </c>
       <c r="J100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K100" s="3">
         <v>10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>573100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>216200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>18400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>120800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>137100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-34000</v>
+        <v>26000</v>
       </c>
       <c r="E101" s="3">
-        <v>-34800</v>
+        <v>-32400</v>
       </c>
       <c r="F101" s="3">
-        <v>-9300</v>
+        <v>-33200</v>
       </c>
       <c r="G101" s="3">
-        <v>12600</v>
+        <v>-8900</v>
       </c>
       <c r="H101" s="3">
-        <v>-17700</v>
+        <v>12000</v>
       </c>
       <c r="I101" s="3">
-        <v>33500</v>
+        <v>-16900</v>
       </c>
       <c r="J101" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>3800</v>
       </c>
       <c r="M101" s="3">
         <v>3800</v>
       </c>
       <c r="N101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O101" s="3">
         <v>23400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-219200</v>
+        <v>-104400</v>
       </c>
       <c r="E102" s="3">
-        <v>640500</v>
+        <v>-208900</v>
       </c>
       <c r="F102" s="3">
-        <v>-359900</v>
+        <v>610400</v>
       </c>
       <c r="G102" s="3">
-        <v>-78100</v>
+        <v>-343000</v>
       </c>
       <c r="H102" s="3">
-        <v>-74200</v>
+        <v>-74400</v>
       </c>
       <c r="I102" s="3">
-        <v>-38800</v>
+        <v>-70700</v>
       </c>
       <c r="J102" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>501000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-38400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-50000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>168100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>88600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-34000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>124200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12400</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>400</v>
       </c>
       <c r="T8" s="3">
         <v>400</v>
       </c>
       <c r="U8" s="3">
+        <v>400</v>
+      </c>
+      <c r="V8" s="3">
+        <v>400</v>
+      </c>
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>102900</v>
+        <v>66300</v>
       </c>
       <c r="E12" s="3">
-        <v>88400</v>
+        <v>94100</v>
       </c>
       <c r="F12" s="3">
-        <v>74800</v>
+        <v>99500</v>
       </c>
       <c r="G12" s="3">
-        <v>74200</v>
+        <v>85500</v>
       </c>
       <c r="H12" s="3">
-        <v>67100</v>
+        <v>72300</v>
       </c>
       <c r="I12" s="3">
+        <v>71800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K12" s="3">
         <v>57400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>52700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>52600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>60400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>44900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>37300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>44200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>33500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>31500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>32600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>24500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>23100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>23500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1169,35 +1215,35 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>1800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>146400</v>
+        <v>110700</v>
       </c>
       <c r="E17" s="3">
-        <v>112300</v>
+        <v>134000</v>
       </c>
       <c r="F17" s="3">
-        <v>95200</v>
+        <v>141600</v>
       </c>
       <c r="G17" s="3">
-        <v>98500</v>
+        <v>108600</v>
       </c>
       <c r="H17" s="3">
-        <v>88100</v>
+        <v>92100</v>
       </c>
       <c r="I17" s="3">
+        <v>95300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K17" s="3">
         <v>78600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>65700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>67100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>73800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>54800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>45300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>49900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>38700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>36000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>35800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>28200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>26900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>27300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-145600</v>
+        <v>-109500</v>
       </c>
       <c r="E18" s="3">
-        <v>-111700</v>
+        <v>-132800</v>
       </c>
       <c r="F18" s="3">
-        <v>-92000</v>
+        <v>-140800</v>
       </c>
       <c r="G18" s="3">
-        <v>-96900</v>
+        <v>-108000</v>
       </c>
       <c r="H18" s="3">
-        <v>-85500</v>
+        <v>-89000</v>
       </c>
       <c r="I18" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-75700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-63100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-63200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-67300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-42400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-45300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-49900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-38700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-35700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-35400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-27700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-26400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-26100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>72000</v>
+        <v>18700</v>
       </c>
       <c r="E20" s="3">
-        <v>-50600</v>
+        <v>-19000</v>
       </c>
       <c r="F20" s="3">
-        <v>-50200</v>
+        <v>69700</v>
       </c>
       <c r="G20" s="3">
-        <v>-14100</v>
+        <v>-48900</v>
       </c>
       <c r="H20" s="3">
-        <v>11500</v>
+        <v>-48500</v>
       </c>
       <c r="I20" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-17800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>34200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>24800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-6800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>6900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-69200</v>
+        <v>-86400</v>
       </c>
       <c r="E21" s="3">
-        <v>-158800</v>
+        <v>-147700</v>
       </c>
       <c r="F21" s="3">
-        <v>-139500</v>
+        <v>-66900</v>
       </c>
       <c r="G21" s="3">
-        <v>-108400</v>
+        <v>-153600</v>
       </c>
       <c r="H21" s="3">
-        <v>-71700</v>
+        <v>-134900</v>
       </c>
       <c r="I21" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-91200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-26700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-70200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-62500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-37600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-40000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-24900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-38300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-38100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-34300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-28000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-19100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,35 +1604,35 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1566,96 +1646,108 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-73500</v>
+        <v>-90700</v>
       </c>
       <c r="E23" s="3">
-        <v>-162200</v>
+        <v>-151800</v>
       </c>
       <c r="F23" s="3">
-        <v>-142100</v>
+        <v>-71100</v>
       </c>
       <c r="G23" s="3">
-        <v>-110900</v>
+        <v>-156900</v>
       </c>
       <c r="H23" s="3">
-        <v>-74000</v>
+        <v>-137500</v>
       </c>
       <c r="I23" s="3">
+        <v>-107300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-93900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-29400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-72200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-64200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-37900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-40300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-25100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-45500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-38600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-38300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-34500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-28200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-19300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
@@ -1673,25 +1765,31 @@
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-73300</v>
+        <v>-90700</v>
       </c>
       <c r="E26" s="3">
-        <v>-162200</v>
+        <v>-151700</v>
       </c>
       <c r="F26" s="3">
-        <v>-142100</v>
+        <v>-70900</v>
       </c>
       <c r="G26" s="3">
-        <v>-110800</v>
+        <v>-156900</v>
       </c>
       <c r="H26" s="3">
-        <v>-73900</v>
+        <v>-137500</v>
       </c>
       <c r="I26" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-93800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-29300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-72200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-64200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-37800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-40200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-25000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-38300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-38000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-34500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-28200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-19300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-73300</v>
+        <v>-90700</v>
       </c>
       <c r="E27" s="3">
-        <v>-162200</v>
+        <v>-151700</v>
       </c>
       <c r="F27" s="3">
-        <v>-142100</v>
+        <v>-70900</v>
       </c>
       <c r="G27" s="3">
-        <v>-110800</v>
+        <v>-156900</v>
       </c>
       <c r="H27" s="3">
-        <v>-73900</v>
+        <v>-137500</v>
       </c>
       <c r="I27" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-93800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-29300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-72200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-64200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-37800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-40200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-25000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-38300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-38000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-34500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-28200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-19300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72000</v>
+        <v>-18700</v>
       </c>
       <c r="E32" s="3">
-        <v>50600</v>
+        <v>19000</v>
       </c>
       <c r="F32" s="3">
-        <v>50200</v>
+        <v>-69700</v>
       </c>
       <c r="G32" s="3">
-        <v>14100</v>
+        <v>48900</v>
       </c>
       <c r="H32" s="3">
-        <v>-11500</v>
+        <v>48500</v>
       </c>
       <c r="I32" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K32" s="3">
         <v>17800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-34200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-24800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>6900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>6800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-6900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-73300</v>
+        <v>-90700</v>
       </c>
       <c r="E33" s="3">
-        <v>-162200</v>
+        <v>-151700</v>
       </c>
       <c r="F33" s="3">
-        <v>-142100</v>
+        <v>-70900</v>
       </c>
       <c r="G33" s="3">
-        <v>-110800</v>
+        <v>-156900</v>
       </c>
       <c r="H33" s="3">
-        <v>-73900</v>
+        <v>-137500</v>
       </c>
       <c r="I33" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-93800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-29300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-72200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-64200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-37800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-40200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-25000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-38300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-38000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-34500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-28200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-19300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-73300</v>
+        <v>-90700</v>
       </c>
       <c r="E35" s="3">
-        <v>-162200</v>
+        <v>-151700</v>
       </c>
       <c r="F35" s="3">
-        <v>-142100</v>
+        <v>-70900</v>
       </c>
       <c r="G35" s="3">
-        <v>-110800</v>
+        <v>-156900</v>
       </c>
       <c r="H35" s="3">
-        <v>-73900</v>
+        <v>-137500</v>
       </c>
       <c r="I35" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-93800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-29300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-72200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-64200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-37800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-40200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-25000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-38300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-38000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-34500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-28200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-19300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,90 +2659,98 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>577900</v>
+        <v>782400</v>
       </c>
       <c r="E41" s="3">
-        <v>682400</v>
+        <v>434200</v>
       </c>
       <c r="F41" s="3">
-        <v>891300</v>
+        <v>559000</v>
       </c>
       <c r="G41" s="3">
-        <v>280900</v>
+        <v>660000</v>
       </c>
       <c r="H41" s="3">
-        <v>623800</v>
+        <v>862000</v>
       </c>
       <c r="I41" s="3">
+        <v>271700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>603400</v>
+      </c>
+      <c r="K41" s="3">
         <v>698200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>768900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>845700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>833300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>328700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>367100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>387200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>382600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>219200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>231500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>142900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>176900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>211700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>198100</v>
+        <v>186700</v>
       </c>
       <c r="E42" s="3">
-        <v>156800</v>
+        <v>187500</v>
       </c>
       <c r="F42" s="3">
-        <v>194200</v>
+        <v>191600</v>
       </c>
       <c r="G42" s="3">
-        <v>269600</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+        <v>151600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>187800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>260800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -2581,11 +2761,11 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2611,93 +2791,105 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8500</v>
+        <v>23500</v>
       </c>
       <c r="E43" s="3">
-        <v>8600</v>
+        <v>13300</v>
       </c>
       <c r="F43" s="3">
-        <v>10000</v>
+        <v>8200</v>
       </c>
       <c r="G43" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="H43" s="3">
-        <v>8200</v>
+        <v>9600</v>
       </c>
       <c r="I43" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K43" s="3">
         <v>6300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>62400</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2735,179 +2927,197 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17900</v>
+        <v>25100</v>
       </c>
       <c r="E45" s="3">
-        <v>16300</v>
+        <v>24600</v>
       </c>
       <c r="F45" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="G45" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="H45" s="3">
-        <v>11900</v>
+        <v>17200</v>
       </c>
       <c r="I45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>14700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>7800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>7700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>8100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>6800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>6300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>802300</v>
+        <v>1080100</v>
       </c>
       <c r="E46" s="3">
-        <v>864000</v>
+        <v>659700</v>
       </c>
       <c r="F46" s="3">
-        <v>1113200</v>
+        <v>776000</v>
       </c>
       <c r="G46" s="3">
-        <v>573900</v>
+        <v>835700</v>
       </c>
       <c r="H46" s="3">
-        <v>643900</v>
+        <v>1076700</v>
       </c>
       <c r="I46" s="3">
+        <v>555100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>622800</v>
+      </c>
+      <c r="K46" s="3">
         <v>713500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>781800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>861000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>856200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>346500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>386800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>397100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>392800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>229600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>242100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>152600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>186700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>215900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>184700</v>
+        <v>130100</v>
       </c>
       <c r="E47" s="3">
-        <v>146900</v>
+        <v>156000</v>
       </c>
       <c r="F47" s="3">
-        <v>45900</v>
+        <v>178700</v>
       </c>
       <c r="G47" s="3">
-        <v>16500</v>
+        <v>142100</v>
       </c>
       <c r="H47" s="3">
-        <v>17900</v>
+        <v>44400</v>
       </c>
       <c r="I47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K47" s="3">
         <v>18100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>19900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>20700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>20900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>20200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2921,117 +3131,129 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>133300</v>
+        <v>142600</v>
       </c>
       <c r="E48" s="3">
-        <v>126200</v>
+        <v>139900</v>
       </c>
       <c r="F48" s="3">
-        <v>55200</v>
+        <v>128900</v>
       </c>
       <c r="G48" s="3">
-        <v>58100</v>
+        <v>122100</v>
       </c>
       <c r="H48" s="3">
-        <v>58100</v>
+        <v>53400</v>
       </c>
       <c r="I48" s="3">
+        <v>56200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K48" s="3">
         <v>52600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>50500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>52100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>28700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2700</v>
       </c>
       <c r="Q48" s="3">
         <v>2900</v>
       </c>
       <c r="R48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="S48" s="3">
         <v>2900</v>
       </c>
       <c r="T48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U48" s="3">
         <v>2900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W48" s="3">
         <v>2800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G49" s="3">
         <v>6500</v>
       </c>
-      <c r="E49" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4400</v>
-      </c>
       <c r="H49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K49" s="3">
         <v>4100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>4100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O49" s="3">
         <v>4100</v>
       </c>
-      <c r="K49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>4100</v>
       </c>
-      <c r="N49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="R49" s="3">
-        <v>3900</v>
       </c>
       <c r="S49" s="3">
         <v>3900</v>
@@ -3040,13 +3262,19 @@
         <v>3900</v>
       </c>
       <c r="U49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="V49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="W49" s="3">
         <v>4100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,55 +3403,61 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>1900</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1500</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I52" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="J52" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K52" s="3">
         <v>1700</v>
       </c>
       <c r="L52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>300</v>
+      </c>
+      <c r="X52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1126900</v>
+        <v>1360800</v>
       </c>
       <c r="E54" s="3">
-        <v>1143800</v>
+        <v>961800</v>
       </c>
       <c r="F54" s="3">
-        <v>1221300</v>
+        <v>1089900</v>
       </c>
       <c r="G54" s="3">
-        <v>654500</v>
+        <v>1106300</v>
       </c>
       <c r="H54" s="3">
-        <v>725400</v>
+        <v>1181200</v>
       </c>
       <c r="I54" s="3">
+        <v>633000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>701600</v>
+      </c>
+      <c r="K54" s="3">
         <v>790000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>858000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>939800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>911400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>377300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>396500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>405000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>236700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>249100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>159800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>193800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>223100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,117 +3663,125 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>63200</v>
+        <v>86300</v>
       </c>
       <c r="E57" s="3">
-        <v>25600</v>
+        <v>49900</v>
       </c>
       <c r="F57" s="3">
-        <v>44500</v>
+        <v>61100</v>
       </c>
       <c r="G57" s="3">
-        <v>36900</v>
+        <v>24700</v>
       </c>
       <c r="H57" s="3">
-        <v>31800</v>
+        <v>43000</v>
       </c>
       <c r="I57" s="3">
+        <v>35700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K57" s="3">
         <v>32400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>28400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>26000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>23000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>23400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>36700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>40200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>19100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>26700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>22000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>17400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>19600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>15400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F58" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="G58" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="H58" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="I58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K58" s="3">
         <v>6900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3527,168 +3795,186 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13900</v>
+        <v>37100</v>
       </c>
       <c r="E59" s="3">
-        <v>28100</v>
+        <v>21600</v>
       </c>
       <c r="F59" s="3">
-        <v>23300</v>
+        <v>13400</v>
       </c>
       <c r="G59" s="3">
-        <v>19200</v>
+        <v>27200</v>
       </c>
       <c r="H59" s="3">
-        <v>9600</v>
+        <v>22600</v>
       </c>
       <c r="I59" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K59" s="3">
         <v>16700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>14900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>42300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>22700</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
       </c>
       <c r="V59" s="3">
+        <v>500</v>
+      </c>
+      <c r="W59" s="3">
+        <v>400</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85100</v>
+        <v>131100</v>
       </c>
       <c r="E60" s="3">
-        <v>61600</v>
+        <v>79400</v>
       </c>
       <c r="F60" s="3">
-        <v>75200</v>
+        <v>82300</v>
       </c>
       <c r="G60" s="3">
-        <v>63500</v>
+        <v>59600</v>
       </c>
       <c r="H60" s="3">
-        <v>48800</v>
+        <v>72700</v>
       </c>
       <c r="I60" s="3">
+        <v>61400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K60" s="3">
         <v>56000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>49700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>74300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>38400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>46000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>36700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>40200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>26700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>22300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>17900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>20100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>15800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>104600</v>
+        <v>107900</v>
       </c>
       <c r="E61" s="3">
-        <v>99400</v>
+        <v>106200</v>
       </c>
       <c r="F61" s="3">
-        <v>31500</v>
+        <v>101100</v>
       </c>
       <c r="G61" s="3">
-        <v>34000</v>
+        <v>96100</v>
       </c>
       <c r="H61" s="3">
+        <v>30400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K61" s="3">
         <v>35900</v>
       </c>
-      <c r="I61" s="3">
-        <v>35900</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>36800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>38500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,26 +4014,26 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3751,11 +4043,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>189700</v>
+        <v>239000</v>
       </c>
       <c r="E66" s="3">
-        <v>164700</v>
+        <v>185600</v>
       </c>
       <c r="F66" s="3">
-        <v>110400</v>
+        <v>183500</v>
       </c>
       <c r="G66" s="3">
-        <v>97400</v>
+        <v>159300</v>
       </c>
       <c r="H66" s="3">
-        <v>84700</v>
+        <v>106700</v>
       </c>
       <c r="I66" s="3">
+        <v>94200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K66" s="3">
         <v>92900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>86400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>112800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>54200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>46000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>36700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>40200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>26700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>22300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>17900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>20100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>15800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,31 +4637,37 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-1266900</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>-1191100</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-1057800</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -4339,26 +4687,32 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>221300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>137000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>168800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>202200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>937200</v>
+        <v>1121800</v>
       </c>
       <c r="E76" s="3">
-        <v>979100</v>
+        <v>776200</v>
       </c>
       <c r="F76" s="3">
-        <v>1110900</v>
+        <v>906500</v>
       </c>
       <c r="G76" s="3">
-        <v>557000</v>
+        <v>947000</v>
       </c>
       <c r="H76" s="3">
-        <v>640700</v>
+        <v>1074400</v>
       </c>
       <c r="I76" s="3">
+        <v>538700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>619700</v>
+      </c>
+      <c r="K76" s="3">
         <v>697100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>771600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>827000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>857300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>331300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>359800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>364800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>381500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>210000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>226800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>141900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>173700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>207300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-73300</v>
+        <v>-90700</v>
       </c>
       <c r="E81" s="3">
-        <v>-162200</v>
+        <v>-151700</v>
       </c>
       <c r="F81" s="3">
-        <v>-142100</v>
+        <v>-70900</v>
       </c>
       <c r="G81" s="3">
-        <v>-110800</v>
+        <v>-156900</v>
       </c>
       <c r="H81" s="3">
-        <v>-73900</v>
+        <v>-137500</v>
       </c>
       <c r="I81" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-93800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-29300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-72200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-64200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-37800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-40200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-25000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-38300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-38000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-34500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-28200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-19300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,40 +5227,40 @@
         <v>4300</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="F83" s="3">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="G83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-95300</v>
+        <v>-110100</v>
       </c>
       <c r="E89" s="3">
-        <v>-105500</v>
+        <v>-130100</v>
       </c>
       <c r="F89" s="3">
-        <v>-67500</v>
+        <v>-92200</v>
       </c>
       <c r="G89" s="3">
-        <v>-66100</v>
+        <v>-102000</v>
       </c>
       <c r="H89" s="3">
-        <v>-78000</v>
+        <v>-65300</v>
       </c>
       <c r="I89" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-57500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-70000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-72800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-42100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-54900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-22100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-40300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-27100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-28900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-26800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-23800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-19600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4700</v>
+        <v>-12800</v>
       </c>
       <c r="E91" s="3">
-        <v>-5000</v>
+        <v>-4000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5700</v>
+        <v>-4500</v>
       </c>
       <c r="G91" s="3">
-        <v>-5400</v>
+        <v>-4800</v>
       </c>
       <c r="H91" s="3">
-        <v>-7200</v>
+        <v>-5500</v>
       </c>
       <c r="I91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-300</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35200</v>
+        <v>23100</v>
       </c>
       <c r="E94" s="3">
-        <v>-83000</v>
+        <v>12500</v>
       </c>
       <c r="F94" s="3">
-        <v>28500</v>
+        <v>-34000</v>
       </c>
       <c r="G94" s="3">
-        <v>-278200</v>
+        <v>-80300</v>
       </c>
       <c r="H94" s="3">
-        <v>-7200</v>
+        <v>27600</v>
       </c>
       <c r="I94" s="3">
+        <v>-269100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-300</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>418500</v>
       </c>
       <c r="E100" s="3">
-        <v>12000</v>
+        <v>1600</v>
       </c>
       <c r="F100" s="3">
-        <v>682500</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>10300</v>
+        <v>11600</v>
       </c>
       <c r="H100" s="3">
+        <v>660100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>573100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>216200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>18400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>120800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>137100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26000</v>
+        <v>16800</v>
       </c>
       <c r="E101" s="3">
-        <v>-32400</v>
+        <v>-8700</v>
       </c>
       <c r="F101" s="3">
-        <v>-33200</v>
+        <v>25100</v>
       </c>
       <c r="G101" s="3">
-        <v>-8900</v>
+        <v>-31400</v>
       </c>
       <c r="H101" s="3">
-        <v>12000</v>
+        <v>-32100</v>
       </c>
       <c r="I101" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-10100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>23400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>6700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-104400</v>
+        <v>348200</v>
       </c>
       <c r="E102" s="3">
-        <v>-208900</v>
+        <v>-124800</v>
       </c>
       <c r="F102" s="3">
-        <v>610400</v>
+        <v>-101000</v>
       </c>
       <c r="G102" s="3">
-        <v>-343000</v>
+        <v>-202000</v>
       </c>
       <c r="H102" s="3">
-        <v>-74400</v>
+        <v>590300</v>
       </c>
       <c r="I102" s="3">
+        <v>-331700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-70700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-37000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>501000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-38400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-50000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>168100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-12300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>88600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-34000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-25400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>124200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,149 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
-        <v>600</v>
-      </c>
       <c r="H8" s="3">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="J8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12400</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -812,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>400</v>
       </c>
       <c r="U8" s="3">
         <v>400</v>
@@ -824,18 +827,21 @@
         <v>400</v>
       </c>
       <c r="W8" s="3">
+        <v>400</v>
+      </c>
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>3800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -897,13 +903,16 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>1500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>66300</v>
+        <v>71600</v>
       </c>
       <c r="E12" s="3">
-        <v>94100</v>
+        <v>64100</v>
       </c>
       <c r="F12" s="3">
-        <v>99500</v>
+        <v>90900</v>
       </c>
       <c r="G12" s="3">
-        <v>85500</v>
+        <v>96200</v>
       </c>
       <c r="H12" s="3">
-        <v>72300</v>
+        <v>82600</v>
       </c>
       <c r="I12" s="3">
-        <v>71800</v>
+        <v>69900</v>
       </c>
       <c r="J12" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K12" s="3">
         <v>64900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>57400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>52700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>52600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>60400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>44900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>37300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>44200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>33500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>31500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>32600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>24500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,21 +1243,21 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>1800</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>1800</v>
       </c>
       <c r="M15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N15" s="3">
         <v>1500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1245,8 +1267,8 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>110700</v>
+        <v>128200</v>
       </c>
       <c r="E17" s="3">
-        <v>134000</v>
+        <v>107000</v>
       </c>
       <c r="F17" s="3">
-        <v>141600</v>
+        <v>129400</v>
       </c>
       <c r="G17" s="3">
-        <v>108600</v>
+        <v>136800</v>
       </c>
       <c r="H17" s="3">
+        <v>104900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>89000</v>
+      </c>
+      <c r="J17" s="3">
         <v>92100</v>
       </c>
-      <c r="I17" s="3">
-        <v>95300</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>85200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>73800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>54800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>49900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>35800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>28200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>27300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-109500</v>
+        <v>-122800</v>
       </c>
       <c r="E18" s="3">
-        <v>-132800</v>
+        <v>-105800</v>
       </c>
       <c r="F18" s="3">
-        <v>-140800</v>
+        <v>-128300</v>
       </c>
       <c r="G18" s="3">
-        <v>-108000</v>
+        <v>-136000</v>
       </c>
       <c r="H18" s="3">
-        <v>-89000</v>
+        <v>-104400</v>
       </c>
       <c r="I18" s="3">
-        <v>-93700</v>
+        <v>-85900</v>
       </c>
       <c r="J18" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-82700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-75700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-63100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-63200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-67300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-42400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-49900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-38700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-35700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-35400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-27700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-26400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-26100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18700</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>-19000</v>
+        <v>18100</v>
       </c>
       <c r="F20" s="3">
-        <v>69700</v>
+        <v>-18300</v>
       </c>
       <c r="G20" s="3">
-        <v>-48900</v>
+        <v>67300</v>
       </c>
       <c r="H20" s="3">
-        <v>-48500</v>
+        <v>-47200</v>
       </c>
       <c r="I20" s="3">
-        <v>-13600</v>
+        <v>-46900</v>
       </c>
       <c r="J20" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K20" s="3">
         <v>11100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>34200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>24800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2900</v>
       </c>
       <c r="T20" s="3">
         <v>-2900</v>
       </c>
       <c r="U20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="V20" s="3">
         <v>-6800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-86400</v>
+        <v>-111200</v>
       </c>
       <c r="E21" s="3">
-        <v>-147700</v>
+        <v>-83500</v>
       </c>
       <c r="F21" s="3">
-        <v>-66900</v>
+        <v>-142700</v>
       </c>
       <c r="G21" s="3">
-        <v>-153600</v>
+        <v>-64700</v>
       </c>
       <c r="H21" s="3">
-        <v>-134900</v>
+        <v>-148400</v>
       </c>
       <c r="I21" s="3">
-        <v>-104800</v>
+        <v>-130400</v>
       </c>
       <c r="J21" s="3">
+        <v>-101300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-69300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-91200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-70200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-62500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-37600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-24900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-45300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-38300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-38100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-34300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-28000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-19100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,20 +1649,20 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>200</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1634,8 +1673,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1652,105 +1691,111 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-90700</v>
+        <v>-115800</v>
       </c>
       <c r="E23" s="3">
-        <v>-151800</v>
+        <v>-87600</v>
       </c>
       <c r="F23" s="3">
-        <v>-71100</v>
+        <v>-146700</v>
       </c>
       <c r="G23" s="3">
-        <v>-156900</v>
+        <v>-68700</v>
       </c>
       <c r="H23" s="3">
-        <v>-137500</v>
+        <v>-151600</v>
       </c>
       <c r="I23" s="3">
-        <v>-107300</v>
+        <v>-132800</v>
       </c>
       <c r="J23" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-71600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-93900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-29400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-72200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-64200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-40300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-45500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-38600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-38300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-34500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-28200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-19300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
@@ -1771,14 +1816,14 @@
         <v>-100</v>
       </c>
       <c r="S24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1786,10 +1831,13 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-90700</v>
+        <v>-115700</v>
       </c>
       <c r="E26" s="3">
-        <v>-151700</v>
+        <v>-87700</v>
       </c>
       <c r="F26" s="3">
-        <v>-70900</v>
+        <v>-146600</v>
       </c>
       <c r="G26" s="3">
-        <v>-156900</v>
+        <v>-68500</v>
       </c>
       <c r="H26" s="3">
-        <v>-137500</v>
+        <v>-151600</v>
       </c>
       <c r="I26" s="3">
-        <v>-107200</v>
+        <v>-132800</v>
       </c>
       <c r="J26" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-71500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-93800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-29300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-72200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-64200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-37800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-45400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-38300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-38000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-34500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-28200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-19300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-90700</v>
+        <v>-115700</v>
       </c>
       <c r="E27" s="3">
-        <v>-151700</v>
+        <v>-87700</v>
       </c>
       <c r="F27" s="3">
-        <v>-70900</v>
+        <v>-146600</v>
       </c>
       <c r="G27" s="3">
-        <v>-156900</v>
+        <v>-68500</v>
       </c>
       <c r="H27" s="3">
-        <v>-137500</v>
+        <v>-151600</v>
       </c>
       <c r="I27" s="3">
-        <v>-107200</v>
+        <v>-132800</v>
       </c>
       <c r="J27" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-71500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-93800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-29300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-72200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-64200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-37800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-25000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-45400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-38300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-38000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-34500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-28200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-19300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18700</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>19000</v>
+        <v>-18100</v>
       </c>
       <c r="F32" s="3">
-        <v>-69700</v>
+        <v>18300</v>
       </c>
       <c r="G32" s="3">
-        <v>48900</v>
+        <v>-67300</v>
       </c>
       <c r="H32" s="3">
-        <v>48500</v>
+        <v>47200</v>
       </c>
       <c r="I32" s="3">
-        <v>13600</v>
+        <v>46900</v>
       </c>
       <c r="J32" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-34200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-24800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2900</v>
       </c>
       <c r="T32" s="3">
         <v>2900</v>
       </c>
       <c r="U32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V32" s="3">
         <v>6800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-90700</v>
+        <v>-115700</v>
       </c>
       <c r="E33" s="3">
-        <v>-151700</v>
+        <v>-87700</v>
       </c>
       <c r="F33" s="3">
-        <v>-70900</v>
+        <v>-146600</v>
       </c>
       <c r="G33" s="3">
-        <v>-156900</v>
+        <v>-68500</v>
       </c>
       <c r="H33" s="3">
-        <v>-137500</v>
+        <v>-151600</v>
       </c>
       <c r="I33" s="3">
-        <v>-107200</v>
+        <v>-132800</v>
       </c>
       <c r="J33" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-71500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-93800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-72200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-64200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-37800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-25000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-45400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-38300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-38000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-34500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-28200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-19300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-90700</v>
+        <v>-115700</v>
       </c>
       <c r="E35" s="3">
-        <v>-151700</v>
+        <v>-87700</v>
       </c>
       <c r="F35" s="3">
-        <v>-70900</v>
+        <v>-146600</v>
       </c>
       <c r="G35" s="3">
-        <v>-156900</v>
+        <v>-68500</v>
       </c>
       <c r="H35" s="3">
-        <v>-137500</v>
+        <v>-151600</v>
       </c>
       <c r="I35" s="3">
-        <v>-107200</v>
+        <v>-132800</v>
       </c>
       <c r="J35" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-71500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-93800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-72200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-64200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-37800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-25000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-45400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-38300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-38000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-34500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-28200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-19300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,99 +2746,103 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>782400</v>
+        <v>486800</v>
       </c>
       <c r="E41" s="3">
-        <v>434200</v>
+        <v>755900</v>
       </c>
       <c r="F41" s="3">
-        <v>559000</v>
+        <v>419500</v>
       </c>
       <c r="G41" s="3">
-        <v>660000</v>
+        <v>540100</v>
       </c>
       <c r="H41" s="3">
-        <v>862000</v>
+        <v>637700</v>
       </c>
       <c r="I41" s="3">
-        <v>271700</v>
+        <v>832900</v>
       </c>
       <c r="J41" s="3">
+        <v>262500</v>
+      </c>
+      <c r="K41" s="3">
         <v>603400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>698200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>768900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>845700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>833300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>328700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>367100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>387200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>382600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>219200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>231500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>142900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>176900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>211700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>186700</v>
+        <v>257200</v>
       </c>
       <c r="E42" s="3">
-        <v>187500</v>
+        <v>180400</v>
       </c>
       <c r="F42" s="3">
-        <v>191600</v>
+        <v>181200</v>
       </c>
       <c r="G42" s="3">
-        <v>151600</v>
+        <v>185100</v>
       </c>
       <c r="H42" s="3">
-        <v>187800</v>
+        <v>146500</v>
       </c>
       <c r="I42" s="3">
-        <v>260800</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+        <v>181500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>252000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2767,8 +2856,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2797,84 +2886,90 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23500</v>
+        <v>25300</v>
       </c>
       <c r="E43" s="3">
-        <v>13300</v>
+        <v>22700</v>
       </c>
       <c r="F43" s="3">
-        <v>8200</v>
+        <v>12900</v>
       </c>
       <c r="G43" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="H43" s="3">
-        <v>9600</v>
+        <v>8000</v>
       </c>
       <c r="I43" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K43" s="3">
         <v>7900</v>
       </c>
-      <c r="J43" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62400</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
+        <v>82300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>60300</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
@@ -2891,8 +2986,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2933,194 +3028,203 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25100</v>
+        <v>27500</v>
       </c>
       <c r="E45" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="F45" s="3">
-        <v>17300</v>
+        <v>23800</v>
       </c>
       <c r="G45" s="3">
-        <v>15800</v>
+        <v>16700</v>
       </c>
       <c r="H45" s="3">
-        <v>17200</v>
+        <v>15300</v>
       </c>
       <c r="I45" s="3">
-        <v>14700</v>
+        <v>16700</v>
       </c>
       <c r="J45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K45" s="3">
         <v>11500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>14700</v>
       </c>
       <c r="P45" s="3">
         <v>14700</v>
       </c>
       <c r="Q45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="R45" s="3">
         <v>6500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1080100</v>
+        <v>879100</v>
       </c>
       <c r="E46" s="3">
-        <v>659700</v>
+        <v>1043600</v>
       </c>
       <c r="F46" s="3">
-        <v>776000</v>
+        <v>637400</v>
       </c>
       <c r="G46" s="3">
-        <v>835700</v>
+        <v>749800</v>
       </c>
       <c r="H46" s="3">
-        <v>1076700</v>
+        <v>807400</v>
       </c>
       <c r="I46" s="3">
-        <v>555100</v>
+        <v>1040300</v>
       </c>
       <c r="J46" s="3">
+        <v>536300</v>
+      </c>
+      <c r="K46" s="3">
         <v>622800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>713500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>781800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>861000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>856200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>346500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>386800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>397100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>392800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>229600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>242100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>152600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>186700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>215900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>130100</v>
+        <v>161100</v>
       </c>
       <c r="E47" s="3">
-        <v>156000</v>
+        <v>125700</v>
       </c>
       <c r="F47" s="3">
-        <v>178700</v>
+        <v>150700</v>
       </c>
       <c r="G47" s="3">
-        <v>142100</v>
+        <v>172600</v>
       </c>
       <c r="H47" s="3">
-        <v>44400</v>
+        <v>137300</v>
       </c>
       <c r="I47" s="3">
-        <v>16000</v>
+        <v>42900</v>
       </c>
       <c r="J47" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K47" s="3">
         <v>17300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,126 +3241,132 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>142600</v>
+        <v>137500</v>
       </c>
       <c r="E48" s="3">
-        <v>139900</v>
+        <v>137800</v>
       </c>
       <c r="F48" s="3">
-        <v>128900</v>
+        <v>135200</v>
       </c>
       <c r="G48" s="3">
-        <v>122100</v>
+        <v>124600</v>
       </c>
       <c r="H48" s="3">
-        <v>53400</v>
+        <v>117900</v>
       </c>
       <c r="I48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K48" s="3">
         <v>56200</v>
       </c>
-      <c r="J48" s="3">
-        <v>56200</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2900</v>
       </c>
       <c r="V48" s="3">
         <v>2900</v>
       </c>
       <c r="W48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="X48" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G49" s="3">
         <v>6100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>6200</v>
       </c>
-      <c r="F49" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5300</v>
-      </c>
       <c r="I49" s="3">
-        <v>4300</v>
+        <v>5100</v>
       </c>
       <c r="J49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K49" s="3">
         <v>3900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4100</v>
       </c>
       <c r="L49" s="3">
         <v>4100</v>
       </c>
       <c r="M49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N49" s="3">
         <v>4300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>4100</v>
       </c>
       <c r="P49" s="3">
         <v>4100</v>
       </c>
       <c r="Q49" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="R49" s="3">
         <v>3800</v>
       </c>
       <c r="S49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="T49" s="3">
         <v>3900</v>
@@ -3268,13 +3378,16 @@
         <v>3900</v>
       </c>
       <c r="W49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="X49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,25 +3525,28 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>1400</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>1400</v>
@@ -3436,7 +3555,7 @@
         <v>1400</v>
       </c>
       <c r="K52" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L52" s="3">
         <v>1700</v>
@@ -3445,22 +3564,22 @@
         <v>1700</v>
       </c>
       <c r="N52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="O52" s="3">
         <v>1400</v>
       </c>
       <c r="P52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1200</v>
       </c>
       <c r="R52" s="3">
         <v>1200</v>
       </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1360800</v>
+        <v>1183600</v>
       </c>
       <c r="E54" s="3">
-        <v>961800</v>
+        <v>1314800</v>
       </c>
       <c r="F54" s="3">
-        <v>1089900</v>
+        <v>929300</v>
       </c>
       <c r="G54" s="3">
-        <v>1106300</v>
+        <v>1053100</v>
       </c>
       <c r="H54" s="3">
-        <v>1181200</v>
+        <v>1068900</v>
       </c>
       <c r="I54" s="3">
-        <v>633000</v>
+        <v>1141200</v>
       </c>
       <c r="J54" s="3">
+        <v>611600</v>
+      </c>
+      <c r="K54" s="3">
         <v>701600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>790000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>858000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>939800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>911400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>377300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>396500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>405000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>236700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>249100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>159800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>193800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>223100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86300</v>
+        <v>64800</v>
       </c>
       <c r="E57" s="3">
-        <v>49900</v>
+        <v>83400</v>
       </c>
       <c r="F57" s="3">
-        <v>61100</v>
+        <v>48200</v>
       </c>
       <c r="G57" s="3">
-        <v>24700</v>
+        <v>59100</v>
       </c>
       <c r="H57" s="3">
-        <v>43000</v>
+        <v>23900</v>
       </c>
       <c r="I57" s="3">
-        <v>35700</v>
+        <v>41600</v>
       </c>
       <c r="J57" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K57" s="3">
         <v>30800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>26700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>17400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,38 +3875,38 @@
         <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="F58" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="H58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3783,8 +3916,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,183 +3934,192 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37100</v>
+        <v>37000</v>
       </c>
       <c r="E59" s="3">
-        <v>21600</v>
+        <v>35900</v>
       </c>
       <c r="F59" s="3">
-        <v>13400</v>
+        <v>20900</v>
       </c>
       <c r="G59" s="3">
-        <v>27200</v>
+        <v>13000</v>
       </c>
       <c r="H59" s="3">
-        <v>22600</v>
+        <v>26200</v>
       </c>
       <c r="I59" s="3">
-        <v>18500</v>
+        <v>21800</v>
       </c>
       <c r="J59" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K59" s="3">
         <v>9300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22700</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>131100</v>
+        <v>109500</v>
       </c>
       <c r="E60" s="3">
-        <v>79400</v>
+        <v>126700</v>
       </c>
       <c r="F60" s="3">
-        <v>82300</v>
+        <v>76700</v>
       </c>
       <c r="G60" s="3">
-        <v>59600</v>
+        <v>79600</v>
       </c>
       <c r="H60" s="3">
-        <v>72700</v>
+        <v>57600</v>
       </c>
       <c r="I60" s="3">
-        <v>61400</v>
+        <v>70300</v>
       </c>
       <c r="J60" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K60" s="3">
         <v>47200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>74300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>40200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107900</v>
+        <v>106900</v>
       </c>
       <c r="E61" s="3">
-        <v>106200</v>
+        <v>104200</v>
       </c>
       <c r="F61" s="3">
-        <v>101100</v>
+        <v>102600</v>
       </c>
       <c r="G61" s="3">
-        <v>96100</v>
+        <v>97700</v>
       </c>
       <c r="H61" s="3">
-        <v>30400</v>
+        <v>92900</v>
       </c>
       <c r="I61" s="3">
-        <v>32800</v>
+        <v>29400</v>
       </c>
       <c r="J61" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K61" s="3">
         <v>34700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4005,13 +4147,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4020,23 +4165,23 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4049,8 +4194,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>239000</v>
+        <v>219600</v>
       </c>
       <c r="E66" s="3">
-        <v>185600</v>
+        <v>230900</v>
       </c>
       <c r="F66" s="3">
-        <v>183500</v>
+        <v>179300</v>
       </c>
       <c r="G66" s="3">
-        <v>159300</v>
+        <v>177300</v>
       </c>
       <c r="H66" s="3">
-        <v>106700</v>
+        <v>153900</v>
       </c>
       <c r="I66" s="3">
-        <v>94200</v>
+        <v>103100</v>
       </c>
       <c r="J66" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K66" s="3">
         <v>81900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,22 +4813,25 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1266900</v>
+        <v>-1324300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1191100</v>
+        <v>-1224000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1057800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
+        <v>-1150900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1022100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4842,8 @@
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -4693,26 +4866,29 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>221300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>137000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>168800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>202200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1121800</v>
+        <v>964000</v>
       </c>
       <c r="E76" s="3">
-        <v>776200</v>
+        <v>1083900</v>
       </c>
       <c r="F76" s="3">
-        <v>906500</v>
+        <v>750000</v>
       </c>
       <c r="G76" s="3">
-        <v>947000</v>
+        <v>875800</v>
       </c>
       <c r="H76" s="3">
-        <v>1074400</v>
+        <v>915000</v>
       </c>
       <c r="I76" s="3">
-        <v>538700</v>
+        <v>1038100</v>
       </c>
       <c r="J76" s="3">
+        <v>520500</v>
+      </c>
+      <c r="K76" s="3">
         <v>619700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>697100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>771600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>827000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>857300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>331300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>359800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>364800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>381500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>210000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>226800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>141900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>173700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>207300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-90700</v>
+        <v>-115700</v>
       </c>
       <c r="E81" s="3">
-        <v>-151700</v>
+        <v>-87700</v>
       </c>
       <c r="F81" s="3">
-        <v>-70900</v>
+        <v>-146600</v>
       </c>
       <c r="G81" s="3">
-        <v>-156900</v>
+        <v>-68500</v>
       </c>
       <c r="H81" s="3">
-        <v>-137500</v>
+        <v>-151600</v>
       </c>
       <c r="I81" s="3">
-        <v>-107200</v>
+        <v>-132800</v>
       </c>
       <c r="J81" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-71500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-93800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-72200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-64200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-37800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-25000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-45400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-38300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-38000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-34500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-28200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-19300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,52 +5415,53 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="E83" s="3">
         <v>4100</v>
       </c>
       <c r="F83" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="G83" s="3">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="H83" s="3">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="I83" s="3">
         <v>2500</v>
       </c>
       <c r="J83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K83" s="3">
         <v>2300</v>
       </c>
       <c r="L83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M83" s="3">
         <v>2200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-110100</v>
+        <v>-134500</v>
       </c>
       <c r="E89" s="3">
-        <v>-130100</v>
+        <v>-106400</v>
       </c>
       <c r="F89" s="3">
-        <v>-92200</v>
+        <v>-125700</v>
       </c>
       <c r="G89" s="3">
-        <v>-102000</v>
+        <v>-89000</v>
       </c>
       <c r="H89" s="3">
-        <v>-65300</v>
+        <v>-98500</v>
       </c>
       <c r="I89" s="3">
-        <v>-63900</v>
+        <v>-63100</v>
       </c>
       <c r="J89" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-75400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-57500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-70000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-72800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-42100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-54900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-22100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-40300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-27100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-28900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-26800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-23800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-19600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12800</v>
+        <v>-5200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4000</v>
+        <v>-12300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4500</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4800</v>
+        <v>-4400</v>
       </c>
       <c r="H91" s="3">
-        <v>-5500</v>
+        <v>-4700</v>
       </c>
       <c r="I91" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="J91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>23100</v>
+        <v>-122100</v>
       </c>
       <c r="E94" s="3">
-        <v>12500</v>
+        <v>22300</v>
       </c>
       <c r="F94" s="3">
-        <v>-34000</v>
+        <v>12000</v>
       </c>
       <c r="G94" s="3">
-        <v>-80300</v>
+        <v>-32900</v>
       </c>
       <c r="H94" s="3">
-        <v>27600</v>
+        <v>-77600</v>
       </c>
       <c r="I94" s="3">
-        <v>-269100</v>
+        <v>26600</v>
       </c>
       <c r="J94" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>418500</v>
+        <v>-22500</v>
       </c>
       <c r="E100" s="3">
-        <v>1600</v>
+        <v>404300</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G100" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>660100</v>
+        <v>11300</v>
       </c>
       <c r="I100" s="3">
-        <v>9900</v>
+        <v>637800</v>
       </c>
       <c r="J100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>573100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>216200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>18400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>120800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>137100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16800</v>
+        <v>10000</v>
       </c>
       <c r="E101" s="3">
-        <v>-8700</v>
+        <v>16200</v>
       </c>
       <c r="F101" s="3">
-        <v>25100</v>
+        <v>-8400</v>
       </c>
       <c r="G101" s="3">
-        <v>-31400</v>
+        <v>24300</v>
       </c>
       <c r="H101" s="3">
-        <v>-32100</v>
+        <v>-30300</v>
       </c>
       <c r="I101" s="3">
-        <v>-8600</v>
+        <v>-31000</v>
       </c>
       <c r="J101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K101" s="3">
         <v>11700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>32000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3700</v>
-      </c>
-      <c r="O101" s="3">
-        <v>3800</v>
       </c>
       <c r="P101" s="3">
         <v>3800</v>
       </c>
       <c r="Q101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R101" s="3">
         <v>23400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>348200</v>
+        <v>-269100</v>
       </c>
       <c r="E102" s="3">
-        <v>-124800</v>
+        <v>336400</v>
       </c>
       <c r="F102" s="3">
-        <v>-101000</v>
+        <v>-120600</v>
       </c>
       <c r="G102" s="3">
-        <v>-202000</v>
+        <v>-97600</v>
       </c>
       <c r="H102" s="3">
-        <v>590300</v>
+        <v>-195200</v>
       </c>
       <c r="I102" s="3">
-        <v>-331700</v>
+        <v>570400</v>
       </c>
       <c r="J102" s="3">
+        <v>-320500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-72000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-70700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>501000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-38400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>168100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>88600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-34000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-25400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>124200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,156 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5300</v>
+        <v>7100</v>
       </c>
       <c r="E8" s="3">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="F8" s="3">
         <v>1100</v>
       </c>
       <c r="G8" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
-        <v>3100</v>
-      </c>
       <c r="J8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12400</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -818,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>400</v>
       </c>
       <c r="V8" s="3">
         <v>400</v>
@@ -830,21 +834,24 @@
         <v>400</v>
       </c>
       <c r="X8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3800</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>4400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -906,16 +913,19 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>71600</v>
+        <v>86300</v>
       </c>
       <c r="E12" s="3">
-        <v>64100</v>
+        <v>68100</v>
       </c>
       <c r="F12" s="3">
-        <v>90900</v>
+        <v>61000</v>
       </c>
       <c r="G12" s="3">
-        <v>96200</v>
+        <v>86500</v>
       </c>
       <c r="H12" s="3">
-        <v>82600</v>
+        <v>91500</v>
       </c>
       <c r="I12" s="3">
-        <v>69900</v>
+        <v>78600</v>
       </c>
       <c r="J12" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K12" s="3">
         <v>69400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>64900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>57400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>52700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>52600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>60400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>44900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>37300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>44200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>33500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>31500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>32600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>24500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1246,21 +1269,21 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>1800</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>1800</v>
       </c>
       <c r="N15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O15" s="3">
         <v>1500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1200</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1270,8 +1293,8 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>128200</v>
+        <v>140000</v>
       </c>
       <c r="E17" s="3">
-        <v>107000</v>
+        <v>121900</v>
       </c>
       <c r="F17" s="3">
-        <v>129400</v>
+        <v>101800</v>
       </c>
       <c r="G17" s="3">
-        <v>136800</v>
+        <v>123100</v>
       </c>
       <c r="H17" s="3">
-        <v>104900</v>
+        <v>130100</v>
       </c>
       <c r="I17" s="3">
-        <v>89000</v>
+        <v>99800</v>
       </c>
       <c r="J17" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K17" s="3">
         <v>92100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>85200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>73800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>54800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>45300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>49900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>38700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>36000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>35800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>28200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>26900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>27300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-122800</v>
+        <v>-132900</v>
       </c>
       <c r="E18" s="3">
-        <v>-105800</v>
+        <v>-116800</v>
       </c>
       <c r="F18" s="3">
-        <v>-128300</v>
+        <v>-100600</v>
       </c>
       <c r="G18" s="3">
-        <v>-136000</v>
+        <v>-122100</v>
       </c>
       <c r="H18" s="3">
-        <v>-104400</v>
+        <v>-129400</v>
       </c>
       <c r="I18" s="3">
-        <v>-85900</v>
+        <v>-99300</v>
       </c>
       <c r="J18" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-90500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-82700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-75700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-63100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-63200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-67300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-42400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-45300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-49900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-38700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-35700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-35400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-27700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-26400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-26100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>18100</v>
+        <v>6600</v>
       </c>
       <c r="F20" s="3">
-        <v>-18300</v>
+        <v>17200</v>
       </c>
       <c r="G20" s="3">
-        <v>67300</v>
+        <v>-17400</v>
       </c>
       <c r="H20" s="3">
-        <v>-47200</v>
+        <v>64100</v>
       </c>
       <c r="I20" s="3">
-        <v>-46900</v>
+        <v>-44900</v>
       </c>
       <c r="J20" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-13200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>34200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>24800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2900</v>
       </c>
       <c r="U20" s="3">
         <v>-2900</v>
       </c>
       <c r="V20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="W20" s="3">
         <v>-6800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-111200</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-83500</v>
+        <v>-105800</v>
       </c>
       <c r="F21" s="3">
-        <v>-142700</v>
+        <v>-79500</v>
       </c>
       <c r="G21" s="3">
-        <v>-64700</v>
+        <v>-131900</v>
       </c>
       <c r="H21" s="3">
-        <v>-148400</v>
+        <v>-71300</v>
       </c>
       <c r="I21" s="3">
-        <v>-130400</v>
+        <v>-141200</v>
       </c>
       <c r="J21" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-101300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-69300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-91200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-70200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-62500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-40000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-24900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-45300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-38300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-38100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-34300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-28000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-19100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,20 +1692,20 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>200</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1676,8 +1716,8 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1694,111 +1734,117 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-115800</v>
+        <v>-130000</v>
       </c>
       <c r="E23" s="3">
-        <v>-87600</v>
+        <v>-110200</v>
       </c>
       <c r="F23" s="3">
-        <v>-146700</v>
+        <v>-83400</v>
       </c>
       <c r="G23" s="3">
-        <v>-68700</v>
+        <v>-139500</v>
       </c>
       <c r="H23" s="3">
-        <v>-151600</v>
+        <v>-65400</v>
       </c>
       <c r="I23" s="3">
-        <v>-132800</v>
+        <v>-144200</v>
       </c>
       <c r="J23" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-103700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-71600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-93900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-72200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-64200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-37900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-40300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-45500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-38600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-38300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-34500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-28200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
@@ -1819,14 +1865,14 @@
         <v>-100</v>
       </c>
       <c r="T24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1834,10 +1880,13 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-115700</v>
+        <v>-130300</v>
       </c>
       <c r="E26" s="3">
-        <v>-87700</v>
+        <v>-110100</v>
       </c>
       <c r="F26" s="3">
-        <v>-146600</v>
+        <v>-83400</v>
       </c>
       <c r="G26" s="3">
-        <v>-68500</v>
+        <v>-139500</v>
       </c>
       <c r="H26" s="3">
-        <v>-151600</v>
+        <v>-65200</v>
       </c>
       <c r="I26" s="3">
-        <v>-132800</v>
+        <v>-144200</v>
       </c>
       <c r="J26" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-103600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-71500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-93800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-72200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-64200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-40200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-25000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-45400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-38300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-38000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-34500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-28200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-115700</v>
+        <v>-130300</v>
       </c>
       <c r="E27" s="3">
-        <v>-87700</v>
+        <v>-110100</v>
       </c>
       <c r="F27" s="3">
-        <v>-146600</v>
+        <v>-83400</v>
       </c>
       <c r="G27" s="3">
-        <v>-68500</v>
+        <v>-139500</v>
       </c>
       <c r="H27" s="3">
-        <v>-151600</v>
+        <v>-65200</v>
       </c>
       <c r="I27" s="3">
-        <v>-132800</v>
+        <v>-144200</v>
       </c>
       <c r="J27" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-103600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-71500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-93800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-72200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-64200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-40200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-25000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-45400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-38300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-38000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-34500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-28200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-18100</v>
+        <v>-6600</v>
       </c>
       <c r="F32" s="3">
-        <v>18300</v>
+        <v>-17200</v>
       </c>
       <c r="G32" s="3">
-        <v>-67300</v>
+        <v>17400</v>
       </c>
       <c r="H32" s="3">
-        <v>47200</v>
+        <v>-64100</v>
       </c>
       <c r="I32" s="3">
-        <v>46900</v>
+        <v>44900</v>
       </c>
       <c r="J32" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K32" s="3">
         <v>13200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-34200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-24800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2900</v>
       </c>
       <c r="U32" s="3">
         <v>2900</v>
       </c>
       <c r="V32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W32" s="3">
         <v>6800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-115700</v>
+        <v>-130300</v>
       </c>
       <c r="E33" s="3">
-        <v>-87700</v>
+        <v>-110100</v>
       </c>
       <c r="F33" s="3">
-        <v>-146600</v>
+        <v>-83400</v>
       </c>
       <c r="G33" s="3">
-        <v>-68500</v>
+        <v>-139500</v>
       </c>
       <c r="H33" s="3">
-        <v>-151600</v>
+        <v>-65200</v>
       </c>
       <c r="I33" s="3">
-        <v>-132800</v>
+        <v>-144200</v>
       </c>
       <c r="J33" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-103600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-71500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-93800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-72200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-64200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-40200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-25000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-45400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-38300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-38000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-34500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-28200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-115700</v>
+        <v>-130300</v>
       </c>
       <c r="E35" s="3">
-        <v>-87700</v>
+        <v>-110100</v>
       </c>
       <c r="F35" s="3">
-        <v>-146600</v>
+        <v>-83400</v>
       </c>
       <c r="G35" s="3">
-        <v>-68500</v>
+        <v>-139500</v>
       </c>
       <c r="H35" s="3">
-        <v>-151600</v>
+        <v>-65200</v>
       </c>
       <c r="I35" s="3">
-        <v>-132800</v>
+        <v>-144200</v>
       </c>
       <c r="J35" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-103600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-71500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-93800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-72200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-64200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-40200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-25000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-45400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-38300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-38000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-34500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-28200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,106 +2833,110 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>486800</v>
+        <v>784300</v>
       </c>
       <c r="E41" s="3">
-        <v>755900</v>
+        <v>463200</v>
       </c>
       <c r="F41" s="3">
-        <v>419500</v>
+        <v>719200</v>
       </c>
       <c r="G41" s="3">
-        <v>540100</v>
+        <v>399100</v>
       </c>
       <c r="H41" s="3">
-        <v>637700</v>
+        <v>513800</v>
       </c>
       <c r="I41" s="3">
-        <v>832900</v>
+        <v>606700</v>
       </c>
       <c r="J41" s="3">
+        <v>792400</v>
+      </c>
+      <c r="K41" s="3">
         <v>262500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>603400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>698200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>768900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>845700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>833300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>328700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>367100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>387200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>382600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>219200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>231500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>142900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>176900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>211700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>257200</v>
+        <v>231500</v>
       </c>
       <c r="E42" s="3">
-        <v>180400</v>
+        <v>244700</v>
       </c>
       <c r="F42" s="3">
-        <v>181200</v>
+        <v>171600</v>
       </c>
       <c r="G42" s="3">
-        <v>185100</v>
+        <v>172400</v>
       </c>
       <c r="H42" s="3">
-        <v>146500</v>
+        <v>176100</v>
       </c>
       <c r="I42" s="3">
-        <v>181500</v>
+        <v>139400</v>
       </c>
       <c r="J42" s="3">
+        <v>172600</v>
+      </c>
+      <c r="K42" s="3">
         <v>252000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2859,8 +2949,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2889,90 +2979,96 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25300</v>
+        <v>22800</v>
       </c>
       <c r="E43" s="3">
-        <v>22700</v>
+        <v>24100</v>
       </c>
       <c r="F43" s="3">
-        <v>12900</v>
+        <v>21600</v>
       </c>
       <c r="G43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L43" s="3">
         <v>7900</v>
       </c>
-      <c r="H43" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>7900</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>82300</v>
+        <v>95900</v>
       </c>
       <c r="E44" s="3">
-        <v>60300</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+        <v>78300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>57400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2989,8 +3085,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -3031,203 +3127,212 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27500</v>
+        <v>29100</v>
       </c>
       <c r="E45" s="3">
-        <v>24300</v>
+        <v>26200</v>
       </c>
       <c r="F45" s="3">
-        <v>23800</v>
+        <v>23100</v>
       </c>
       <c r="G45" s="3">
-        <v>16700</v>
+        <v>22700</v>
       </c>
       <c r="H45" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="I45" s="3">
-        <v>16700</v>
+        <v>14500</v>
       </c>
       <c r="J45" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>14700</v>
       </c>
       <c r="Q45" s="3">
         <v>14700</v>
       </c>
       <c r="R45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="S45" s="3">
         <v>6500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>879100</v>
+        <v>1163600</v>
       </c>
       <c r="E46" s="3">
-        <v>1043600</v>
+        <v>836400</v>
       </c>
       <c r="F46" s="3">
-        <v>637400</v>
+        <v>992800</v>
       </c>
       <c r="G46" s="3">
-        <v>749800</v>
+        <v>606400</v>
       </c>
       <c r="H46" s="3">
-        <v>807400</v>
+        <v>713300</v>
       </c>
       <c r="I46" s="3">
-        <v>1040300</v>
+        <v>768200</v>
       </c>
       <c r="J46" s="3">
+        <v>989700</v>
+      </c>
+      <c r="K46" s="3">
         <v>536300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>622800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>713500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>781800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>861000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>856200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>346500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>386800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>397100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>392800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>229600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>242100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>152600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>186700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>215900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>161100</v>
+        <v>128000</v>
       </c>
       <c r="E47" s="3">
-        <v>125700</v>
+        <v>153300</v>
       </c>
       <c r="F47" s="3">
-        <v>150700</v>
+        <v>119600</v>
       </c>
       <c r="G47" s="3">
-        <v>172600</v>
+        <v>143400</v>
       </c>
       <c r="H47" s="3">
-        <v>137300</v>
+        <v>164200</v>
       </c>
       <c r="I47" s="3">
-        <v>42900</v>
+        <v>130600</v>
       </c>
       <c r="J47" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K47" s="3">
         <v>15500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3244,132 +3349,138 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>137500</v>
+        <v>132500</v>
       </c>
       <c r="E48" s="3">
-        <v>137800</v>
+        <v>130800</v>
       </c>
       <c r="F48" s="3">
-        <v>135200</v>
+        <v>131100</v>
       </c>
       <c r="G48" s="3">
-        <v>124600</v>
+        <v>128600</v>
       </c>
       <c r="H48" s="3">
-        <v>117900</v>
+        <v>118500</v>
       </c>
       <c r="I48" s="3">
-        <v>51600</v>
+        <v>112200</v>
       </c>
       <c r="J48" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K48" s="3">
         <v>54300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2800</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2900</v>
       </c>
       <c r="W48" s="3">
         <v>2900</v>
       </c>
       <c r="X48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Y48" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H49" s="3">
         <v>5800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
         <v>5900</v>
       </c>
-      <c r="F49" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>5100</v>
-      </c>
       <c r="J49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4100</v>
       </c>
       <c r="M49" s="3">
         <v>4100</v>
       </c>
       <c r="N49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O49" s="3">
         <v>4300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>4100</v>
       </c>
       <c r="Q49" s="3">
         <v>4100</v>
       </c>
       <c r="R49" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="S49" s="3">
         <v>3800</v>
       </c>
       <c r="T49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="U49" s="3">
         <v>3900</v>
@@ -3381,13 +3492,16 @@
         <v>3900</v>
       </c>
       <c r="X49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="Y49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,19 +3645,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3548,17 +3668,17 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>1400</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
       </c>
       <c r="L52" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M52" s="3">
         <v>1700</v>
@@ -3567,22 +3687,22 @@
         <v>1700</v>
       </c>
       <c r="O52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="P52" s="3">
         <v>1400</v>
       </c>
       <c r="Q52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R52" s="3">
         <v>1500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1200</v>
       </c>
       <c r="S52" s="3">
         <v>1200</v>
       </c>
       <c r="T52" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1183600</v>
+        <v>1429400</v>
       </c>
       <c r="E54" s="3">
-        <v>1314800</v>
+        <v>1126000</v>
       </c>
       <c r="F54" s="3">
-        <v>929300</v>
+        <v>1250900</v>
       </c>
       <c r="G54" s="3">
-        <v>1053100</v>
+        <v>884100</v>
       </c>
       <c r="H54" s="3">
-        <v>1068900</v>
+        <v>1001900</v>
       </c>
       <c r="I54" s="3">
-        <v>1141200</v>
+        <v>1016900</v>
       </c>
       <c r="J54" s="3">
+        <v>1085800</v>
+      </c>
+      <c r="K54" s="3">
         <v>611600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>701600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>790000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>858000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>939800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>911400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>377300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>396500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>405000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>236700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>249100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>159800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>193800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>223100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,121 +3925,125 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>64800</v>
+        <v>73400</v>
       </c>
       <c r="E57" s="3">
-        <v>83400</v>
+        <v>61700</v>
       </c>
       <c r="F57" s="3">
-        <v>48200</v>
+        <v>79400</v>
       </c>
       <c r="G57" s="3">
-        <v>59100</v>
+        <v>45900</v>
       </c>
       <c r="H57" s="3">
-        <v>23900</v>
+        <v>56200</v>
       </c>
       <c r="I57" s="3">
-        <v>41600</v>
+        <v>22700</v>
       </c>
       <c r="J57" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K57" s="3">
         <v>34400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>22000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>17400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7600</v>
+        <v>9300</v>
       </c>
       <c r="E58" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F58" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="G58" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="H58" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="M58" s="3">
         <v>6900</v>
       </c>
-      <c r="J58" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>6900</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3919,8 +4053,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3937,192 +4071,201 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37000</v>
+        <v>16300</v>
       </c>
       <c r="E59" s="3">
-        <v>35900</v>
+        <v>35200</v>
       </c>
       <c r="F59" s="3">
-        <v>20900</v>
+        <v>34100</v>
       </c>
       <c r="G59" s="3">
-        <v>13000</v>
+        <v>19900</v>
       </c>
       <c r="H59" s="3">
-        <v>26200</v>
+        <v>12300</v>
       </c>
       <c r="I59" s="3">
-        <v>21800</v>
+        <v>25000</v>
       </c>
       <c r="J59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K59" s="3">
         <v>17900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>42300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22700</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>109500</v>
+        <v>99000</v>
       </c>
       <c r="E60" s="3">
-        <v>126700</v>
+        <v>104200</v>
       </c>
       <c r="F60" s="3">
-        <v>76700</v>
+        <v>120500</v>
       </c>
       <c r="G60" s="3">
-        <v>79600</v>
+        <v>73000</v>
       </c>
       <c r="H60" s="3">
-        <v>57600</v>
+        <v>75700</v>
       </c>
       <c r="I60" s="3">
-        <v>70300</v>
+        <v>54800</v>
       </c>
       <c r="J60" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K60" s="3">
         <v>59300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>74300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>106900</v>
+        <v>482300</v>
       </c>
       <c r="E61" s="3">
-        <v>104200</v>
+        <v>101700</v>
       </c>
       <c r="F61" s="3">
-        <v>102600</v>
+        <v>99200</v>
       </c>
       <c r="G61" s="3">
-        <v>97700</v>
+        <v>97600</v>
       </c>
       <c r="H61" s="3">
-        <v>92900</v>
+        <v>93000</v>
       </c>
       <c r="I61" s="3">
-        <v>29400</v>
+        <v>88300</v>
       </c>
       <c r="J61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K61" s="3">
         <v>31700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4150,16 +4293,19 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3200</v>
+        <v>149800</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4168,23 +4314,23 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4197,8 +4343,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>219600</v>
+        <v>731100</v>
       </c>
       <c r="E66" s="3">
-        <v>230900</v>
+        <v>208900</v>
       </c>
       <c r="F66" s="3">
-        <v>179300</v>
+        <v>219700</v>
       </c>
       <c r="G66" s="3">
-        <v>177300</v>
+        <v>170600</v>
       </c>
       <c r="H66" s="3">
-        <v>153900</v>
+        <v>168700</v>
       </c>
       <c r="I66" s="3">
-        <v>103100</v>
+        <v>146400</v>
       </c>
       <c r="J66" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K66" s="3">
         <v>91100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>40200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,25 +4987,28 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1324300</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E72" s="3">
-        <v>-1224000</v>
+        <v>-1259900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1150900</v>
+        <v>-1164500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1022100</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
+        <v>-1094900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-972400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
@@ -4845,8 +5019,8 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -4869,26 +5043,29 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>221300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>137000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>168800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>202200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>964000</v>
+        <v>698300</v>
       </c>
       <c r="E76" s="3">
-        <v>1083900</v>
+        <v>917100</v>
       </c>
       <c r="F76" s="3">
-        <v>750000</v>
+        <v>1031200</v>
       </c>
       <c r="G76" s="3">
-        <v>875800</v>
+        <v>713500</v>
       </c>
       <c r="H76" s="3">
-        <v>915000</v>
+        <v>833200</v>
       </c>
       <c r="I76" s="3">
-        <v>1038100</v>
+        <v>870500</v>
       </c>
       <c r="J76" s="3">
+        <v>987700</v>
+      </c>
+      <c r="K76" s="3">
         <v>520500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>619700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>697100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>771600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>827000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>857300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>331300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>359800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>364800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>381500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>210000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>226800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>141900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>173700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>207300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-115700</v>
+        <v>-130300</v>
       </c>
       <c r="E81" s="3">
-        <v>-87700</v>
+        <v>-110100</v>
       </c>
       <c r="F81" s="3">
-        <v>-146600</v>
+        <v>-83400</v>
       </c>
       <c r="G81" s="3">
-        <v>-68500</v>
+        <v>-139500</v>
       </c>
       <c r="H81" s="3">
-        <v>-151600</v>
+        <v>-65200</v>
       </c>
       <c r="I81" s="3">
-        <v>-132800</v>
+        <v>-144200</v>
       </c>
       <c r="J81" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-103600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-71500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-93800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-72200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-64200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-40200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-25000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-45400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-38300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-38000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-34500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-28200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,55 +5614,56 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>4700</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="F83" s="3">
         <v>3900</v>
       </c>
       <c r="G83" s="3">
-        <v>4100</v>
+        <v>7600</v>
       </c>
       <c r="H83" s="3">
-        <v>3300</v>
+        <v>-6000</v>
       </c>
       <c r="I83" s="3">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="J83" s="3">
         <v>2400</v>
       </c>
       <c r="K83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L83" s="3">
         <v>2300</v>
       </c>
       <c r="M83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N83" s="3">
         <v>2200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-134500</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>-106400</v>
+        <v>-128000</v>
       </c>
       <c r="F89" s="3">
-        <v>-125700</v>
+        <v>-101200</v>
       </c>
       <c r="G89" s="3">
-        <v>-89000</v>
+        <v>-204300</v>
       </c>
       <c r="H89" s="3">
-        <v>-98500</v>
+        <v>197100</v>
       </c>
       <c r="I89" s="3">
-        <v>-63100</v>
+        <v>-93800</v>
       </c>
       <c r="J89" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-61800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-75400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-57500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-70000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-72800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-54900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-22100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-40300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-27100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-28900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-26800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-23800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-5200</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>-12300</v>
+        <v>-5000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-11700</v>
       </c>
       <c r="G91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4400</v>
       </c>
-      <c r="H91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5300</v>
-      </c>
       <c r="J91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-122100</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>22300</v>
+        <v>-116200</v>
       </c>
       <c r="F94" s="3">
-        <v>12000</v>
+        <v>21200</v>
       </c>
       <c r="G94" s="3">
-        <v>-32900</v>
+        <v>-19800</v>
       </c>
       <c r="H94" s="3">
-        <v>-77600</v>
+        <v>271000</v>
       </c>
       <c r="I94" s="3">
-        <v>26600</v>
+        <v>-73800</v>
       </c>
       <c r="J94" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-260000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-22500</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>404300</v>
+        <v>-21400</v>
       </c>
       <c r="F100" s="3">
+        <v>384700</v>
+      </c>
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>11300</v>
+        <v>-625500</v>
       </c>
       <c r="I100" s="3">
-        <v>637800</v>
+        <v>10700</v>
       </c>
       <c r="J100" s="3">
+        <v>606800</v>
+      </c>
+      <c r="K100" s="3">
         <v>9600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>573100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>216200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>18400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>120800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>137100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>10000</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
-        <v>16200</v>
+        <v>9500</v>
       </c>
       <c r="F101" s="3">
-        <v>-8400</v>
+        <v>15500</v>
       </c>
       <c r="G101" s="3">
-        <v>24300</v>
+        <v>15100</v>
       </c>
       <c r="H101" s="3">
-        <v>-30300</v>
+        <v>78600</v>
       </c>
       <c r="I101" s="3">
-        <v>-31000</v>
+        <v>-28800</v>
       </c>
       <c r="J101" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>32000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3700</v>
-      </c>
-      <c r="P101" s="3">
-        <v>3800</v>
       </c>
       <c r="Q101" s="3">
         <v>3800</v>
       </c>
       <c r="R101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S101" s="3">
         <v>23400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-269100</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>336400</v>
+        <v>-256000</v>
       </c>
       <c r="F102" s="3">
-        <v>-120600</v>
+        <v>320100</v>
       </c>
       <c r="G102" s="3">
-        <v>-97600</v>
+        <v>-207600</v>
       </c>
       <c r="H102" s="3">
-        <v>-195200</v>
+        <v>-78800</v>
       </c>
       <c r="I102" s="3">
-        <v>570400</v>
+        <v>-185700</v>
       </c>
       <c r="J102" s="3">
+        <v>542700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-320500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-72000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-70700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>501000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-50000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>168100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>88600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-34000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-25400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>124200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,163 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7100</v>
+        <v>6200</v>
       </c>
       <c r="E8" s="3">
-        <v>5100</v>
+        <v>6800</v>
       </c>
       <c r="F8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12400</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -825,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>400</v>
       </c>
       <c r="W8" s="3">
         <v>400</v>
@@ -837,24 +841,27 @@
         <v>400</v>
       </c>
       <c r="Y8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4400</v>
+        <v>1100</v>
       </c>
       <c r="E9" s="3">
-        <v>3700</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>4200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3500</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -916,20 +923,23 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2700</v>
+        <v>5100</v>
       </c>
       <c r="E10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>86300</v>
+        <v>87500</v>
       </c>
       <c r="E12" s="3">
-        <v>68100</v>
+        <v>80300</v>
       </c>
       <c r="F12" s="3">
-        <v>61000</v>
+        <v>65500</v>
       </c>
       <c r="G12" s="3">
-        <v>86500</v>
+        <v>58600</v>
       </c>
       <c r="H12" s="3">
-        <v>91500</v>
+        <v>83100</v>
       </c>
       <c r="I12" s="3">
-        <v>78600</v>
+        <v>87900</v>
       </c>
       <c r="J12" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K12" s="3">
         <v>66500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>69400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>64900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>57400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>52700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>52600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>60400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>44900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>37300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>44200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>33500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>31500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>32600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>24500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>23500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,16 +1260,19 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1272,21 +1295,21 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>1800</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>1800</v>
       </c>
       <c r="O15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P15" s="3">
         <v>1500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1200</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1296,8 +1319,8 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>140000</v>
+        <v>147700</v>
       </c>
       <c r="E17" s="3">
-        <v>121900</v>
+        <v>134500</v>
       </c>
       <c r="F17" s="3">
-        <v>101800</v>
+        <v>117200</v>
       </c>
       <c r="G17" s="3">
-        <v>123100</v>
+        <v>97800</v>
       </c>
       <c r="H17" s="3">
-        <v>130100</v>
+        <v>118300</v>
       </c>
       <c r="I17" s="3">
-        <v>99800</v>
+        <v>125100</v>
       </c>
       <c r="J17" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K17" s="3">
         <v>84700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>92100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>85200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>73800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>54800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>49900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>38700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>36000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>35800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>28200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>26900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>27300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-132900</v>
+        <v>-141500</v>
       </c>
       <c r="E18" s="3">
-        <v>-116800</v>
+        <v>-127700</v>
       </c>
       <c r="F18" s="3">
-        <v>-100600</v>
+        <v>-112300</v>
       </c>
       <c r="G18" s="3">
-        <v>-122100</v>
+        <v>-96700</v>
       </c>
       <c r="H18" s="3">
-        <v>-129400</v>
+        <v>-117300</v>
       </c>
       <c r="I18" s="3">
-        <v>-99300</v>
+        <v>-124400</v>
       </c>
       <c r="J18" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-81800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-90500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-82700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-75700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-63100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-63200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-67300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-42400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-45300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-49900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-38700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-35700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-35400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-27700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-26100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>60300</v>
       </c>
       <c r="E20" s="3">
-        <v>6600</v>
+        <v>2800</v>
       </c>
       <c r="F20" s="3">
-        <v>17200</v>
+        <v>6400</v>
       </c>
       <c r="G20" s="3">
-        <v>-17400</v>
+        <v>16600</v>
       </c>
       <c r="H20" s="3">
-        <v>64100</v>
+        <v>-16700</v>
       </c>
       <c r="I20" s="3">
-        <v>-44900</v>
+        <v>61600</v>
       </c>
       <c r="J20" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-44600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>34200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>24800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-2900</v>
       </c>
       <c r="V20" s="3">
         <v>-2900</v>
       </c>
       <c r="W20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X20" s="3">
         <v>-6800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-76800</v>
       </c>
       <c r="E21" s="3">
-        <v>-105800</v>
+        <v>-120500</v>
       </c>
       <c r="F21" s="3">
-        <v>-79500</v>
+        <v>-101600</v>
       </c>
       <c r="G21" s="3">
-        <v>-131900</v>
+        <v>-76400</v>
       </c>
       <c r="H21" s="3">
-        <v>-71300</v>
+        <v>-130500</v>
       </c>
       <c r="I21" s="3">
-        <v>-141200</v>
+        <v>-59100</v>
       </c>
       <c r="J21" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-124000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-101300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-69300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-91200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-26700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-70200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-37600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-40000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-24900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-45300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-38300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-38100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-34300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,20 +1735,20 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>200</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1719,8 +1759,8 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1737,117 +1777,123 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-130000</v>
+        <v>-81200</v>
       </c>
       <c r="E23" s="3">
-        <v>-110200</v>
+        <v>-124900</v>
       </c>
       <c r="F23" s="3">
-        <v>-83400</v>
+        <v>-105900</v>
       </c>
       <c r="G23" s="3">
-        <v>-139500</v>
+        <v>-80100</v>
       </c>
       <c r="H23" s="3">
-        <v>-65400</v>
+        <v>-134100</v>
       </c>
       <c r="I23" s="3">
-        <v>-144200</v>
+        <v>-62800</v>
       </c>
       <c r="J23" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-126400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-103700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-71600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-93900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-72200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-37900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-40300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-25100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-45500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-38600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-38300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-34500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-28200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
@@ -1868,14 +1914,14 @@
         <v>-100</v>
       </c>
       <c r="U24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1883,10 +1929,13 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-130300</v>
+        <v>-81100</v>
       </c>
       <c r="E26" s="3">
-        <v>-110100</v>
+        <v>-125200</v>
       </c>
       <c r="F26" s="3">
-        <v>-83400</v>
+        <v>-105800</v>
       </c>
       <c r="G26" s="3">
-        <v>-139500</v>
+        <v>-80100</v>
       </c>
       <c r="H26" s="3">
-        <v>-65200</v>
+        <v>-134000</v>
       </c>
       <c r="I26" s="3">
-        <v>-144200</v>
+        <v>-62600</v>
       </c>
       <c r="J26" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-126400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-103600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-71500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-93800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-72200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-37800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-40200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-25000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-45400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-38300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-38000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-34500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-28200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-130300</v>
+        <v>-81100</v>
       </c>
       <c r="E27" s="3">
-        <v>-110100</v>
+        <v>-125200</v>
       </c>
       <c r="F27" s="3">
-        <v>-83400</v>
+        <v>-105800</v>
       </c>
       <c r="G27" s="3">
-        <v>-139500</v>
+        <v>-80100</v>
       </c>
       <c r="H27" s="3">
-        <v>-65200</v>
+        <v>-134000</v>
       </c>
       <c r="I27" s="3">
-        <v>-144200</v>
+        <v>-62600</v>
       </c>
       <c r="J27" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-126400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-103600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-71500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-93800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-29300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-72200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-37800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-40200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-25000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-45400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-38300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-38000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-34500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-28200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-60300</v>
       </c>
       <c r="E32" s="3">
-        <v>-6600</v>
+        <v>-2800</v>
       </c>
       <c r="F32" s="3">
-        <v>-17200</v>
+        <v>-6400</v>
       </c>
       <c r="G32" s="3">
-        <v>17400</v>
+        <v>-16600</v>
       </c>
       <c r="H32" s="3">
-        <v>-64100</v>
+        <v>16700</v>
       </c>
       <c r="I32" s="3">
-        <v>44900</v>
+        <v>-61600</v>
       </c>
       <c r="J32" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K32" s="3">
         <v>44600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-34200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-24800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6900</v>
-      </c>
-      <c r="U32" s="3">
-        <v>2900</v>
       </c>
       <c r="V32" s="3">
         <v>2900</v>
       </c>
       <c r="W32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X32" s="3">
         <v>6800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-130300</v>
+        <v>-81100</v>
       </c>
       <c r="E33" s="3">
-        <v>-110100</v>
+        <v>-125200</v>
       </c>
       <c r="F33" s="3">
-        <v>-83400</v>
+        <v>-105800</v>
       </c>
       <c r="G33" s="3">
-        <v>-139500</v>
+        <v>-80100</v>
       </c>
       <c r="H33" s="3">
-        <v>-65200</v>
+        <v>-134000</v>
       </c>
       <c r="I33" s="3">
-        <v>-144200</v>
+        <v>-62600</v>
       </c>
       <c r="J33" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-126400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-103600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-71500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-93800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-72200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-37800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-40200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-25000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-45400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-38300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-38000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-34500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-28200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-130300</v>
+        <v>-81100</v>
       </c>
       <c r="E35" s="3">
-        <v>-110100</v>
+        <v>-125200</v>
       </c>
       <c r="F35" s="3">
-        <v>-83400</v>
+        <v>-105800</v>
       </c>
       <c r="G35" s="3">
-        <v>-139500</v>
+        <v>-80100</v>
       </c>
       <c r="H35" s="3">
-        <v>-65200</v>
+        <v>-134000</v>
       </c>
       <c r="I35" s="3">
-        <v>-144200</v>
+        <v>-62600</v>
       </c>
       <c r="J35" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-126400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-103600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-71500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-93800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-72200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-37800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-40200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-25000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-45400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-38300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-38000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-34500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-28200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,112 +2920,116 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>784300</v>
+        <v>670600</v>
       </c>
       <c r="E41" s="3">
-        <v>463200</v>
+        <v>753700</v>
       </c>
       <c r="F41" s="3">
-        <v>719200</v>
+        <v>445100</v>
       </c>
       <c r="G41" s="3">
-        <v>399100</v>
+        <v>691100</v>
       </c>
       <c r="H41" s="3">
-        <v>513800</v>
+        <v>383500</v>
       </c>
       <c r="I41" s="3">
-        <v>606700</v>
+        <v>493800</v>
       </c>
       <c r="J41" s="3">
+        <v>583000</v>
+      </c>
+      <c r="K41" s="3">
         <v>792400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>262500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>603400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>698200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>768900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>845700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>833300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>328700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>367100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>387200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>382600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>219200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>231500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>142900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>176900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>211700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>231500</v>
+        <v>282000</v>
       </c>
       <c r="E42" s="3">
-        <v>244700</v>
+        <v>222500</v>
       </c>
       <c r="F42" s="3">
-        <v>171600</v>
+        <v>235200</v>
       </c>
       <c r="G42" s="3">
-        <v>172400</v>
+        <v>164900</v>
       </c>
       <c r="H42" s="3">
-        <v>176100</v>
+        <v>165700</v>
       </c>
       <c r="I42" s="3">
-        <v>139400</v>
+        <v>169200</v>
       </c>
       <c r="J42" s="3">
+        <v>133900</v>
+      </c>
+      <c r="K42" s="3">
         <v>172600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>252000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2952,8 +3042,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2982,96 +3072,102 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22800</v>
+        <v>20500</v>
       </c>
       <c r="E43" s="3">
-        <v>24100</v>
+        <v>21900</v>
       </c>
       <c r="F43" s="3">
-        <v>21600</v>
+        <v>23100</v>
       </c>
       <c r="G43" s="3">
-        <v>12200</v>
+        <v>20700</v>
       </c>
       <c r="H43" s="3">
-        <v>7500</v>
+        <v>11800</v>
       </c>
       <c r="I43" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="J43" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K43" s="3">
         <v>8900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>95900</v>
+        <v>101100</v>
       </c>
       <c r="E44" s="3">
-        <v>78300</v>
+        <v>92200</v>
       </c>
       <c r="F44" s="3">
-        <v>57400</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+        <v>75200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>55100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -3088,8 +3184,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3130,212 +3226,221 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29100</v>
+        <v>35000</v>
       </c>
       <c r="E45" s="3">
-        <v>26200</v>
+        <v>27900</v>
       </c>
       <c r="F45" s="3">
-        <v>23100</v>
+        <v>25200</v>
       </c>
       <c r="G45" s="3">
-        <v>22700</v>
+        <v>22200</v>
       </c>
       <c r="H45" s="3">
-        <v>15900</v>
+        <v>21800</v>
       </c>
       <c r="I45" s="3">
-        <v>14500</v>
+        <v>15300</v>
       </c>
       <c r="J45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K45" s="3">
         <v>15800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>14700</v>
       </c>
       <c r="R45" s="3">
         <v>14700</v>
       </c>
       <c r="S45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="T45" s="3">
         <v>6500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1163600</v>
+        <v>1109200</v>
       </c>
       <c r="E46" s="3">
-        <v>836400</v>
+        <v>1118200</v>
       </c>
       <c r="F46" s="3">
-        <v>992800</v>
+        <v>803800</v>
       </c>
       <c r="G46" s="3">
-        <v>606400</v>
+        <v>954100</v>
       </c>
       <c r="H46" s="3">
-        <v>713300</v>
+        <v>582700</v>
       </c>
       <c r="I46" s="3">
-        <v>768200</v>
+        <v>685500</v>
       </c>
       <c r="J46" s="3">
+        <v>738200</v>
+      </c>
+      <c r="K46" s="3">
         <v>989700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>536300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>622800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>713500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>781800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>861000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>856200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>346500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>386800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>397100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>392800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>229600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>242100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>152600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>186700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>215900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>128000</v>
+        <v>76300</v>
       </c>
       <c r="E47" s="3">
-        <v>153300</v>
+        <v>123000</v>
       </c>
       <c r="F47" s="3">
-        <v>119600</v>
+        <v>147300</v>
       </c>
       <c r="G47" s="3">
-        <v>143400</v>
+        <v>115000</v>
       </c>
       <c r="H47" s="3">
-        <v>164200</v>
+        <v>137800</v>
       </c>
       <c r="I47" s="3">
-        <v>130600</v>
+        <v>157800</v>
       </c>
       <c r="J47" s="3">
+        <v>125500</v>
+      </c>
+      <c r="K47" s="3">
         <v>40800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3352,138 +3457,144 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>132500</v>
+        <v>132900</v>
       </c>
       <c r="E48" s="3">
-        <v>130800</v>
+        <v>127300</v>
       </c>
       <c r="F48" s="3">
-        <v>131100</v>
+        <v>125700</v>
       </c>
       <c r="G48" s="3">
-        <v>128600</v>
+        <v>126000</v>
       </c>
       <c r="H48" s="3">
-        <v>118500</v>
+        <v>123600</v>
       </c>
       <c r="I48" s="3">
-        <v>112200</v>
+        <v>113900</v>
       </c>
       <c r="J48" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K48" s="3">
         <v>49100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>54300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2800</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2900</v>
       </c>
       <c r="X48" s="3">
         <v>2900</v>
       </c>
       <c r="Y48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Z48" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G49" s="3">
         <v>5400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>5500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>5700</v>
       </c>
-      <c r="H49" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4100</v>
       </c>
       <c r="N49" s="3">
         <v>4100</v>
       </c>
       <c r="O49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P49" s="3">
         <v>4300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>4100</v>
       </c>
       <c r="R49" s="3">
         <v>4100</v>
       </c>
       <c r="S49" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="T49" s="3">
         <v>3800</v>
       </c>
       <c r="U49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="V49" s="3">
         <v>3900</v>
@@ -3495,13 +3606,16 @@
         <v>3900</v>
       </c>
       <c r="Y49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="Z49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3659,11 +3779,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3671,17 +3791,17 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1400</v>
       </c>
       <c r="L52" s="3">
         <v>1400</v>
       </c>
       <c r="M52" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="N52" s="3">
         <v>1700</v>
@@ -3690,22 +3810,22 @@
         <v>1700</v>
       </c>
       <c r="P52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="Q52" s="3">
         <v>1400</v>
       </c>
       <c r="R52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S52" s="3">
         <v>1500</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1200</v>
       </c>
       <c r="T52" s="3">
         <v>1200</v>
       </c>
       <c r="U52" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1429400</v>
+        <v>1323400</v>
       </c>
       <c r="E54" s="3">
-        <v>1126000</v>
+        <v>1373700</v>
       </c>
       <c r="F54" s="3">
-        <v>1250900</v>
+        <v>1082100</v>
       </c>
       <c r="G54" s="3">
-        <v>884100</v>
+        <v>1202100</v>
       </c>
       <c r="H54" s="3">
-        <v>1001900</v>
+        <v>849600</v>
       </c>
       <c r="I54" s="3">
-        <v>1016900</v>
+        <v>962800</v>
       </c>
       <c r="J54" s="3">
+        <v>977200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1085800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>611600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>701600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>790000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>858000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>939800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>911400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>377300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>396500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>405000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>236700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>249100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>159800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>193800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>223100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,127 +4056,131 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>73400</v>
+        <v>74800</v>
       </c>
       <c r="E57" s="3">
-        <v>61700</v>
+        <v>70500</v>
       </c>
       <c r="F57" s="3">
-        <v>79400</v>
+        <v>59300</v>
       </c>
       <c r="G57" s="3">
-        <v>45900</v>
+        <v>76300</v>
       </c>
       <c r="H57" s="3">
-        <v>56200</v>
+        <v>44100</v>
       </c>
       <c r="I57" s="3">
-        <v>22700</v>
+        <v>54000</v>
       </c>
       <c r="J57" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K57" s="3">
         <v>39600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>40200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>26700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>22000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>17400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>19600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>15400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9300</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>7300</v>
+        <v>8900</v>
       </c>
       <c r="F58" s="3">
         <v>7000</v>
       </c>
       <c r="G58" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="H58" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="I58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>7000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4056,8 +4190,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4074,201 +4208,210 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16300</v>
+        <v>26000</v>
       </c>
       <c r="E59" s="3">
-        <v>35200</v>
+        <v>15700</v>
       </c>
       <c r="F59" s="3">
-        <v>34100</v>
+        <v>33900</v>
       </c>
       <c r="G59" s="3">
-        <v>19900</v>
+        <v>32800</v>
       </c>
       <c r="H59" s="3">
-        <v>12300</v>
+        <v>19100</v>
       </c>
       <c r="I59" s="3">
-        <v>25000</v>
+        <v>11800</v>
       </c>
       <c r="J59" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K59" s="3">
         <v>20700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>42300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22700</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>99000</v>
+        <v>114800</v>
       </c>
       <c r="E60" s="3">
-        <v>104200</v>
+        <v>95100</v>
       </c>
       <c r="F60" s="3">
-        <v>120500</v>
+        <v>100100</v>
       </c>
       <c r="G60" s="3">
-        <v>73000</v>
+        <v>115800</v>
       </c>
       <c r="H60" s="3">
-        <v>75700</v>
+        <v>70100</v>
       </c>
       <c r="I60" s="3">
-        <v>54800</v>
+        <v>72700</v>
       </c>
       <c r="J60" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K60" s="3">
         <v>66900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>74300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>40200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>20100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>482300</v>
+        <v>496800</v>
       </c>
       <c r="E61" s="3">
-        <v>101700</v>
+        <v>463500</v>
       </c>
       <c r="F61" s="3">
-        <v>99200</v>
+        <v>97700</v>
       </c>
       <c r="G61" s="3">
-        <v>97600</v>
+        <v>95300</v>
       </c>
       <c r="H61" s="3">
-        <v>93000</v>
+        <v>93800</v>
       </c>
       <c r="I61" s="3">
-        <v>88300</v>
+        <v>89300</v>
       </c>
       <c r="J61" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K61" s="3">
         <v>28000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4296,19 +4439,22 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>149800</v>
+        <v>105500</v>
       </c>
       <c r="E62" s="3">
-        <v>3100</v>
+        <v>144000</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4317,23 +4463,23 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4346,8 +4492,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>731100</v>
+        <v>717100</v>
       </c>
       <c r="E66" s="3">
-        <v>208900</v>
+        <v>702600</v>
       </c>
       <c r="F66" s="3">
-        <v>219700</v>
+        <v>200800</v>
       </c>
       <c r="G66" s="3">
-        <v>170600</v>
+        <v>211100</v>
       </c>
       <c r="H66" s="3">
-        <v>168700</v>
+        <v>163900</v>
       </c>
       <c r="I66" s="3">
-        <v>146400</v>
+        <v>162100</v>
       </c>
       <c r="J66" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K66" s="3">
         <v>98100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>81900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>92900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>46000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>22300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,28 +5161,31 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-1380400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1259900</v>
+        <v>-1316000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1164500</v>
+        <v>-1210800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1094900</v>
+        <v>-1119100</v>
       </c>
       <c r="H72" s="3">
-        <v>-972400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+        <v>-1052200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-934500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -5022,8 +5196,8 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -5046,26 +5220,29 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>221300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>137000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>168800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>202200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>698300</v>
+        <v>606300</v>
       </c>
       <c r="E76" s="3">
-        <v>917100</v>
+        <v>671100</v>
       </c>
       <c r="F76" s="3">
-        <v>1031200</v>
+        <v>881300</v>
       </c>
       <c r="G76" s="3">
-        <v>713500</v>
+        <v>991000</v>
       </c>
       <c r="H76" s="3">
-        <v>833200</v>
+        <v>685700</v>
       </c>
       <c r="I76" s="3">
-        <v>870500</v>
+        <v>800700</v>
       </c>
       <c r="J76" s="3">
+        <v>836500</v>
+      </c>
+      <c r="K76" s="3">
         <v>987700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>520500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>619700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>697100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>771600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>827000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>857300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>331300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>359800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>364800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>381500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>210000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>226800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>141900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>173700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>207300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-130300</v>
+        <v>-81100</v>
       </c>
       <c r="E81" s="3">
-        <v>-110100</v>
+        <v>-125200</v>
       </c>
       <c r="F81" s="3">
-        <v>-83400</v>
+        <v>-105800</v>
       </c>
       <c r="G81" s="3">
-        <v>-139500</v>
+        <v>-80100</v>
       </c>
       <c r="H81" s="3">
-        <v>-65200</v>
+        <v>-134000</v>
       </c>
       <c r="I81" s="3">
-        <v>-144200</v>
+        <v>-62600</v>
       </c>
       <c r="J81" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-126400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-103600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-71500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-93800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-72200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-37800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-40200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-25000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-45400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-38300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-38000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-34500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-28200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,58 +5813,59 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>4400</v>
       </c>
       <c r="E83" s="3">
         <v>4400</v>
       </c>
       <c r="F83" s="3">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="G83" s="3">
-        <v>7600</v>
+        <v>3800</v>
       </c>
       <c r="H83" s="3">
-        <v>-6000</v>
+        <v>3600</v>
       </c>
       <c r="I83" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="J83" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K83" s="3">
         <v>2400</v>
       </c>
       <c r="L83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="M83" s="3">
         <v>2300</v>
       </c>
       <c r="N83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O83" s="3">
         <v>2200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-124100</v>
       </c>
       <c r="E89" s="3">
-        <v>-128000</v>
+        <v>-130400</v>
       </c>
       <c r="F89" s="3">
-        <v>-101200</v>
+        <v>-123000</v>
       </c>
       <c r="G89" s="3">
-        <v>-204300</v>
+        <v>-97300</v>
       </c>
       <c r="H89" s="3">
-        <v>197100</v>
+        <v>-114900</v>
       </c>
       <c r="I89" s="3">
-        <v>-93800</v>
+        <v>-81400</v>
       </c>
       <c r="J89" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-60000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-61800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-75400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-57500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-70000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-72800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-42100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-54900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-22100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-40300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-27100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-28900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-26800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-23800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-19600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-3700</v>
       </c>
       <c r="E91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>16400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>9900</v>
       </c>
       <c r="E94" s="3">
-        <v>-116200</v>
+        <v>38400</v>
       </c>
       <c r="F94" s="3">
-        <v>21200</v>
+        <v>-111600</v>
       </c>
       <c r="G94" s="3">
-        <v>-19800</v>
+        <v>20400</v>
       </c>
       <c r="H94" s="3">
-        <v>271000</v>
+        <v>11000</v>
       </c>
       <c r="I94" s="3">
-        <v>-73800</v>
+        <v>-30000</v>
       </c>
       <c r="J94" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="K94" s="3">
         <v>25300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-260000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>-2200</v>
       </c>
       <c r="E100" s="3">
-        <v>-21400</v>
+        <v>396700</v>
       </c>
       <c r="F100" s="3">
-        <v>384700</v>
+        <v>-20600</v>
       </c>
       <c r="G100" s="3">
-        <v>1500</v>
+        <v>369600</v>
       </c>
       <c r="H100" s="3">
-        <v>-625500</v>
+        <v>1400</v>
       </c>
       <c r="I100" s="3">
-        <v>10700</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K100" s="3">
         <v>606800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>573100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>216200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>18400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>120800</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>137100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>33400</v>
       </c>
       <c r="E101" s="3">
-        <v>9500</v>
+        <v>3900</v>
       </c>
       <c r="F101" s="3">
-        <v>15500</v>
+        <v>9200</v>
       </c>
       <c r="G101" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="H101" s="3">
-        <v>78600</v>
+        <v>-7700</v>
       </c>
       <c r="I101" s="3">
-        <v>-28800</v>
+        <v>22200</v>
       </c>
       <c r="J101" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-29500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>32000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>3800</v>
       </c>
       <c r="R101" s="3">
         <v>3800</v>
       </c>
       <c r="S101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T101" s="3">
         <v>23400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>-83000</v>
       </c>
       <c r="E102" s="3">
-        <v>-256000</v>
+        <v>308600</v>
       </c>
       <c r="F102" s="3">
-        <v>320100</v>
+        <v>-246000</v>
       </c>
       <c r="G102" s="3">
-        <v>-207600</v>
+        <v>307600</v>
       </c>
       <c r="H102" s="3">
-        <v>-78800</v>
+        <v>-110200</v>
       </c>
       <c r="I102" s="3">
-        <v>-185700</v>
+        <v>-89200</v>
       </c>
       <c r="J102" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="K102" s="3">
         <v>542700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-320500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-72000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-70700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>501000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-38400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-50000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>168100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>88600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-34000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-25400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>124200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,170 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6200</v>
+        <v>15600</v>
       </c>
       <c r="E8" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="F8" s="3">
-        <v>4900</v>
+        <v>6900</v>
       </c>
       <c r="G8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12400</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -832,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
-      </c>
-      <c r="W8" s="3">
-        <v>400</v>
       </c>
       <c r="X8" s="3">
         <v>400</v>
@@ -844,27 +848,30 @@
         <v>400</v>
       </c>
       <c r="Z8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
-        <v>4200</v>
-      </c>
       <c r="F9" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+        <v>4300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -926,23 +933,26 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5100</v>
+        <v>13900</v>
       </c>
       <c r="E10" s="3">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="F10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>87500</v>
+        <v>96700</v>
       </c>
       <c r="E12" s="3">
-        <v>80300</v>
+        <v>89500</v>
       </c>
       <c r="F12" s="3">
-        <v>65500</v>
+        <v>82100</v>
       </c>
       <c r="G12" s="3">
-        <v>58600</v>
+        <v>67000</v>
       </c>
       <c r="H12" s="3">
-        <v>83100</v>
+        <v>60000</v>
       </c>
       <c r="I12" s="3">
-        <v>87900</v>
+        <v>85000</v>
       </c>
       <c r="J12" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K12" s="3">
         <v>75600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>66500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>69400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>64900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>57400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>52700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>52600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>60400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>44900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>37300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>44200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>33500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>31500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>32600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>24500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>23100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>23500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,10 +1295,10 @@
         <v>2700</v>
       </c>
       <c r="E15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+        <v>2800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2800</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1298,21 +1321,21 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>1800</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>1800</v>
       </c>
       <c r="P15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1200</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>147700</v>
+        <v>163100</v>
       </c>
       <c r="E17" s="3">
-        <v>134500</v>
+        <v>151100</v>
       </c>
       <c r="F17" s="3">
-        <v>117200</v>
+        <v>137700</v>
       </c>
       <c r="G17" s="3">
-        <v>97800</v>
+        <v>119900</v>
       </c>
       <c r="H17" s="3">
-        <v>118300</v>
+        <v>100100</v>
       </c>
       <c r="I17" s="3">
-        <v>125100</v>
+        <v>121100</v>
       </c>
       <c r="J17" s="3">
+        <v>128000</v>
+      </c>
+      <c r="K17" s="3">
         <v>95900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>84700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>92100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>85200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>73800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>54800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>49900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>38700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>36000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>35800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>28200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>26900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>27300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-141500</v>
+        <v>-147500</v>
       </c>
       <c r="E18" s="3">
-        <v>-127700</v>
+        <v>-144800</v>
       </c>
       <c r="F18" s="3">
-        <v>-112300</v>
+        <v>-130700</v>
       </c>
       <c r="G18" s="3">
-        <v>-96700</v>
+        <v>-114900</v>
       </c>
       <c r="H18" s="3">
-        <v>-117300</v>
+        <v>-99000</v>
       </c>
       <c r="I18" s="3">
-        <v>-124400</v>
+        <v>-120100</v>
       </c>
       <c r="J18" s="3">
+        <v>-127300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-95400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-81800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-90500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-82700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-75700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-63100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-63200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-67300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-42400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-45300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-49900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-38700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-35700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-35400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-27700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-26100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>60300</v>
+        <v>-25100</v>
       </c>
       <c r="E20" s="3">
-        <v>2800</v>
+        <v>61700</v>
       </c>
       <c r="F20" s="3">
-        <v>6400</v>
+        <v>2900</v>
       </c>
       <c r="G20" s="3">
-        <v>16600</v>
+        <v>6500</v>
       </c>
       <c r="H20" s="3">
-        <v>-16700</v>
+        <v>16900</v>
       </c>
       <c r="I20" s="3">
-        <v>61600</v>
+        <v>-17100</v>
       </c>
       <c r="J20" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-43200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>24800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-2900</v>
       </c>
       <c r="W20" s="3">
         <v>-2900</v>
       </c>
       <c r="X20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-76800</v>
+        <v>-168000</v>
       </c>
       <c r="E21" s="3">
-        <v>-120500</v>
+        <v>-78600</v>
       </c>
       <c r="F21" s="3">
-        <v>-101600</v>
+        <v>-123400</v>
       </c>
       <c r="G21" s="3">
-        <v>-76400</v>
+        <v>-104000</v>
       </c>
       <c r="H21" s="3">
-        <v>-130500</v>
+        <v>-78200</v>
       </c>
       <c r="I21" s="3">
-        <v>-59100</v>
+        <v>-133500</v>
       </c>
       <c r="J21" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-135600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-124000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-101300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-69300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-91200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-26700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-70200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-62500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-37600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-40000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-24900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-45300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-38300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-38100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-34300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-19100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,20 +1778,20 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>200</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1762,8 +1802,8 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1780,123 +1820,129 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-81200</v>
+        <v>-172600</v>
       </c>
       <c r="E23" s="3">
-        <v>-124900</v>
+        <v>-83100</v>
       </c>
       <c r="F23" s="3">
-        <v>-105900</v>
+        <v>-127900</v>
       </c>
       <c r="G23" s="3">
-        <v>-80100</v>
+        <v>-108400</v>
       </c>
       <c r="H23" s="3">
-        <v>-134100</v>
+        <v>-82000</v>
       </c>
       <c r="I23" s="3">
-        <v>-62800</v>
+        <v>-137200</v>
       </c>
       <c r="J23" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-138600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-126400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-103700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-71600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-93900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-72200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-64200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-37900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-40300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-25100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-45500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-38600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-38300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-19300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
@@ -1917,14 +1963,14 @@
         <v>-100</v>
       </c>
       <c r="V24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -1932,10 +1978,13 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-81100</v>
+        <v>-172500</v>
       </c>
       <c r="E26" s="3">
-        <v>-125200</v>
+        <v>-83000</v>
       </c>
       <c r="F26" s="3">
-        <v>-105800</v>
+        <v>-128100</v>
       </c>
       <c r="G26" s="3">
-        <v>-80100</v>
+        <v>-108300</v>
       </c>
       <c r="H26" s="3">
-        <v>-134000</v>
+        <v>-82000</v>
       </c>
       <c r="I26" s="3">
-        <v>-62600</v>
+        <v>-137200</v>
       </c>
       <c r="J26" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-138600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-126400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-103600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-71500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-93800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-29300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-72200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-64200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-37800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-40200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-25000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-45400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-38300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-38000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-19300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-81100</v>
+        <v>-172500</v>
       </c>
       <c r="E27" s="3">
-        <v>-125200</v>
+        <v>-83000</v>
       </c>
       <c r="F27" s="3">
-        <v>-105800</v>
+        <v>-128100</v>
       </c>
       <c r="G27" s="3">
-        <v>-80100</v>
+        <v>-108300</v>
       </c>
       <c r="H27" s="3">
-        <v>-134000</v>
+        <v>-82000</v>
       </c>
       <c r="I27" s="3">
-        <v>-62600</v>
+        <v>-137200</v>
       </c>
       <c r="J27" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-138600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-126400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-103600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-71500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-93800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-29300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-72200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-64200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-37800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-40200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-25000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-45400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-38300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-38000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-19300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-60300</v>
+        <v>25100</v>
       </c>
       <c r="E32" s="3">
-        <v>-2800</v>
+        <v>-61700</v>
       </c>
       <c r="F32" s="3">
-        <v>-6400</v>
+        <v>-2900</v>
       </c>
       <c r="G32" s="3">
-        <v>-16600</v>
+        <v>-6500</v>
       </c>
       <c r="H32" s="3">
-        <v>16700</v>
+        <v>-16900</v>
       </c>
       <c r="I32" s="3">
-        <v>-61600</v>
+        <v>17100</v>
       </c>
       <c r="J32" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="K32" s="3">
         <v>43200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-24800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>2900</v>
       </c>
       <c r="W32" s="3">
         <v>2900</v>
       </c>
       <c r="X32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y32" s="3">
         <v>6800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-81100</v>
+        <v>-172500</v>
       </c>
       <c r="E33" s="3">
-        <v>-125200</v>
+        <v>-83000</v>
       </c>
       <c r="F33" s="3">
-        <v>-105800</v>
+        <v>-128100</v>
       </c>
       <c r="G33" s="3">
-        <v>-80100</v>
+        <v>-108300</v>
       </c>
       <c r="H33" s="3">
-        <v>-134000</v>
+        <v>-82000</v>
       </c>
       <c r="I33" s="3">
-        <v>-62600</v>
+        <v>-137200</v>
       </c>
       <c r="J33" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-138600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-126400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-103600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-71500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-93800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-29300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-72200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-64200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-37800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-40200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-25000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-45400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-38300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-38000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-19300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-81100</v>
+        <v>-172500</v>
       </c>
       <c r="E35" s="3">
-        <v>-125200</v>
+        <v>-83000</v>
       </c>
       <c r="F35" s="3">
-        <v>-105800</v>
+        <v>-128100</v>
       </c>
       <c r="G35" s="3">
-        <v>-80100</v>
+        <v>-108300</v>
       </c>
       <c r="H35" s="3">
-        <v>-134000</v>
+        <v>-82000</v>
       </c>
       <c r="I35" s="3">
-        <v>-62600</v>
+        <v>-137200</v>
       </c>
       <c r="J35" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-138600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-126400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-103600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-71500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-93800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-29300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-72200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-64200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-37800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-40200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-25000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-45400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-38300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-38000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-19300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,118 +3007,122 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>670600</v>
+        <v>621000</v>
       </c>
       <c r="E41" s="3">
-        <v>753700</v>
+        <v>686400</v>
       </c>
       <c r="F41" s="3">
-        <v>445100</v>
+        <v>771400</v>
       </c>
       <c r="G41" s="3">
-        <v>691100</v>
+        <v>455500</v>
       </c>
       <c r="H41" s="3">
-        <v>383500</v>
+        <v>707400</v>
       </c>
       <c r="I41" s="3">
-        <v>493800</v>
+        <v>392500</v>
       </c>
       <c r="J41" s="3">
+        <v>505300</v>
+      </c>
+      <c r="K41" s="3">
         <v>583000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>792400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>262500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>603400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>698200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>768900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>845700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>833300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>328700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>367100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>387200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>382600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>219200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>231500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>142900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>176900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>211700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>282000</v>
+        <v>318000</v>
       </c>
       <c r="E42" s="3">
-        <v>222500</v>
+        <v>288600</v>
       </c>
       <c r="F42" s="3">
-        <v>235200</v>
+        <v>227700</v>
       </c>
       <c r="G42" s="3">
-        <v>164900</v>
+        <v>240700</v>
       </c>
       <c r="H42" s="3">
-        <v>165700</v>
+        <v>168800</v>
       </c>
       <c r="I42" s="3">
-        <v>169200</v>
+        <v>169500</v>
       </c>
       <c r="J42" s="3">
+        <v>173200</v>
+      </c>
+      <c r="K42" s="3">
         <v>133900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>172600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>252000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3045,8 +3135,8 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -3075,102 +3165,108 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="E43" s="3">
-        <v>21900</v>
+        <v>21000</v>
       </c>
       <c r="F43" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="G43" s="3">
-        <v>20700</v>
+        <v>23700</v>
       </c>
       <c r="H43" s="3">
-        <v>11800</v>
+        <v>21200</v>
       </c>
       <c r="I43" s="3">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="J43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K43" s="3">
         <v>7300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>101100</v>
+        <v>106100</v>
       </c>
       <c r="E44" s="3">
-        <v>92200</v>
+        <v>103400</v>
       </c>
       <c r="F44" s="3">
-        <v>75200</v>
+        <v>94400</v>
       </c>
       <c r="G44" s="3">
-        <v>55100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+        <v>77000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>56400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -3187,8 +3283,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3229,221 +3325,230 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35000</v>
+        <v>35300</v>
       </c>
       <c r="E45" s="3">
-        <v>27900</v>
+        <v>35800</v>
       </c>
       <c r="F45" s="3">
-        <v>25200</v>
+        <v>28600</v>
       </c>
       <c r="G45" s="3">
-        <v>22200</v>
+        <v>25800</v>
       </c>
       <c r="H45" s="3">
-        <v>21800</v>
+        <v>22700</v>
       </c>
       <c r="I45" s="3">
-        <v>15300</v>
+        <v>22300</v>
       </c>
       <c r="J45" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K45" s="3">
         <v>14000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>14700</v>
       </c>
       <c r="S45" s="3">
         <v>14700</v>
       </c>
       <c r="T45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="U45" s="3">
         <v>6500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1109200</v>
+        <v>1102400</v>
       </c>
       <c r="E46" s="3">
-        <v>1118200</v>
+        <v>1135200</v>
       </c>
       <c r="F46" s="3">
-        <v>803800</v>
+        <v>1144400</v>
       </c>
       <c r="G46" s="3">
-        <v>954100</v>
+        <v>822600</v>
       </c>
       <c r="H46" s="3">
-        <v>582700</v>
+        <v>976500</v>
       </c>
       <c r="I46" s="3">
-        <v>685500</v>
+        <v>596400</v>
       </c>
       <c r="J46" s="3">
+        <v>701600</v>
+      </c>
+      <c r="K46" s="3">
         <v>738200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>989700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>536300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>622800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>713500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>781800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>861000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>856200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>346500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>386800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>397100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>392800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>229600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>242100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>152600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>186700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>215900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76300</v>
+        <v>50300</v>
       </c>
       <c r="E47" s="3">
-        <v>123000</v>
+        <v>78100</v>
       </c>
       <c r="F47" s="3">
-        <v>147300</v>
+        <v>125900</v>
       </c>
       <c r="G47" s="3">
-        <v>115000</v>
+        <v>150800</v>
       </c>
       <c r="H47" s="3">
-        <v>137800</v>
+        <v>117700</v>
       </c>
       <c r="I47" s="3">
-        <v>157800</v>
+        <v>141100</v>
       </c>
       <c r="J47" s="3">
+        <v>161500</v>
+      </c>
+      <c r="K47" s="3">
         <v>125500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3460,85 +3565,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>132900</v>
+        <v>142200</v>
       </c>
       <c r="E48" s="3">
-        <v>127300</v>
+        <v>136000</v>
       </c>
       <c r="F48" s="3">
-        <v>125700</v>
+        <v>130300</v>
       </c>
       <c r="G48" s="3">
-        <v>126000</v>
+        <v>128700</v>
       </c>
       <c r="H48" s="3">
-        <v>123600</v>
+        <v>128900</v>
       </c>
       <c r="I48" s="3">
-        <v>113900</v>
+        <v>126500</v>
       </c>
       <c r="J48" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K48" s="3">
         <v>107800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>54300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2800</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2900</v>
       </c>
       <c r="Y48" s="3">
         <v>2900</v>
       </c>
       <c r="Z48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AA48" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,7 +3657,7 @@
         <v>5000</v>
       </c>
       <c r="E49" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F49" s="3">
         <v>5300</v>
@@ -3564,40 +3675,40 @@
         <v>5700</v>
       </c>
       <c r="K49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L49" s="3">
         <v>4800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>4100</v>
       </c>
       <c r="O49" s="3">
         <v>4100</v>
       </c>
       <c r="P49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q49" s="3">
         <v>4300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4200</v>
-      </c>
-      <c r="R49" s="3">
-        <v>4100</v>
       </c>
       <c r="S49" s="3">
         <v>4100</v>
       </c>
       <c r="T49" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="U49" s="3">
         <v>3800</v>
       </c>
       <c r="V49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="W49" s="3">
         <v>3900</v>
@@ -3609,13 +3720,16 @@
         <v>3900</v>
       </c>
       <c r="Z49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="AA49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3782,29 +3902,29 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>1300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1400</v>
       </c>
       <c r="M52" s="3">
         <v>1400</v>
       </c>
       <c r="N52" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="O52" s="3">
         <v>1700</v>
@@ -3813,22 +3933,22 @@
         <v>1700</v>
       </c>
       <c r="Q52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="R52" s="3">
         <v>1400</v>
       </c>
       <c r="S52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T52" s="3">
         <v>1500</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1200</v>
       </c>
       <c r="U52" s="3">
         <v>1200</v>
       </c>
       <c r="V52" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="W52" s="3">
         <v>300</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1323400</v>
+        <v>1299900</v>
       </c>
       <c r="E54" s="3">
-        <v>1373700</v>
+        <v>1354400</v>
       </c>
       <c r="F54" s="3">
-        <v>1082100</v>
+        <v>1405900</v>
       </c>
       <c r="G54" s="3">
-        <v>1202100</v>
+        <v>1107500</v>
       </c>
       <c r="H54" s="3">
-        <v>849600</v>
+        <v>1230300</v>
       </c>
       <c r="I54" s="3">
-        <v>962800</v>
+        <v>869600</v>
       </c>
       <c r="J54" s="3">
+        <v>985400</v>
+      </c>
+      <c r="K54" s="3">
         <v>977200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1085800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>611600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>701600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>790000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>858000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>939800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>911400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>377300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>396500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>405000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>236700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>249100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>159800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>193800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>223100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,133 +4187,137 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>74800</v>
+        <v>87900</v>
       </c>
       <c r="E57" s="3">
-        <v>70500</v>
+        <v>76500</v>
       </c>
       <c r="F57" s="3">
-        <v>59300</v>
+        <v>72200</v>
       </c>
       <c r="G57" s="3">
-        <v>76300</v>
+        <v>60700</v>
       </c>
       <c r="H57" s="3">
-        <v>44100</v>
+        <v>78100</v>
       </c>
       <c r="I57" s="3">
-        <v>54000</v>
+        <v>45100</v>
       </c>
       <c r="J57" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K57" s="3">
         <v>21800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>26700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>22000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>17400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>19600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>15400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
+        <v>20500</v>
       </c>
       <c r="E58" s="3">
-        <v>8900</v>
+        <v>14400</v>
       </c>
       <c r="F58" s="3">
-        <v>7000</v>
+        <v>9100</v>
       </c>
       <c r="G58" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="H58" s="3">
         <v>6900</v>
       </c>
       <c r="I58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="O58" s="3">
         <v>6900</v>
       </c>
-      <c r="J58" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>6600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>6900</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4193,8 +4327,8 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4211,210 +4345,219 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26000</v>
+        <v>37400</v>
       </c>
       <c r="E59" s="3">
-        <v>15700</v>
+        <v>26600</v>
       </c>
       <c r="F59" s="3">
-        <v>33900</v>
+        <v>16100</v>
       </c>
       <c r="G59" s="3">
-        <v>32800</v>
+        <v>34700</v>
       </c>
       <c r="H59" s="3">
-        <v>19100</v>
+        <v>33600</v>
       </c>
       <c r="I59" s="3">
-        <v>11800</v>
+        <v>19500</v>
       </c>
       <c r="J59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K59" s="3">
         <v>24000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>42300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22700</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>114800</v>
+        <v>145800</v>
       </c>
       <c r="E60" s="3">
-        <v>95100</v>
+        <v>117500</v>
       </c>
       <c r="F60" s="3">
-        <v>100100</v>
+        <v>97300</v>
       </c>
       <c r="G60" s="3">
-        <v>115800</v>
+        <v>102400</v>
       </c>
       <c r="H60" s="3">
-        <v>70100</v>
+        <v>118500</v>
       </c>
       <c r="I60" s="3">
-        <v>72700</v>
+        <v>71800</v>
       </c>
       <c r="J60" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K60" s="3">
         <v>52700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>74300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>46000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>36700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>40200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>17900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>20100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>496800</v>
+        <v>544200</v>
       </c>
       <c r="E61" s="3">
-        <v>463500</v>
+        <v>508500</v>
       </c>
       <c r="F61" s="3">
-        <v>97700</v>
+        <v>474400</v>
       </c>
       <c r="G61" s="3">
-        <v>95300</v>
+        <v>100000</v>
       </c>
       <c r="H61" s="3">
-        <v>93800</v>
+        <v>97500</v>
       </c>
       <c r="I61" s="3">
-        <v>89300</v>
+        <v>96000</v>
       </c>
       <c r="J61" s="3">
+        <v>91400</v>
+      </c>
+      <c r="K61" s="3">
         <v>84900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4442,23 +4585,26 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>105500</v>
+        <v>148900</v>
       </c>
       <c r="E62" s="3">
-        <v>144000</v>
+        <v>107900</v>
       </c>
       <c r="F62" s="3">
+        <v>147300</v>
+      </c>
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
@@ -4466,23 +4612,23 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>3200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4495,8 +4641,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>717100</v>
+        <v>839000</v>
       </c>
       <c r="E66" s="3">
-        <v>702600</v>
+        <v>733900</v>
       </c>
       <c r="F66" s="3">
-        <v>200800</v>
+        <v>719100</v>
       </c>
       <c r="G66" s="3">
-        <v>211100</v>
+        <v>205500</v>
       </c>
       <c r="H66" s="3">
-        <v>163900</v>
+        <v>216100</v>
       </c>
       <c r="I66" s="3">
-        <v>162100</v>
+        <v>167800</v>
       </c>
       <c r="J66" s="3">
+        <v>165900</v>
+      </c>
+      <c r="K66" s="3">
         <v>140700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>98100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>81900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>92900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>112800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>22300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,31 +5335,34 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1380400</v>
+        <v>-1571400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1316000</v>
+        <v>-1412800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1210800</v>
+        <v>-1346900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1119100</v>
+        <v>-1239200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1052200</v>
+        <v>-1145300</v>
       </c>
       <c r="I72" s="3">
-        <v>-934500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+        <v>-1076900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-956400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
@@ -5199,8 +5373,8 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -5223,26 +5397,29 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>221300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>137000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>168800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>202200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>606300</v>
+        <v>460900</v>
       </c>
       <c r="E76" s="3">
-        <v>671100</v>
+        <v>620500</v>
       </c>
       <c r="F76" s="3">
-        <v>881300</v>
+        <v>686800</v>
       </c>
       <c r="G76" s="3">
-        <v>991000</v>
+        <v>902000</v>
       </c>
       <c r="H76" s="3">
-        <v>685700</v>
+        <v>1014200</v>
       </c>
       <c r="I76" s="3">
-        <v>800700</v>
+        <v>701800</v>
       </c>
       <c r="J76" s="3">
+        <v>819500</v>
+      </c>
+      <c r="K76" s="3">
         <v>836500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>987700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>520500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>619700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>697100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>771600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>827000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>857300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>331300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>359800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>364800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>381500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>210000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>226800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>141900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>173700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>207300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-81100</v>
+        <v>-172500</v>
       </c>
       <c r="E81" s="3">
-        <v>-125200</v>
+        <v>-83000</v>
       </c>
       <c r="F81" s="3">
-        <v>-105800</v>
+        <v>-128100</v>
       </c>
       <c r="G81" s="3">
-        <v>-80100</v>
+        <v>-108300</v>
       </c>
       <c r="H81" s="3">
-        <v>-134000</v>
+        <v>-82000</v>
       </c>
       <c r="I81" s="3">
-        <v>-62600</v>
+        <v>-137200</v>
       </c>
       <c r="J81" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-138600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-126400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-103600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-71500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-93800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-29300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-72200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-64200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-37800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-40200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-25000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-45400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-38300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-38000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-19300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,61 +6012,62 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G83" s="3">
         <v>4400</v>
       </c>
-      <c r="E83" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3800</v>
-      </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="I83" s="3">
         <v>3700</v>
       </c>
       <c r="J83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K83" s="3">
         <v>3000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2400</v>
       </c>
       <c r="L83" s="3">
         <v>2400</v>
       </c>
       <c r="M83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="N83" s="3">
         <v>2300</v>
       </c>
       <c r="O83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P83" s="3">
         <v>2200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-124100</v>
+        <v>-100900</v>
       </c>
       <c r="E89" s="3">
-        <v>-130400</v>
+        <v>-127000</v>
       </c>
       <c r="F89" s="3">
-        <v>-123000</v>
+        <v>-133500</v>
       </c>
       <c r="G89" s="3">
-        <v>-97300</v>
+        <v>-125900</v>
       </c>
       <c r="H89" s="3">
-        <v>-114900</v>
+        <v>-99500</v>
       </c>
       <c r="I89" s="3">
-        <v>-81400</v>
+        <v>-117600</v>
       </c>
       <c r="J89" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-90100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-60000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-61800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-75400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-57500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-70000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-72800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-42100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-54900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-22100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-40300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-27100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-28900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-26800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-23800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-19600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3700</v>
+        <v>-3200</v>
       </c>
       <c r="E91" s="3">
         <v>-3800</v>
       </c>
       <c r="F91" s="3">
-        <v>-4800</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-11300</v>
+        <v>-4900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3600</v>
+        <v>-11500</v>
       </c>
       <c r="I91" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="J91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>9900</v>
+        <v>14400</v>
       </c>
       <c r="E94" s="3">
-        <v>38400</v>
+        <v>10100</v>
       </c>
       <c r="F94" s="3">
-        <v>-111600</v>
+        <v>39300</v>
       </c>
       <c r="G94" s="3">
-        <v>20400</v>
+        <v>-114300</v>
       </c>
       <c r="H94" s="3">
-        <v>11000</v>
+        <v>20900</v>
       </c>
       <c r="I94" s="3">
-        <v>-30000</v>
+        <v>11300</v>
       </c>
       <c r="J94" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-70900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>25300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-260000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2200</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>396700</v>
+        <v>-2300</v>
       </c>
       <c r="F100" s="3">
-        <v>-20600</v>
+        <v>406000</v>
       </c>
       <c r="G100" s="3">
-        <v>369600</v>
+        <v>-21100</v>
       </c>
       <c r="H100" s="3">
+        <v>378300</v>
+      </c>
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>10300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>606800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>573100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>216200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>18400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>120800</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>137100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>33400</v>
+        <v>21200</v>
       </c>
       <c r="E101" s="3">
-        <v>3900</v>
+        <v>34200</v>
       </c>
       <c r="F101" s="3">
-        <v>9200</v>
+        <v>4000</v>
       </c>
       <c r="G101" s="3">
-        <v>14900</v>
+        <v>9400</v>
       </c>
       <c r="H101" s="3">
-        <v>-7700</v>
+        <v>15200</v>
       </c>
       <c r="I101" s="3">
-        <v>22200</v>
+        <v>-7900</v>
       </c>
       <c r="J101" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-27700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-29500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>32000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3700</v>
-      </c>
-      <c r="R101" s="3">
-        <v>3800</v>
       </c>
       <c r="S101" s="3">
         <v>3800</v>
       </c>
       <c r="T101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U101" s="3">
         <v>23400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>6700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-83000</v>
+        <v>-65400</v>
       </c>
       <c r="E102" s="3">
-        <v>308600</v>
+        <v>-85000</v>
       </c>
       <c r="F102" s="3">
-        <v>-246000</v>
+        <v>315800</v>
       </c>
       <c r="G102" s="3">
-        <v>307600</v>
+        <v>-251800</v>
       </c>
       <c r="H102" s="3">
-        <v>-110200</v>
+        <v>314800</v>
       </c>
       <c r="I102" s="3">
-        <v>-89200</v>
+        <v>-112800</v>
       </c>
       <c r="J102" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-178500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>542700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-320500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-72000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-70700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-37000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>501000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-38400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-50000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>168100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-12300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>88600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-25400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>124200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,176 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15600</v>
+        <v>24200</v>
       </c>
       <c r="E8" s="3">
-        <v>6300</v>
+        <v>16200</v>
       </c>
       <c r="F8" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="G8" s="3">
-        <v>5000</v>
+        <v>7200</v>
       </c>
       <c r="H8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12400</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -839,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>300</v>
-      </c>
-      <c r="X8" s="3">
-        <v>400</v>
       </c>
       <c r="Y8" s="3">
         <v>400</v>
@@ -851,30 +854,33 @@
         <v>400</v>
       </c>
       <c r="AA8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1700</v>
+        <v>5400</v>
       </c>
       <c r="E9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
-        <v>4300</v>
-      </c>
       <c r="G9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+        <v>4500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -936,25 +942,28 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13900</v>
+        <v>18800</v>
       </c>
       <c r="E10" s="3">
-        <v>5200</v>
+        <v>14400</v>
       </c>
       <c r="F10" s="3">
-        <v>2600</v>
+        <v>5400</v>
       </c>
       <c r="G10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+        <v>2700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>96700</v>
+        <v>112000</v>
       </c>
       <c r="E12" s="3">
-        <v>89500</v>
+        <v>100200</v>
       </c>
       <c r="F12" s="3">
-        <v>82100</v>
+        <v>92800</v>
       </c>
       <c r="G12" s="3">
-        <v>67000</v>
+        <v>85100</v>
       </c>
       <c r="H12" s="3">
-        <v>60000</v>
+        <v>69500</v>
       </c>
       <c r="I12" s="3">
-        <v>85000</v>
+        <v>62200</v>
       </c>
       <c r="J12" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K12" s="3">
         <v>90000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>75600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>66500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>69400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>64900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>57400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>52700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>52600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>60400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>44900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>37300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>44200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>33500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>31500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>32600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>24500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>23100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>23500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,22 +1305,25 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="E15" s="3">
         <v>2800</v>
       </c>
       <c r="F15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+        <v>2900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1324,21 +1346,21 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>1800</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>1800</v>
       </c>
       <c r="Q15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R15" s="3">
         <v>1500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1200</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1348,8 +1370,8 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>163100</v>
+        <v>180200</v>
       </c>
       <c r="E17" s="3">
-        <v>151100</v>
+        <v>169100</v>
       </c>
       <c r="F17" s="3">
-        <v>137700</v>
+        <v>156600</v>
       </c>
       <c r="G17" s="3">
-        <v>119900</v>
+        <v>142700</v>
       </c>
       <c r="H17" s="3">
-        <v>100100</v>
+        <v>124300</v>
       </c>
       <c r="I17" s="3">
-        <v>121100</v>
+        <v>103700</v>
       </c>
       <c r="J17" s="3">
+        <v>125500</v>
+      </c>
+      <c r="K17" s="3">
         <v>128000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>95900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>84700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>92100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>85200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>73800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>54800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>45300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>49900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>38700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>36000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>35800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>28200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>26900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>27300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-147500</v>
+        <v>-155900</v>
       </c>
       <c r="E18" s="3">
-        <v>-144800</v>
+        <v>-152900</v>
       </c>
       <c r="F18" s="3">
-        <v>-130700</v>
+        <v>-150100</v>
       </c>
       <c r="G18" s="3">
-        <v>-114900</v>
+        <v>-135500</v>
       </c>
       <c r="H18" s="3">
-        <v>-99000</v>
+        <v>-119100</v>
       </c>
       <c r="I18" s="3">
-        <v>-120100</v>
+        <v>-102600</v>
       </c>
       <c r="J18" s="3">
+        <v>-124500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-127300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-95400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-81800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-90500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-82700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-75700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-63100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-63200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-67300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-42400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-45300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-49900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-38700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-35700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-35400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-27700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-26400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-26100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25100</v>
+        <v>-57900</v>
       </c>
       <c r="E20" s="3">
-        <v>61700</v>
+        <v>-26100</v>
       </c>
       <c r="F20" s="3">
-        <v>2900</v>
+        <v>64000</v>
       </c>
       <c r="G20" s="3">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="H20" s="3">
-        <v>16900</v>
+        <v>6800</v>
       </c>
       <c r="I20" s="3">
-        <v>-17100</v>
+        <v>17600</v>
       </c>
       <c r="J20" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K20" s="3">
         <v>63000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-43200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-44600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>24800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-2900</v>
       </c>
       <c r="X20" s="3">
         <v>-2900</v>
       </c>
       <c r="Y20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-168000</v>
+        <v>-208900</v>
       </c>
       <c r="E21" s="3">
-        <v>-78600</v>
+        <v>-174200</v>
       </c>
       <c r="F21" s="3">
-        <v>-123400</v>
+        <v>-81400</v>
       </c>
       <c r="G21" s="3">
-        <v>-104000</v>
+        <v>-127900</v>
       </c>
       <c r="H21" s="3">
-        <v>-78200</v>
+        <v>-107800</v>
       </c>
       <c r="I21" s="3">
-        <v>-133500</v>
+        <v>-81000</v>
       </c>
       <c r="J21" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-60500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-135600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-124000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-101300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-69300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-91200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-70200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-62500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-37600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-40000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-24900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-45300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-38300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-38100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-34300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-19100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,20 +1820,20 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>200</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1805,8 +1844,8 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1823,129 +1862,135 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-172600</v>
+        <v>-213800</v>
       </c>
       <c r="E23" s="3">
-        <v>-83100</v>
+        <v>-178900</v>
       </c>
       <c r="F23" s="3">
-        <v>-127900</v>
+        <v>-86100</v>
       </c>
       <c r="G23" s="3">
-        <v>-108400</v>
+        <v>-132500</v>
       </c>
       <c r="H23" s="3">
-        <v>-82000</v>
+        <v>-112300</v>
       </c>
       <c r="I23" s="3">
-        <v>-137200</v>
+        <v>-85000</v>
       </c>
       <c r="J23" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-64300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-138600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-126400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-103700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-71600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-93900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-72200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-64200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-37900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-40300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-25100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-45500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-38600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
@@ -1966,14 +2011,14 @@
         <v>-100</v>
       </c>
       <c r="W24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -1981,10 +2026,13 @@
         <v>0</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-172500</v>
+        <v>-219400</v>
       </c>
       <c r="E26" s="3">
-        <v>-83000</v>
+        <v>-178800</v>
       </c>
       <c r="F26" s="3">
-        <v>-128100</v>
+        <v>-86000</v>
       </c>
       <c r="G26" s="3">
-        <v>-108300</v>
+        <v>-132800</v>
       </c>
       <c r="H26" s="3">
-        <v>-82000</v>
+        <v>-112200</v>
       </c>
       <c r="I26" s="3">
-        <v>-137200</v>
+        <v>-85000</v>
       </c>
       <c r="J26" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-64100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-138600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-126400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-103600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-71500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-93800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-72200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-64200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-37800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-40200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-25000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-45400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-38300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-172500</v>
+        <v>-219400</v>
       </c>
       <c r="E27" s="3">
-        <v>-83000</v>
+        <v>-178800</v>
       </c>
       <c r="F27" s="3">
-        <v>-128100</v>
+        <v>-86000</v>
       </c>
       <c r="G27" s="3">
-        <v>-108300</v>
+        <v>-132800</v>
       </c>
       <c r="H27" s="3">
-        <v>-82000</v>
+        <v>-112200</v>
       </c>
       <c r="I27" s="3">
-        <v>-137200</v>
+        <v>-85000</v>
       </c>
       <c r="J27" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-64100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-138600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-126400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-103600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-71500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-93800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-72200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-64200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-37800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-40200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-25000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-45400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-38300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25100</v>
+        <v>57900</v>
       </c>
       <c r="E32" s="3">
-        <v>-61700</v>
+        <v>26100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2900</v>
+        <v>-64000</v>
       </c>
       <c r="G32" s="3">
-        <v>-6500</v>
+        <v>-3000</v>
       </c>
       <c r="H32" s="3">
-        <v>-16900</v>
+        <v>-6800</v>
       </c>
       <c r="I32" s="3">
-        <v>17100</v>
+        <v>-17600</v>
       </c>
       <c r="J32" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-63000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>43200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>44600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-24800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6900</v>
-      </c>
-      <c r="W32" s="3">
-        <v>2900</v>
       </c>
       <c r="X32" s="3">
         <v>2900</v>
       </c>
       <c r="Y32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z32" s="3">
         <v>6800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-172500</v>
+        <v>-219400</v>
       </c>
       <c r="E33" s="3">
-        <v>-83000</v>
+        <v>-178800</v>
       </c>
       <c r="F33" s="3">
-        <v>-128100</v>
+        <v>-86000</v>
       </c>
       <c r="G33" s="3">
-        <v>-108300</v>
+        <v>-132800</v>
       </c>
       <c r="H33" s="3">
-        <v>-82000</v>
+        <v>-112200</v>
       </c>
       <c r="I33" s="3">
-        <v>-137200</v>
+        <v>-85000</v>
       </c>
       <c r="J33" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-64100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-138600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-126400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-103600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-71500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-93800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-72200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-64200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-37800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-40200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-25000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-45400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-38300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-172500</v>
+        <v>-219400</v>
       </c>
       <c r="E35" s="3">
-        <v>-83000</v>
+        <v>-178800</v>
       </c>
       <c r="F35" s="3">
-        <v>-128100</v>
+        <v>-86000</v>
       </c>
       <c r="G35" s="3">
-        <v>-108300</v>
+        <v>-132800</v>
       </c>
       <c r="H35" s="3">
-        <v>-82000</v>
+        <v>-112200</v>
       </c>
       <c r="I35" s="3">
-        <v>-137200</v>
+        <v>-85000</v>
       </c>
       <c r="J35" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-64100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-138600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-126400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-103600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-71500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-93800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-72200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-64200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-37800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-40200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-25000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-45400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-38300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,124 +3093,128 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>621000</v>
+        <v>470600</v>
       </c>
       <c r="E41" s="3">
-        <v>686400</v>
+        <v>643600</v>
       </c>
       <c r="F41" s="3">
-        <v>771400</v>
+        <v>711400</v>
       </c>
       <c r="G41" s="3">
-        <v>455500</v>
+        <v>799500</v>
       </c>
       <c r="H41" s="3">
-        <v>707400</v>
+        <v>472200</v>
       </c>
       <c r="I41" s="3">
-        <v>392500</v>
+        <v>733100</v>
       </c>
       <c r="J41" s="3">
+        <v>406800</v>
+      </c>
+      <c r="K41" s="3">
         <v>505300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>583000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>792400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>262500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>603400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>698200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>768900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>845700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>833300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>328700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>367100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>387200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>382600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>219200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>231500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>142900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>176900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>211700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>318000</v>
+        <v>307500</v>
       </c>
       <c r="E42" s="3">
-        <v>288600</v>
+        <v>329500</v>
       </c>
       <c r="F42" s="3">
-        <v>227700</v>
+        <v>299200</v>
       </c>
       <c r="G42" s="3">
-        <v>240700</v>
+        <v>236000</v>
       </c>
       <c r="H42" s="3">
-        <v>168800</v>
+        <v>249500</v>
       </c>
       <c r="I42" s="3">
-        <v>169500</v>
+        <v>174900</v>
       </c>
       <c r="J42" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K42" s="3">
         <v>173200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>133900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>172600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>252000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3138,8 +3227,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -3168,108 +3257,114 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>21700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>23200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I43" s="3">
         <v>22000</v>
       </c>
-      <c r="E43" s="3">
-        <v>21000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>22400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>23700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>21200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>12000</v>
-      </c>
       <c r="J43" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>106100</v>
+        <v>138300</v>
       </c>
       <c r="E44" s="3">
-        <v>103400</v>
+        <v>110000</v>
       </c>
       <c r="F44" s="3">
-        <v>94400</v>
+        <v>107200</v>
       </c>
       <c r="G44" s="3">
-        <v>77000</v>
+        <v>97800</v>
       </c>
       <c r="H44" s="3">
-        <v>56400</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+        <v>79800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>58500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3286,8 +3381,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3328,230 +3423,239 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="E45" s="3">
-        <v>35800</v>
+        <v>36600</v>
       </c>
       <c r="F45" s="3">
-        <v>28600</v>
+        <v>37100</v>
       </c>
       <c r="G45" s="3">
-        <v>25800</v>
+        <v>29600</v>
       </c>
       <c r="H45" s="3">
-        <v>22700</v>
+        <v>26700</v>
       </c>
       <c r="I45" s="3">
-        <v>22300</v>
+        <v>23500</v>
       </c>
       <c r="J45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K45" s="3">
         <v>15600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>14700</v>
       </c>
       <c r="T45" s="3">
         <v>14700</v>
       </c>
       <c r="U45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="V45" s="3">
         <v>6500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1102400</v>
+        <v>977000</v>
       </c>
       <c r="E46" s="3">
-        <v>1135200</v>
+        <v>1142500</v>
       </c>
       <c r="F46" s="3">
-        <v>1144400</v>
+        <v>1176600</v>
       </c>
       <c r="G46" s="3">
-        <v>822600</v>
+        <v>1186100</v>
       </c>
       <c r="H46" s="3">
-        <v>976500</v>
+        <v>852600</v>
       </c>
       <c r="I46" s="3">
-        <v>596400</v>
+        <v>1012100</v>
       </c>
       <c r="J46" s="3">
+        <v>618100</v>
+      </c>
+      <c r="K46" s="3">
         <v>701600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>738200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>989700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>536300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>622800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>713500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>781800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>861000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>856200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>346500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>386800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>397100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>392800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>229600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>242100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>152600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>186700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>215900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50300</v>
+        <v>34200</v>
       </c>
       <c r="E47" s="3">
-        <v>78100</v>
+        <v>52100</v>
       </c>
       <c r="F47" s="3">
-        <v>125900</v>
+        <v>80900</v>
       </c>
       <c r="G47" s="3">
-        <v>150800</v>
+        <v>130500</v>
       </c>
       <c r="H47" s="3">
-        <v>117700</v>
+        <v>156300</v>
       </c>
       <c r="I47" s="3">
-        <v>141100</v>
+        <v>121900</v>
       </c>
       <c r="J47" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K47" s="3">
         <v>161500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>125500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3568,93 +3672,99 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>142200</v>
+        <v>136600</v>
       </c>
       <c r="E48" s="3">
-        <v>136000</v>
+        <v>147400</v>
       </c>
       <c r="F48" s="3">
-        <v>130300</v>
+        <v>141000</v>
       </c>
       <c r="G48" s="3">
-        <v>128700</v>
+        <v>135100</v>
       </c>
       <c r="H48" s="3">
-        <v>128900</v>
+        <v>133400</v>
       </c>
       <c r="I48" s="3">
-        <v>126500</v>
+        <v>133600</v>
       </c>
       <c r="J48" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K48" s="3">
         <v>116600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>54300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>56200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>52100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2800</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>2900</v>
       </c>
       <c r="Z48" s="3">
         <v>2900</v>
       </c>
       <c r="AA48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AB48" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E49" s="3">
         <v>5200</v>
@@ -3663,55 +3773,55 @@
         <v>5300</v>
       </c>
       <c r="G49" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H49" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I49" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="J49" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K49" s="3">
         <v>5700</v>
       </c>
       <c r="L49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M49" s="3">
         <v>4800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>4100</v>
       </c>
       <c r="P49" s="3">
         <v>4100</v>
       </c>
       <c r="Q49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R49" s="3">
         <v>4300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4200</v>
-      </c>
-      <c r="S49" s="3">
-        <v>4100</v>
       </c>
       <c r="T49" s="3">
         <v>4100</v>
       </c>
       <c r="U49" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="V49" s="3">
         <v>3800</v>
       </c>
       <c r="W49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="X49" s="3">
         <v>3900</v>
@@ -3723,13 +3833,16 @@
         <v>3900</v>
       </c>
       <c r="AA49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="AB49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3905,11 +4024,11 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3917,17 +4036,17 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>1300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1400</v>
       </c>
       <c r="N52" s="3">
         <v>1400</v>
       </c>
       <c r="O52" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="P52" s="3">
         <v>1700</v>
@@ -3936,22 +4055,22 @@
         <v>1700</v>
       </c>
       <c r="R52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="S52" s="3">
         <v>1400</v>
       </c>
       <c r="T52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U52" s="3">
         <v>1500</v>
-      </c>
-      <c r="U52" s="3">
-        <v>1200</v>
       </c>
       <c r="V52" s="3">
         <v>1200</v>
       </c>
       <c r="W52" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="X52" s="3">
         <v>300</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1299900</v>
+        <v>1152900</v>
       </c>
       <c r="E54" s="3">
-        <v>1354400</v>
+        <v>1347300</v>
       </c>
       <c r="F54" s="3">
-        <v>1405900</v>
+        <v>1403800</v>
       </c>
       <c r="G54" s="3">
-        <v>1107500</v>
+        <v>1457100</v>
       </c>
       <c r="H54" s="3">
-        <v>1230300</v>
+        <v>1147800</v>
       </c>
       <c r="I54" s="3">
-        <v>869600</v>
+        <v>1275100</v>
       </c>
       <c r="J54" s="3">
+        <v>901300</v>
+      </c>
+      <c r="K54" s="3">
         <v>985400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>977200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1085800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>611600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>701600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>790000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>858000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>939800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>911400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>377300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>396500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>405000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>236700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>249100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>159800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>193800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>223100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,139 +4317,143 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87900</v>
+        <v>106900</v>
       </c>
       <c r="E57" s="3">
-        <v>76500</v>
+        <v>91100</v>
       </c>
       <c r="F57" s="3">
-        <v>72200</v>
+        <v>79300</v>
       </c>
       <c r="G57" s="3">
-        <v>60700</v>
+        <v>74800</v>
       </c>
       <c r="H57" s="3">
-        <v>78100</v>
+        <v>62900</v>
       </c>
       <c r="I57" s="3">
-        <v>45100</v>
+        <v>80900</v>
       </c>
       <c r="J57" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K57" s="3">
         <v>55300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>26700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>22000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>17400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>19600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>15400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20500</v>
+        <v>26900</v>
       </c>
       <c r="E58" s="3">
-        <v>14400</v>
+        <v>21300</v>
       </c>
       <c r="F58" s="3">
-        <v>9100</v>
+        <v>14900</v>
       </c>
       <c r="G58" s="3">
-        <v>7100</v>
+        <v>9400</v>
       </c>
       <c r="H58" s="3">
-        <v>6900</v>
+        <v>7400</v>
       </c>
       <c r="I58" s="3">
         <v>7100</v>
       </c>
       <c r="J58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4330,8 +4463,8 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4348,219 +4481,228 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37400</v>
+        <v>47400</v>
       </c>
       <c r="E59" s="3">
-        <v>26600</v>
+        <v>38800</v>
       </c>
       <c r="F59" s="3">
-        <v>16100</v>
+        <v>27600</v>
       </c>
       <c r="G59" s="3">
-        <v>34700</v>
+        <v>16700</v>
       </c>
       <c r="H59" s="3">
-        <v>33600</v>
+        <v>35900</v>
       </c>
       <c r="I59" s="3">
-        <v>19500</v>
+        <v>34800</v>
       </c>
       <c r="J59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K59" s="3">
         <v>12100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>42300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22700</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>145800</v>
+        <v>181200</v>
       </c>
       <c r="E60" s="3">
-        <v>117500</v>
+        <v>151100</v>
       </c>
       <c r="F60" s="3">
-        <v>97300</v>
+        <v>121800</v>
       </c>
       <c r="G60" s="3">
-        <v>102400</v>
+        <v>100900</v>
       </c>
       <c r="H60" s="3">
-        <v>118500</v>
+        <v>106200</v>
       </c>
       <c r="I60" s="3">
-        <v>71800</v>
+        <v>122900</v>
       </c>
       <c r="J60" s="3">
         <v>74400</v>
       </c>
       <c r="K60" s="3">
+        <v>74400</v>
+      </c>
+      <c r="L60" s="3">
         <v>52700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>74300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>46000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>36700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>40200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>17900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>20100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>544200</v>
+        <v>511000</v>
       </c>
       <c r="E61" s="3">
-        <v>508500</v>
+        <v>564100</v>
       </c>
       <c r="F61" s="3">
-        <v>474400</v>
+        <v>527000</v>
       </c>
       <c r="G61" s="3">
-        <v>100000</v>
+        <v>491700</v>
       </c>
       <c r="H61" s="3">
-        <v>97500</v>
+        <v>103600</v>
       </c>
       <c r="I61" s="3">
-        <v>96000</v>
+        <v>101100</v>
       </c>
       <c r="J61" s="3">
+        <v>99500</v>
+      </c>
+      <c r="K61" s="3">
         <v>91400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>84900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>36800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4588,25 +4730,28 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>148900</v>
+        <v>182100</v>
       </c>
       <c r="E62" s="3">
-        <v>107900</v>
+        <v>154300</v>
       </c>
       <c r="F62" s="3">
-        <v>147300</v>
+        <v>111900</v>
       </c>
       <c r="G62" s="3">
-        <v>3000</v>
+        <v>152700</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4615,23 +4760,23 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4644,8 +4789,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>839000</v>
+        <v>874300</v>
       </c>
       <c r="E66" s="3">
-        <v>733900</v>
+        <v>869500</v>
       </c>
       <c r="F66" s="3">
-        <v>719100</v>
+        <v>760700</v>
       </c>
       <c r="G66" s="3">
-        <v>205500</v>
+        <v>745300</v>
       </c>
       <c r="H66" s="3">
-        <v>216100</v>
+        <v>213000</v>
       </c>
       <c r="I66" s="3">
-        <v>167800</v>
+        <v>223900</v>
       </c>
       <c r="J66" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K66" s="3">
         <v>165900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>140700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>98100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>92900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>112800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>40200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>22300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>17900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>15800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,35 +5508,38 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1571400</v>
+        <v>-1968400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1412800</v>
+        <v>-1628700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1346900</v>
+        <v>-1464200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1239200</v>
+        <v>-1396000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1145300</v>
+        <v>-1284300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1076900</v>
+        <v>-1187100</v>
       </c>
       <c r="J72" s="3">
+        <v>-1116100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-956400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5376,8 +5549,8 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -5400,26 +5573,29 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>221300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>137000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>168800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>202200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>460900</v>
+        <v>278600</v>
       </c>
       <c r="E76" s="3">
-        <v>620500</v>
+        <v>477700</v>
       </c>
       <c r="F76" s="3">
-        <v>686800</v>
+        <v>643100</v>
       </c>
       <c r="G76" s="3">
-        <v>902000</v>
+        <v>711800</v>
       </c>
       <c r="H76" s="3">
-        <v>1014200</v>
+        <v>934900</v>
       </c>
       <c r="I76" s="3">
-        <v>701800</v>
+        <v>1051200</v>
       </c>
       <c r="J76" s="3">
+        <v>727400</v>
+      </c>
+      <c r="K76" s="3">
         <v>819500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>836500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>987700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>520500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>619700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>697100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>771600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>827000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>857300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>331300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>359800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>364800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>381500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>210000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>226800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>141900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>173700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>207300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-172500</v>
+        <v>-219400</v>
       </c>
       <c r="E81" s="3">
-        <v>-83000</v>
+        <v>-178800</v>
       </c>
       <c r="F81" s="3">
-        <v>-128100</v>
+        <v>-86000</v>
       </c>
       <c r="G81" s="3">
-        <v>-108300</v>
+        <v>-132800</v>
       </c>
       <c r="H81" s="3">
-        <v>-82000</v>
+        <v>-112200</v>
       </c>
       <c r="I81" s="3">
-        <v>-137200</v>
+        <v>-85000</v>
       </c>
       <c r="J81" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-64100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-138600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-126400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-103600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-71500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-93800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-72200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-64200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-37800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-40200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-25000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-45400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-38300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,64 +6210,65 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H83" s="3">
         <v>4500</v>
       </c>
-      <c r="F83" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3900</v>
-      </c>
       <c r="I83" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="J83" s="3">
         <v>3800</v>
       </c>
       <c r="K83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L83" s="3">
         <v>3000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2400</v>
       </c>
       <c r="M83" s="3">
         <v>2400</v>
       </c>
       <c r="N83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="O83" s="3">
         <v>2300</v>
       </c>
       <c r="P83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100900</v>
+        <v>-149900</v>
       </c>
       <c r="E89" s="3">
-        <v>-127000</v>
+        <v>-104600</v>
       </c>
       <c r="F89" s="3">
-        <v>-133500</v>
+        <v>-131600</v>
       </c>
       <c r="G89" s="3">
-        <v>-125900</v>
+        <v>-138400</v>
       </c>
       <c r="H89" s="3">
-        <v>-99500</v>
+        <v>-130500</v>
       </c>
       <c r="I89" s="3">
-        <v>-117600</v>
+        <v>-103200</v>
       </c>
       <c r="J89" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-83300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-90100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-60000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-61800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-75400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-57500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-72800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-42100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-54900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-22100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-40300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-27100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-28900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-26800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-23800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-19600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3200</v>
+        <v>-4000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3800</v>
+        <v>-3300</v>
       </c>
       <c r="F91" s="3">
         <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4900</v>
+        <v>-4000</v>
       </c>
       <c r="H91" s="3">
-        <v>-11500</v>
+        <v>-5100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3700</v>
+        <v>-12000</v>
       </c>
       <c r="J91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>14400</v>
+        <v>-800</v>
       </c>
       <c r="E94" s="3">
-        <v>10100</v>
+        <v>14900</v>
       </c>
       <c r="F94" s="3">
-        <v>39300</v>
+        <v>10500</v>
       </c>
       <c r="G94" s="3">
-        <v>-114300</v>
+        <v>40800</v>
       </c>
       <c r="H94" s="3">
-        <v>20900</v>
+        <v>-118400</v>
       </c>
       <c r="I94" s="3">
-        <v>11300</v>
+        <v>21600</v>
       </c>
       <c r="J94" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-30700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>25300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-260000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>-2300</v>
-      </c>
       <c r="F100" s="3">
-        <v>406000</v>
+        <v>-2400</v>
       </c>
       <c r="G100" s="3">
-        <v>-21100</v>
+        <v>420800</v>
       </c>
       <c r="H100" s="3">
-        <v>378300</v>
+        <v>-21800</v>
       </c>
       <c r="I100" s="3">
-        <v>1400</v>
+        <v>392100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>10300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>606800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>573100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>216200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>18400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>120800</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>137100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21200</v>
+        <v>-23700</v>
       </c>
       <c r="E101" s="3">
-        <v>34200</v>
+        <v>22000</v>
       </c>
       <c r="F101" s="3">
-        <v>4000</v>
+        <v>35400</v>
       </c>
       <c r="G101" s="3">
-        <v>9400</v>
+        <v>4100</v>
       </c>
       <c r="H101" s="3">
-        <v>15200</v>
+        <v>9700</v>
       </c>
       <c r="I101" s="3">
-        <v>-7900</v>
+        <v>15800</v>
       </c>
       <c r="J101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K101" s="3">
         <v>22700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-27700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-29500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>32000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3700</v>
-      </c>
-      <c r="S101" s="3">
-        <v>3800</v>
       </c>
       <c r="T101" s="3">
         <v>3800</v>
       </c>
       <c r="U101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V101" s="3">
         <v>23400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>6700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-65400</v>
+        <v>-173000</v>
       </c>
       <c r="E102" s="3">
-        <v>-85000</v>
+        <v>-67800</v>
       </c>
       <c r="F102" s="3">
-        <v>315800</v>
+        <v>-88100</v>
       </c>
       <c r="G102" s="3">
-        <v>-251800</v>
+        <v>327300</v>
       </c>
       <c r="H102" s="3">
-        <v>314800</v>
+        <v>-261000</v>
       </c>
       <c r="I102" s="3">
-        <v>-112800</v>
+        <v>326300</v>
       </c>
       <c r="J102" s="3">
+        <v>-116900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-91300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-178500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>542700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-320500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-72000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-70700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>501000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-38400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-50000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>168100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-12300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>88600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-25400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>124200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,183 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24200</v>
+        <v>36200</v>
       </c>
       <c r="E8" s="3">
-        <v>16200</v>
+        <v>24700</v>
       </c>
       <c r="F8" s="3">
-        <v>6600</v>
+        <v>16500</v>
       </c>
       <c r="G8" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="H8" s="3">
-        <v>5200</v>
+        <v>7300</v>
       </c>
       <c r="I8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12400</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -845,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>400</v>
       </c>
       <c r="Z8" s="3">
         <v>400</v>
@@ -857,33 +861,36 @@
         <v>400</v>
       </c>
       <c r="AB8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC8" s="3">
         <v>1200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
-        <v>1100</v>
-      </c>
       <c r="G9" s="3">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="H9" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+        <v>4600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -945,29 +952,32 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18800</v>
+        <v>31200</v>
       </c>
       <c r="E10" s="3">
-        <v>14400</v>
+        <v>19200</v>
       </c>
       <c r="F10" s="3">
-        <v>5400</v>
+        <v>14700</v>
       </c>
       <c r="G10" s="3">
-        <v>2700</v>
+        <v>5500</v>
       </c>
       <c r="H10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>112000</v>
+        <v>111400</v>
       </c>
       <c r="E12" s="3">
-        <v>100200</v>
+        <v>114000</v>
       </c>
       <c r="F12" s="3">
-        <v>92800</v>
+        <v>102000</v>
       </c>
       <c r="G12" s="3">
-        <v>85100</v>
+        <v>94400</v>
       </c>
       <c r="H12" s="3">
-        <v>69500</v>
+        <v>86700</v>
       </c>
       <c r="I12" s="3">
-        <v>62200</v>
+        <v>70700</v>
       </c>
       <c r="J12" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K12" s="3">
         <v>88100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>90000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>75600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>66500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>69400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>64900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>57400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>52700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>52600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>60400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>44900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>37300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>44200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>33500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>31500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>32600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>24500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>23100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>23500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1340,7 @@
         <v>2900</v>
       </c>
       <c r="E15" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F15" s="3">
         <v>2900</v>
@@ -1325,8 +1348,8 @@
       <c r="G15" s="3">
         <v>2900</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>2900</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1349,21 +1372,21 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>1800</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>1800</v>
       </c>
       <c r="R15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S15" s="3">
         <v>1500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1200</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1373,8 +1396,8 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>180200</v>
+        <v>190900</v>
       </c>
       <c r="E17" s="3">
-        <v>169100</v>
+        <v>183400</v>
       </c>
       <c r="F17" s="3">
-        <v>156600</v>
+        <v>172100</v>
       </c>
       <c r="G17" s="3">
-        <v>142700</v>
+        <v>159400</v>
       </c>
       <c r="H17" s="3">
-        <v>124300</v>
+        <v>145200</v>
       </c>
       <c r="I17" s="3">
-        <v>103700</v>
+        <v>126500</v>
       </c>
       <c r="J17" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K17" s="3">
         <v>125500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>128000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>95900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>84700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>92100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>85200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>78600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>65700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>73800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>54800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>45300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>49900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>38700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>36000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>35800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>28200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>26900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>27300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-155900</v>
+        <v>-154700</v>
       </c>
       <c r="E18" s="3">
-        <v>-152900</v>
+        <v>-158700</v>
       </c>
       <c r="F18" s="3">
-        <v>-150100</v>
+        <v>-155600</v>
       </c>
       <c r="G18" s="3">
-        <v>-135500</v>
+        <v>-152800</v>
       </c>
       <c r="H18" s="3">
-        <v>-119100</v>
+        <v>-137900</v>
       </c>
       <c r="I18" s="3">
-        <v>-102600</v>
+        <v>-121200</v>
       </c>
       <c r="J18" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-124500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-127300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-95400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-81800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-90500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-82700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-75700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-63100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-63200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-67300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-42400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-45300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-49900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-38700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-35700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-35400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-27700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-26400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-26100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,197 +1649,204 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57900</v>
+        <v>36700</v>
       </c>
       <c r="E20" s="3">
-        <v>-26100</v>
+        <v>-58900</v>
       </c>
       <c r="F20" s="3">
-        <v>64000</v>
+        <v>-26500</v>
       </c>
       <c r="G20" s="3">
+        <v>65100</v>
+      </c>
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>6800</v>
-      </c>
       <c r="I20" s="3">
-        <v>17600</v>
+        <v>6900</v>
       </c>
       <c r="J20" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-17800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>63000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-43200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-44600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>24800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-2900</v>
       </c>
       <c r="Y20" s="3">
         <v>-2900</v>
       </c>
       <c r="Z20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-6800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>6900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-208900</v>
+        <v>-113200</v>
       </c>
       <c r="E21" s="3">
-        <v>-174200</v>
+        <v>-212600</v>
       </c>
       <c r="F21" s="3">
-        <v>-81400</v>
+        <v>-177300</v>
       </c>
       <c r="G21" s="3">
-        <v>-127900</v>
+        <v>-82900</v>
       </c>
       <c r="H21" s="3">
-        <v>-107800</v>
+        <v>-130100</v>
       </c>
       <c r="I21" s="3">
-        <v>-81000</v>
+        <v>-109700</v>
       </c>
       <c r="J21" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-138400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-60500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-135600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-124000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-101300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-69300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-91200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-26700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-70200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-62500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-37600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-40000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-24900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-45300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-38100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-34300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-28000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-19100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1823,20 +1863,20 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>200</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1847,8 +1887,8 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1865,135 +1905,141 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-213800</v>
+        <v>-118000</v>
       </c>
       <c r="E23" s="3">
-        <v>-178900</v>
+        <v>-217600</v>
       </c>
       <c r="F23" s="3">
-        <v>-86100</v>
+        <v>-182100</v>
       </c>
       <c r="G23" s="3">
-        <v>-132500</v>
+        <v>-87600</v>
       </c>
       <c r="H23" s="3">
-        <v>-112300</v>
+        <v>-134900</v>
       </c>
       <c r="I23" s="3">
-        <v>-85000</v>
+        <v>-114300</v>
       </c>
       <c r="J23" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-142200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-64300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-138600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-126400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-103700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-71600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-93900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-72200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-64200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-37900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-40300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-25100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-45500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-38600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-34500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-28200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5700</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
@@ -2014,14 +2060,14 @@
         <v>-100</v>
       </c>
       <c r="X24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-300</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2029,10 +2075,13 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-219400</v>
+        <v>-119400</v>
       </c>
       <c r="E26" s="3">
-        <v>-178800</v>
+        <v>-223400</v>
       </c>
       <c r="F26" s="3">
-        <v>-86000</v>
+        <v>-181900</v>
       </c>
       <c r="G26" s="3">
-        <v>-132800</v>
+        <v>-87600</v>
       </c>
       <c r="H26" s="3">
-        <v>-112200</v>
+        <v>-135100</v>
       </c>
       <c r="I26" s="3">
-        <v>-85000</v>
+        <v>-114200</v>
       </c>
       <c r="J26" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-142200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-64100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-138600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-126400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-103600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-71500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-29300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-72200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-64200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-37800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-40200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-25000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-45400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-34500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-28200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-219400</v>
+        <v>-119400</v>
       </c>
       <c r="E27" s="3">
-        <v>-178800</v>
+        <v>-223400</v>
       </c>
       <c r="F27" s="3">
-        <v>-86000</v>
+        <v>-181900</v>
       </c>
       <c r="G27" s="3">
-        <v>-132800</v>
+        <v>-87600</v>
       </c>
       <c r="H27" s="3">
-        <v>-112200</v>
+        <v>-135100</v>
       </c>
       <c r="I27" s="3">
-        <v>-85000</v>
+        <v>-114200</v>
       </c>
       <c r="J27" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-142200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-64100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-138600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-126400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-103600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-71500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-29300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-72200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-64200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-37800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-40200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-25000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-45400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-34500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-28200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57900</v>
+        <v>-36700</v>
       </c>
       <c r="E32" s="3">
-        <v>26100</v>
+        <v>58900</v>
       </c>
       <c r="F32" s="3">
-        <v>-64000</v>
+        <v>26500</v>
       </c>
       <c r="G32" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-6800</v>
-      </c>
       <c r="I32" s="3">
-        <v>-17600</v>
+        <v>-6900</v>
       </c>
       <c r="J32" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K32" s="3">
         <v>17800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-63000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>43200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>44600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-24800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6900</v>
-      </c>
-      <c r="X32" s="3">
-        <v>2900</v>
       </c>
       <c r="Y32" s="3">
         <v>2900</v>
       </c>
       <c r="Z32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA32" s="3">
         <v>6800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-6900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-219400</v>
+        <v>-119400</v>
       </c>
       <c r="E33" s="3">
-        <v>-178800</v>
+        <v>-223400</v>
       </c>
       <c r="F33" s="3">
-        <v>-86000</v>
+        <v>-181900</v>
       </c>
       <c r="G33" s="3">
-        <v>-132800</v>
+        <v>-87600</v>
       </c>
       <c r="H33" s="3">
-        <v>-112200</v>
+        <v>-135100</v>
       </c>
       <c r="I33" s="3">
-        <v>-85000</v>
+        <v>-114200</v>
       </c>
       <c r="J33" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-142200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-64100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-138600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-126400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-103600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-71500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-29300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-72200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-64200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-37800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-40200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-25000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-45400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-34500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-28200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-219400</v>
+        <v>-119400</v>
       </c>
       <c r="E35" s="3">
-        <v>-178800</v>
+        <v>-223400</v>
       </c>
       <c r="F35" s="3">
-        <v>-86000</v>
+        <v>-181900</v>
       </c>
       <c r="G35" s="3">
-        <v>-132800</v>
+        <v>-87600</v>
       </c>
       <c r="H35" s="3">
-        <v>-112200</v>
+        <v>-135100</v>
       </c>
       <c r="I35" s="3">
-        <v>-85000</v>
+        <v>-114200</v>
       </c>
       <c r="J35" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-142200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-64100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-138600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-126400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-103600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-71500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-29300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-72200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-64200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-37800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-40200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-25000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-45400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-34500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-28200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,130 +3180,134 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>470600</v>
+        <v>539800</v>
       </c>
       <c r="E41" s="3">
-        <v>643600</v>
+        <v>479000</v>
       </c>
       <c r="F41" s="3">
-        <v>711400</v>
+        <v>655100</v>
       </c>
       <c r="G41" s="3">
-        <v>799500</v>
+        <v>724100</v>
       </c>
       <c r="H41" s="3">
-        <v>472200</v>
+        <v>813800</v>
       </c>
       <c r="I41" s="3">
-        <v>733100</v>
+        <v>480600</v>
       </c>
       <c r="J41" s="3">
+        <v>746200</v>
+      </c>
+      <c r="K41" s="3">
         <v>406800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>505300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>583000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>792400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>262500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>603400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>698200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>768900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>845700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>833300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>328700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>367100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>387200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>382600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>219200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>231500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>142900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>176900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>211700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>307500</v>
+        <v>91000</v>
       </c>
       <c r="E42" s="3">
-        <v>329500</v>
+        <v>313000</v>
       </c>
       <c r="F42" s="3">
-        <v>299200</v>
+        <v>335400</v>
       </c>
       <c r="G42" s="3">
-        <v>236000</v>
+        <v>304500</v>
       </c>
       <c r="H42" s="3">
-        <v>249500</v>
+        <v>240200</v>
       </c>
       <c r="I42" s="3">
-        <v>174900</v>
+        <v>253900</v>
       </c>
       <c r="J42" s="3">
+        <v>178100</v>
+      </c>
+      <c r="K42" s="3">
         <v>175700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>173200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>133900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>172600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>252000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3230,8 +3320,8 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3260,114 +3350,120 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27100</v>
+        <v>37200</v>
       </c>
       <c r="E43" s="3">
-        <v>22800</v>
+        <v>27600</v>
       </c>
       <c r="F43" s="3">
-        <v>21700</v>
+        <v>23200</v>
       </c>
       <c r="G43" s="3">
-        <v>23200</v>
+        <v>22100</v>
       </c>
       <c r="H43" s="3">
-        <v>24500</v>
+        <v>23600</v>
       </c>
       <c r="I43" s="3">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="J43" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K43" s="3">
         <v>12500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>138300</v>
+        <v>162500</v>
       </c>
       <c r="E44" s="3">
-        <v>110000</v>
+        <v>140700</v>
       </c>
       <c r="F44" s="3">
-        <v>107200</v>
+        <v>112000</v>
       </c>
       <c r="G44" s="3">
-        <v>97800</v>
+        <v>109100</v>
       </c>
       <c r="H44" s="3">
-        <v>79800</v>
+        <v>99500</v>
       </c>
       <c r="I44" s="3">
-        <v>58500</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+        <v>81200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>59500</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -3384,8 +3480,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3426,239 +3522,248 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33600</v>
+        <v>41700</v>
       </c>
       <c r="E45" s="3">
-        <v>36600</v>
+        <v>34200</v>
       </c>
       <c r="F45" s="3">
-        <v>37100</v>
+        <v>37200</v>
       </c>
       <c r="G45" s="3">
-        <v>29600</v>
+        <v>37800</v>
       </c>
       <c r="H45" s="3">
-        <v>26700</v>
+        <v>30100</v>
       </c>
       <c r="I45" s="3">
-        <v>23500</v>
+        <v>27200</v>
       </c>
       <c r="J45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K45" s="3">
         <v>23100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>14700</v>
       </c>
       <c r="U45" s="3">
         <v>14700</v>
       </c>
       <c r="V45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="W45" s="3">
         <v>6500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>6300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>977000</v>
+        <v>872100</v>
       </c>
       <c r="E46" s="3">
-        <v>1142500</v>
+        <v>994500</v>
       </c>
       <c r="F46" s="3">
-        <v>1176600</v>
+        <v>1162900</v>
       </c>
       <c r="G46" s="3">
-        <v>1186100</v>
+        <v>1197600</v>
       </c>
       <c r="H46" s="3">
-        <v>852600</v>
+        <v>1207300</v>
       </c>
       <c r="I46" s="3">
-        <v>1012100</v>
+        <v>867900</v>
       </c>
       <c r="J46" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="K46" s="3">
         <v>618100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>701600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>738200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>989700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>536300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>622800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>713500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>781800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>861000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>856200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>346500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>386800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>397100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>392800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>229600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>242100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>152600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>186700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>215900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34200</v>
+        <v>25800</v>
       </c>
       <c r="E47" s="3">
-        <v>52100</v>
+        <v>34800</v>
       </c>
       <c r="F47" s="3">
-        <v>80900</v>
+        <v>53000</v>
       </c>
       <c r="G47" s="3">
-        <v>130500</v>
+        <v>82300</v>
       </c>
       <c r="H47" s="3">
-        <v>156300</v>
+        <v>132800</v>
       </c>
       <c r="I47" s="3">
-        <v>121900</v>
+        <v>159100</v>
       </c>
       <c r="J47" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K47" s="3">
         <v>146200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>161500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>125500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>20200</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3675,91 +3780,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>136600</v>
+        <v>137600</v>
       </c>
       <c r="E48" s="3">
-        <v>147400</v>
+        <v>139000</v>
       </c>
       <c r="F48" s="3">
-        <v>141000</v>
+        <v>150100</v>
       </c>
       <c r="G48" s="3">
-        <v>135100</v>
+        <v>143500</v>
       </c>
       <c r="H48" s="3">
-        <v>133400</v>
+        <v>137500</v>
       </c>
       <c r="I48" s="3">
-        <v>133600</v>
+        <v>135700</v>
       </c>
       <c r="J48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K48" s="3">
         <v>131100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>116600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>107800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>54300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>56200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>52100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2800</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>2900</v>
       </c>
       <c r="AA48" s="3">
         <v>2900</v>
       </c>
       <c r="AB48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AC48" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3773,7 +3884,7 @@
         <v>5300</v>
       </c>
       <c r="G49" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H49" s="3">
         <v>5600</v>
@@ -3785,46 +3896,46 @@
         <v>5800</v>
       </c>
       <c r="K49" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="L49" s="3">
         <v>5700</v>
       </c>
       <c r="M49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N49" s="3">
         <v>4800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>4100</v>
       </c>
       <c r="Q49" s="3">
         <v>4100</v>
       </c>
       <c r="R49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S49" s="3">
         <v>4300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4200</v>
-      </c>
-      <c r="T49" s="3">
-        <v>4100</v>
       </c>
       <c r="U49" s="3">
         <v>4100</v>
       </c>
       <c r="V49" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="W49" s="3">
         <v>3800</v>
       </c>
       <c r="X49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="Y49" s="3">
         <v>3900</v>
@@ -3836,13 +3947,16 @@
         <v>3900</v>
       </c>
       <c r="AB49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="AC49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4027,29 +4147,29 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>1300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1400</v>
       </c>
       <c r="O52" s="3">
         <v>1400</v>
       </c>
       <c r="P52" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="Q52" s="3">
         <v>1700</v>
@@ -4058,22 +4178,22 @@
         <v>1700</v>
       </c>
       <c r="S52" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="T52" s="3">
         <v>1400</v>
       </c>
       <c r="U52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V52" s="3">
         <v>1500</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1200</v>
       </c>
       <c r="W52" s="3">
         <v>1200</v>
       </c>
       <c r="X52" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="Y52" s="3">
         <v>300</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1152900</v>
+        <v>1040600</v>
       </c>
       <c r="E54" s="3">
-        <v>1347300</v>
+        <v>1173500</v>
       </c>
       <c r="F54" s="3">
-        <v>1403800</v>
+        <v>1371300</v>
       </c>
       <c r="G54" s="3">
-        <v>1457100</v>
+        <v>1428900</v>
       </c>
       <c r="H54" s="3">
-        <v>1147800</v>
+        <v>1483200</v>
       </c>
       <c r="I54" s="3">
-        <v>1275100</v>
+        <v>1168400</v>
       </c>
       <c r="J54" s="3">
+        <v>1297900</v>
+      </c>
+      <c r="K54" s="3">
         <v>901300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>985400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>977200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1085800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>611600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>701600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>790000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>858000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>939800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>911400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>377300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>396500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>405000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>236700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>249100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>159800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>193800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>223100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,145 +4448,149 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>106900</v>
+        <v>141500</v>
       </c>
       <c r="E57" s="3">
-        <v>91100</v>
+        <v>108800</v>
       </c>
       <c r="F57" s="3">
-        <v>79300</v>
+        <v>92700</v>
       </c>
       <c r="G57" s="3">
-        <v>74800</v>
+        <v>80800</v>
       </c>
       <c r="H57" s="3">
-        <v>62900</v>
+        <v>76100</v>
       </c>
       <c r="I57" s="3">
-        <v>80900</v>
+        <v>64000</v>
       </c>
       <c r="J57" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K57" s="3">
         <v>46800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>23400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>36700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>40200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>26700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>22000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>17400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>19600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>15400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26900</v>
+        <v>27300</v>
       </c>
       <c r="E58" s="3">
-        <v>21300</v>
+        <v>27400</v>
       </c>
       <c r="F58" s="3">
-        <v>14900</v>
+        <v>21600</v>
       </c>
       <c r="G58" s="3">
-        <v>9400</v>
+        <v>15200</v>
       </c>
       <c r="H58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K58" s="3">
         <v>7400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="N58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
-        <v>6800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>6600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>7000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4466,8 +4600,8 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4484,228 +4618,237 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47400</v>
+        <v>44700</v>
       </c>
       <c r="E59" s="3">
-        <v>38800</v>
+        <v>48300</v>
       </c>
       <c r="F59" s="3">
-        <v>27600</v>
+        <v>39500</v>
       </c>
       <c r="G59" s="3">
+        <v>28100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>36600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>24000</v>
+      </c>
+      <c r="N59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="O59" s="3">
+        <v>17900</v>
+      </c>
+      <c r="P59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>16700</v>
       </c>
-      <c r="H59" s="3">
-        <v>35900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>34800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>20300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>12100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>24000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>20700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>17900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>9300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>16700</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>42300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22700</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>181200</v>
+        <v>213600</v>
       </c>
       <c r="E60" s="3">
-        <v>151100</v>
+        <v>184400</v>
       </c>
       <c r="F60" s="3">
-        <v>121800</v>
+        <v>153800</v>
       </c>
       <c r="G60" s="3">
-        <v>100900</v>
+        <v>124000</v>
       </c>
       <c r="H60" s="3">
-        <v>106200</v>
+        <v>102700</v>
       </c>
       <c r="I60" s="3">
-        <v>122900</v>
+        <v>108100</v>
       </c>
       <c r="J60" s="3">
-        <v>74400</v>
+        <v>125000</v>
       </c>
       <c r="K60" s="3">
         <v>74400</v>
       </c>
       <c r="L60" s="3">
+        <v>74400</v>
+      </c>
+      <c r="M60" s="3">
         <v>52700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>66900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>49700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>74300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>46000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>36700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>40200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>26700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>20100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>511000</v>
+        <v>516900</v>
       </c>
       <c r="E61" s="3">
-        <v>564100</v>
+        <v>520100</v>
       </c>
       <c r="F61" s="3">
-        <v>527000</v>
+        <v>574100</v>
       </c>
       <c r="G61" s="3">
-        <v>491700</v>
+        <v>536400</v>
       </c>
       <c r="H61" s="3">
-        <v>103600</v>
+        <v>500500</v>
       </c>
       <c r="I61" s="3">
-        <v>101100</v>
+        <v>105500</v>
       </c>
       <c r="J61" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K61" s="3">
         <v>99500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>91400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>84900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>36800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4733,28 +4876,31 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>182100</v>
+        <v>130000</v>
       </c>
       <c r="E62" s="3">
-        <v>154300</v>
+        <v>185400</v>
       </c>
       <c r="F62" s="3">
-        <v>111900</v>
+        <v>157100</v>
       </c>
       <c r="G62" s="3">
-        <v>152700</v>
+        <v>113900</v>
       </c>
       <c r="H62" s="3">
-        <v>3100</v>
+        <v>155400</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4763,23 +4909,23 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>3200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4792,8 +4938,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>874300</v>
+        <v>860500</v>
       </c>
       <c r="E66" s="3">
-        <v>869500</v>
+        <v>889900</v>
       </c>
       <c r="F66" s="3">
-        <v>760700</v>
+        <v>885100</v>
       </c>
       <c r="G66" s="3">
-        <v>745300</v>
+        <v>774300</v>
       </c>
       <c r="H66" s="3">
-        <v>213000</v>
+        <v>758600</v>
       </c>
       <c r="I66" s="3">
-        <v>223900</v>
+        <v>216800</v>
       </c>
       <c r="J66" s="3">
+        <v>227900</v>
+      </c>
+      <c r="K66" s="3">
         <v>173900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>165900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>140700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>98100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>81900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>92900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>112800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>40200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>22300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>17900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>15800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,38 +5682,41 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1968400</v>
+        <v>-2108300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1628700</v>
+        <v>-2003600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1464200</v>
+        <v>-1657800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1396000</v>
+        <v>-1490400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1284300</v>
+        <v>-1420900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1187100</v>
+        <v>-1307300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1208300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1116100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-956400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5552,8 +5726,8 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -5576,26 +5750,29 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>221300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>137000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>168800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>202200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>278600</v>
+        <v>180100</v>
       </c>
       <c r="E76" s="3">
-        <v>477700</v>
+        <v>283600</v>
       </c>
       <c r="F76" s="3">
-        <v>643100</v>
+        <v>486300</v>
       </c>
       <c r="G76" s="3">
-        <v>711800</v>
+        <v>654600</v>
       </c>
       <c r="H76" s="3">
-        <v>934900</v>
+        <v>724600</v>
       </c>
       <c r="I76" s="3">
-        <v>1051200</v>
+        <v>951600</v>
       </c>
       <c r="J76" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="K76" s="3">
         <v>727400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>819500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>836500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>987700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>520500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>619700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>697100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>771600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>827000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>857300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>331300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>359800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>364800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>381500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>210000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>226800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>141900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>173700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>207300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-219400</v>
+        <v>-119400</v>
       </c>
       <c r="E81" s="3">
-        <v>-178800</v>
+        <v>-223400</v>
       </c>
       <c r="F81" s="3">
-        <v>-86000</v>
+        <v>-181900</v>
       </c>
       <c r="G81" s="3">
-        <v>-132800</v>
+        <v>-87600</v>
       </c>
       <c r="H81" s="3">
-        <v>-112200</v>
+        <v>-135100</v>
       </c>
       <c r="I81" s="3">
-        <v>-85000</v>
+        <v>-114200</v>
       </c>
       <c r="J81" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-142200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-64100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-138600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-126400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-103600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-71500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-29300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-72200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-64200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-37800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-40200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-25000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-45400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-34500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-28200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6220,58 +6419,58 @@
         <v>4900</v>
       </c>
       <c r="E83" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F83" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="G83" s="3">
         <v>4700</v>
       </c>
       <c r="H83" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="I83" s="3">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="J83" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="K83" s="3">
         <v>3800</v>
       </c>
       <c r="L83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M83" s="3">
         <v>3000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2400</v>
       </c>
       <c r="N83" s="3">
         <v>2400</v>
       </c>
       <c r="O83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="P83" s="3">
         <v>2300</v>
       </c>
       <c r="Q83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R83" s="3">
         <v>2200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-149900</v>
+        <v>-158400</v>
       </c>
       <c r="E89" s="3">
-        <v>-104600</v>
+        <v>-152600</v>
       </c>
       <c r="F89" s="3">
-        <v>-131600</v>
+        <v>-106400</v>
       </c>
       <c r="G89" s="3">
-        <v>-138400</v>
+        <v>-134000</v>
       </c>
       <c r="H89" s="3">
-        <v>-130500</v>
+        <v>-140800</v>
       </c>
       <c r="I89" s="3">
-        <v>-103200</v>
+        <v>-132800</v>
       </c>
       <c r="J89" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-121900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-83300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-90100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-60000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-61800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-75400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-57500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-70000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-72800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-42100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-54900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-22100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-40300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-27100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-28900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-26800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-23800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-19600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4000</v>
+        <v>-1100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-3200</v>
       </c>
       <c r="G91" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="H91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-800</v>
+        <v>226800</v>
       </c>
       <c r="E94" s="3">
-        <v>14900</v>
+        <v>-900</v>
       </c>
       <c r="F94" s="3">
-        <v>10500</v>
+        <v>15200</v>
       </c>
       <c r="G94" s="3">
-        <v>40800</v>
+        <v>10600</v>
       </c>
       <c r="H94" s="3">
-        <v>-118400</v>
+        <v>41500</v>
       </c>
       <c r="I94" s="3">
-        <v>21600</v>
+        <v>-120500</v>
       </c>
       <c r="J94" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K94" s="3">
         <v>11700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>25300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-260000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1400</v>
+        <v>-800</v>
       </c>
       <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
-        <v>420800</v>
-      </c>
       <c r="H100" s="3">
-        <v>-21800</v>
+        <v>428300</v>
       </c>
       <c r="I100" s="3">
-        <v>392100</v>
+        <v>-22200</v>
       </c>
       <c r="J100" s="3">
+        <v>399100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>10300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>606800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>573100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>216200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>18400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>120800</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>137100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23700</v>
+        <v>-6900</v>
       </c>
       <c r="E101" s="3">
-        <v>22000</v>
+        <v>-24200</v>
       </c>
       <c r="F101" s="3">
-        <v>35400</v>
+        <v>22300</v>
       </c>
       <c r="G101" s="3">
-        <v>4100</v>
+        <v>36100</v>
       </c>
       <c r="H101" s="3">
-        <v>9700</v>
+        <v>4200</v>
       </c>
       <c r="I101" s="3">
-        <v>15800</v>
+        <v>9900</v>
       </c>
       <c r="J101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-27700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-29500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>32000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3700</v>
-      </c>
-      <c r="T101" s="3">
-        <v>3800</v>
       </c>
       <c r="U101" s="3">
         <v>3800</v>
       </c>
       <c r="V101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W101" s="3">
         <v>23400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>6700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-173000</v>
+        <v>60900</v>
       </c>
       <c r="E102" s="3">
-        <v>-67800</v>
+        <v>-176100</v>
       </c>
       <c r="F102" s="3">
-        <v>-88100</v>
+        <v>-69000</v>
       </c>
       <c r="G102" s="3">
-        <v>327300</v>
+        <v>-89700</v>
       </c>
       <c r="H102" s="3">
-        <v>-261000</v>
+        <v>333200</v>
       </c>
       <c r="I102" s="3">
-        <v>326300</v>
+        <v>-265600</v>
       </c>
       <c r="J102" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-116900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-91300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-178500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>542700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-320500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-72000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-70700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-37000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>501000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-38400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-50000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>168100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>88600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-25400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>124200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-19000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -789,19 +789,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="E8" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="F8" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="G8" s="3">
         <v>6700</v>
       </c>
       <c r="H8" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="I8" s="3">
         <v>5300</v>
@@ -961,13 +961,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="E10" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="F10" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="G10" s="3">
         <v>5500</v>
@@ -1079,25 +1079,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>111400</v>
+        <v>112100</v>
       </c>
       <c r="E12" s="3">
-        <v>114000</v>
+        <v>114700</v>
       </c>
       <c r="F12" s="3">
-        <v>102000</v>
+        <v>102700</v>
       </c>
       <c r="G12" s="3">
-        <v>94400</v>
+        <v>95100</v>
       </c>
       <c r="H12" s="3">
-        <v>86700</v>
+        <v>87200</v>
       </c>
       <c r="I12" s="3">
-        <v>70700</v>
+        <v>71200</v>
       </c>
       <c r="J12" s="3">
-        <v>63300</v>
+        <v>63700</v>
       </c>
       <c r="K12" s="3">
         <v>88100</v>
@@ -1452,25 +1452,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>190900</v>
+        <v>192200</v>
       </c>
       <c r="E17" s="3">
-        <v>183400</v>
+        <v>184600</v>
       </c>
       <c r="F17" s="3">
-        <v>172100</v>
+        <v>173200</v>
       </c>
       <c r="G17" s="3">
-        <v>159400</v>
+        <v>160500</v>
       </c>
       <c r="H17" s="3">
-        <v>145200</v>
+        <v>146200</v>
       </c>
       <c r="I17" s="3">
-        <v>126500</v>
+        <v>127400</v>
       </c>
       <c r="J17" s="3">
-        <v>105600</v>
+        <v>106300</v>
       </c>
       <c r="K17" s="3">
         <v>125500</v>
@@ -1538,25 +1538,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-154700</v>
+        <v>-155800</v>
       </c>
       <c r="E18" s="3">
-        <v>-158700</v>
+        <v>-159800</v>
       </c>
       <c r="F18" s="3">
-        <v>-155600</v>
+        <v>-156600</v>
       </c>
       <c r="G18" s="3">
-        <v>-152800</v>
+        <v>-153800</v>
       </c>
       <c r="H18" s="3">
-        <v>-137900</v>
+        <v>-138800</v>
       </c>
       <c r="I18" s="3">
-        <v>-121200</v>
+        <v>-122000</v>
       </c>
       <c r="J18" s="3">
-        <v>-104400</v>
+        <v>-105100</v>
       </c>
       <c r="K18" s="3">
         <v>-124500</v>
@@ -1656,16 +1656,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36700</v>
+        <v>36900</v>
       </c>
       <c r="E20" s="3">
-        <v>-58900</v>
+        <v>-59300</v>
       </c>
       <c r="F20" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="G20" s="3">
-        <v>65100</v>
+        <v>65600</v>
       </c>
       <c r="H20" s="3">
         <v>3000</v>
@@ -1674,7 +1674,7 @@
         <v>6900</v>
       </c>
       <c r="J20" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="K20" s="3">
         <v>-17800</v>
@@ -1742,25 +1742,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-113200</v>
+        <v>-113900</v>
       </c>
       <c r="E21" s="3">
-        <v>-212600</v>
+        <v>-214000</v>
       </c>
       <c r="F21" s="3">
-        <v>-177300</v>
+        <v>-178500</v>
       </c>
       <c r="G21" s="3">
-        <v>-82900</v>
+        <v>-83400</v>
       </c>
       <c r="H21" s="3">
-        <v>-130100</v>
+        <v>-131000</v>
       </c>
       <c r="I21" s="3">
-        <v>-109700</v>
+        <v>-110500</v>
       </c>
       <c r="J21" s="3">
-        <v>-82400</v>
+        <v>-83000</v>
       </c>
       <c r="K21" s="3">
         <v>-138400</v>
@@ -1914,25 +1914,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-118000</v>
+        <v>-118800</v>
       </c>
       <c r="E23" s="3">
-        <v>-217600</v>
+        <v>-219100</v>
       </c>
       <c r="F23" s="3">
-        <v>-182100</v>
+        <v>-183300</v>
       </c>
       <c r="G23" s="3">
-        <v>-87600</v>
+        <v>-88200</v>
       </c>
       <c r="H23" s="3">
-        <v>-134900</v>
+        <v>-135800</v>
       </c>
       <c r="I23" s="3">
-        <v>-114300</v>
+        <v>-115100</v>
       </c>
       <c r="J23" s="3">
-        <v>-86500</v>
+        <v>-87100</v>
       </c>
       <c r="K23" s="3">
         <v>-142200</v>
@@ -2172,25 +2172,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="E26" s="3">
-        <v>-223400</v>
+        <v>-224900</v>
       </c>
       <c r="F26" s="3">
-        <v>-181900</v>
+        <v>-183200</v>
       </c>
       <c r="G26" s="3">
-        <v>-87600</v>
+        <v>-88200</v>
       </c>
       <c r="H26" s="3">
-        <v>-135100</v>
+        <v>-136100</v>
       </c>
       <c r="I26" s="3">
-        <v>-114200</v>
+        <v>-115000</v>
       </c>
       <c r="J26" s="3">
-        <v>-86500</v>
+        <v>-87100</v>
       </c>
       <c r="K26" s="3">
         <v>-142200</v>
@@ -2258,25 +2258,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="E27" s="3">
-        <v>-223400</v>
+        <v>-224900</v>
       </c>
       <c r="F27" s="3">
-        <v>-181900</v>
+        <v>-183200</v>
       </c>
       <c r="G27" s="3">
-        <v>-87600</v>
+        <v>-88200</v>
       </c>
       <c r="H27" s="3">
-        <v>-135100</v>
+        <v>-136100</v>
       </c>
       <c r="I27" s="3">
-        <v>-114200</v>
+        <v>-115000</v>
       </c>
       <c r="J27" s="3">
-        <v>-86500</v>
+        <v>-87100</v>
       </c>
       <c r="K27" s="3">
         <v>-142200</v>
@@ -2688,16 +2688,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36700</v>
+        <v>-36900</v>
       </c>
       <c r="E32" s="3">
-        <v>58900</v>
+        <v>59300</v>
       </c>
       <c r="F32" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="G32" s="3">
-        <v>-65100</v>
+        <v>-65600</v>
       </c>
       <c r="H32" s="3">
         <v>-3000</v>
@@ -2706,7 +2706,7 @@
         <v>-6900</v>
       </c>
       <c r="J32" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="K32" s="3">
         <v>17800</v>
@@ -2774,25 +2774,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="E33" s="3">
-        <v>-223400</v>
+        <v>-224900</v>
       </c>
       <c r="F33" s="3">
-        <v>-181900</v>
+        <v>-183200</v>
       </c>
       <c r="G33" s="3">
-        <v>-87600</v>
+        <v>-88200</v>
       </c>
       <c r="H33" s="3">
-        <v>-135100</v>
+        <v>-136100</v>
       </c>
       <c r="I33" s="3">
-        <v>-114200</v>
+        <v>-115000</v>
       </c>
       <c r="J33" s="3">
-        <v>-86500</v>
+        <v>-87100</v>
       </c>
       <c r="K33" s="3">
         <v>-142200</v>
@@ -2946,25 +2946,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="E35" s="3">
-        <v>-223400</v>
+        <v>-224900</v>
       </c>
       <c r="F35" s="3">
-        <v>-181900</v>
+        <v>-183200</v>
       </c>
       <c r="G35" s="3">
-        <v>-87600</v>
+        <v>-88200</v>
       </c>
       <c r="H35" s="3">
-        <v>-135100</v>
+        <v>-136100</v>
       </c>
       <c r="I35" s="3">
-        <v>-114200</v>
+        <v>-115000</v>
       </c>
       <c r="J35" s="3">
-        <v>-86500</v>
+        <v>-87100</v>
       </c>
       <c r="K35" s="3">
         <v>-142200</v>
@@ -3187,25 +3187,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>539800</v>
+        <v>543400</v>
       </c>
       <c r="E41" s="3">
-        <v>479000</v>
+        <v>482200</v>
       </c>
       <c r="F41" s="3">
-        <v>655100</v>
+        <v>659500</v>
       </c>
       <c r="G41" s="3">
-        <v>724100</v>
+        <v>728900</v>
       </c>
       <c r="H41" s="3">
-        <v>813800</v>
+        <v>819200</v>
       </c>
       <c r="I41" s="3">
-        <v>480600</v>
+        <v>483800</v>
       </c>
       <c r="J41" s="3">
-        <v>746200</v>
+        <v>751200</v>
       </c>
       <c r="K41" s="3">
         <v>406800</v>
@@ -3273,25 +3273,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91000</v>
+        <v>91600</v>
       </c>
       <c r="E42" s="3">
-        <v>313000</v>
+        <v>315100</v>
       </c>
       <c r="F42" s="3">
-        <v>335400</v>
+        <v>337700</v>
       </c>
       <c r="G42" s="3">
-        <v>304500</v>
+        <v>306500</v>
       </c>
       <c r="H42" s="3">
-        <v>240200</v>
+        <v>241800</v>
       </c>
       <c r="I42" s="3">
-        <v>253900</v>
+        <v>255600</v>
       </c>
       <c r="J42" s="3">
-        <v>178100</v>
+        <v>179300</v>
       </c>
       <c r="K42" s="3">
         <v>175700</v>
@@ -3359,25 +3359,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37200</v>
+        <v>37500</v>
       </c>
       <c r="E43" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="F43" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="G43" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="H43" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="I43" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="J43" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="K43" s="3">
         <v>12500</v>
@@ -3445,25 +3445,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>162500</v>
+        <v>163500</v>
       </c>
       <c r="E44" s="3">
-        <v>140700</v>
+        <v>141700</v>
       </c>
       <c r="F44" s="3">
-        <v>112000</v>
+        <v>112700</v>
       </c>
       <c r="G44" s="3">
-        <v>109100</v>
+        <v>109800</v>
       </c>
       <c r="H44" s="3">
-        <v>99500</v>
+        <v>100200</v>
       </c>
       <c r="I44" s="3">
-        <v>81200</v>
+        <v>81700</v>
       </c>
       <c r="J44" s="3">
-        <v>59500</v>
+        <v>59900</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -3531,25 +3531,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41700</v>
+        <v>41900</v>
       </c>
       <c r="E45" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="F45" s="3">
-        <v>37200</v>
+        <v>37500</v>
       </c>
       <c r="G45" s="3">
-        <v>37800</v>
+        <v>38000</v>
       </c>
       <c r="H45" s="3">
-        <v>30100</v>
+        <v>30300</v>
       </c>
       <c r="I45" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="J45" s="3">
-        <v>23900</v>
+        <v>24100</v>
       </c>
       <c r="K45" s="3">
         <v>23100</v>
@@ -3617,25 +3617,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>872100</v>
+        <v>878000</v>
       </c>
       <c r="E46" s="3">
-        <v>994500</v>
+        <v>1001100</v>
       </c>
       <c r="F46" s="3">
-        <v>1162900</v>
+        <v>1170700</v>
       </c>
       <c r="G46" s="3">
-        <v>1197600</v>
+        <v>1205600</v>
       </c>
       <c r="H46" s="3">
-        <v>1207300</v>
+        <v>1215400</v>
       </c>
       <c r="I46" s="3">
-        <v>867900</v>
+        <v>873700</v>
       </c>
       <c r="J46" s="3">
-        <v>1030100</v>
+        <v>1037000</v>
       </c>
       <c r="K46" s="3">
         <v>618100</v>
@@ -3703,25 +3703,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="E47" s="3">
-        <v>34800</v>
+        <v>35100</v>
       </c>
       <c r="F47" s="3">
-        <v>53000</v>
+        <v>53400</v>
       </c>
       <c r="G47" s="3">
-        <v>82300</v>
+        <v>82900</v>
       </c>
       <c r="H47" s="3">
-        <v>132800</v>
+        <v>133700</v>
       </c>
       <c r="I47" s="3">
-        <v>159100</v>
+        <v>160100</v>
       </c>
       <c r="J47" s="3">
-        <v>124100</v>
+        <v>124900</v>
       </c>
       <c r="K47" s="3">
         <v>146200</v>
@@ -3789,25 +3789,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>137600</v>
+        <v>138500</v>
       </c>
       <c r="E48" s="3">
-        <v>139000</v>
+        <v>140000</v>
       </c>
       <c r="F48" s="3">
-        <v>150100</v>
+        <v>151100</v>
       </c>
       <c r="G48" s="3">
-        <v>143500</v>
+        <v>144400</v>
       </c>
       <c r="H48" s="3">
-        <v>137500</v>
+        <v>138400</v>
       </c>
       <c r="I48" s="3">
-        <v>135700</v>
+        <v>136600</v>
       </c>
       <c r="J48" s="3">
-        <v>136000</v>
+        <v>136900</v>
       </c>
       <c r="K48" s="3">
         <v>131100</v>
@@ -3881,10 +3881,10 @@
         <v>5200</v>
       </c>
       <c r="F49" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G49" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H49" s="3">
         <v>5600</v>
@@ -4151,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="J52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -4305,25 +4305,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1040600</v>
+        <v>1047500</v>
       </c>
       <c r="E54" s="3">
-        <v>1173500</v>
+        <v>1181400</v>
       </c>
       <c r="F54" s="3">
-        <v>1371300</v>
+        <v>1380500</v>
       </c>
       <c r="G54" s="3">
-        <v>1428900</v>
+        <v>1438400</v>
       </c>
       <c r="H54" s="3">
-        <v>1483200</v>
+        <v>1493100</v>
       </c>
       <c r="I54" s="3">
-        <v>1168400</v>
+        <v>1176200</v>
       </c>
       <c r="J54" s="3">
-        <v>1297900</v>
+        <v>1306600</v>
       </c>
       <c r="K54" s="3">
         <v>901300</v>
@@ -4455,25 +4455,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>141500</v>
+        <v>142500</v>
       </c>
       <c r="E57" s="3">
-        <v>108800</v>
+        <v>109500</v>
       </c>
       <c r="F57" s="3">
-        <v>92700</v>
+        <v>93300</v>
       </c>
       <c r="G57" s="3">
-        <v>80800</v>
+        <v>81300</v>
       </c>
       <c r="H57" s="3">
-        <v>76100</v>
+        <v>76600</v>
       </c>
       <c r="I57" s="3">
-        <v>64000</v>
+        <v>64400</v>
       </c>
       <c r="J57" s="3">
-        <v>82400</v>
+        <v>82900</v>
       </c>
       <c r="K57" s="3">
         <v>46800</v>
@@ -4541,22 +4541,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="E58" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="F58" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="G58" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="H58" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="I58" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="J58" s="3">
         <v>7300</v>
@@ -4627,25 +4627,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44700</v>
+        <v>45000</v>
       </c>
       <c r="E59" s="3">
-        <v>48300</v>
+        <v>48600</v>
       </c>
       <c r="F59" s="3">
-        <v>39500</v>
+        <v>39700</v>
       </c>
       <c r="G59" s="3">
-        <v>28100</v>
+        <v>28300</v>
       </c>
       <c r="H59" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="I59" s="3">
-        <v>36600</v>
+        <v>36800</v>
       </c>
       <c r="J59" s="3">
-        <v>35400</v>
+        <v>35700</v>
       </c>
       <c r="K59" s="3">
         <v>20300</v>
@@ -4713,25 +4713,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>213600</v>
+        <v>215000</v>
       </c>
       <c r="E60" s="3">
-        <v>184400</v>
+        <v>185700</v>
       </c>
       <c r="F60" s="3">
-        <v>153800</v>
+        <v>154900</v>
       </c>
       <c r="G60" s="3">
-        <v>124000</v>
+        <v>124800</v>
       </c>
       <c r="H60" s="3">
-        <v>102700</v>
+        <v>103400</v>
       </c>
       <c r="I60" s="3">
-        <v>108100</v>
+        <v>108800</v>
       </c>
       <c r="J60" s="3">
-        <v>125000</v>
+        <v>125900</v>
       </c>
       <c r="K60" s="3">
         <v>74400</v>
@@ -4799,25 +4799,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>516900</v>
+        <v>520400</v>
       </c>
       <c r="E61" s="3">
-        <v>520100</v>
+        <v>523600</v>
       </c>
       <c r="F61" s="3">
-        <v>574100</v>
+        <v>578000</v>
       </c>
       <c r="G61" s="3">
-        <v>536400</v>
+        <v>540000</v>
       </c>
       <c r="H61" s="3">
-        <v>500500</v>
+        <v>503800</v>
       </c>
       <c r="I61" s="3">
-        <v>105500</v>
+        <v>106200</v>
       </c>
       <c r="J61" s="3">
-        <v>102900</v>
+        <v>103600</v>
       </c>
       <c r="K61" s="3">
         <v>99500</v>
@@ -4885,19 +4885,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>130000</v>
+        <v>130900</v>
       </c>
       <c r="E62" s="3">
-        <v>185400</v>
+        <v>186600</v>
       </c>
       <c r="F62" s="3">
-        <v>157100</v>
+        <v>158200</v>
       </c>
       <c r="G62" s="3">
-        <v>113900</v>
+        <v>114600</v>
       </c>
       <c r="H62" s="3">
-        <v>155400</v>
+        <v>156500</v>
       </c>
       <c r="I62" s="3">
         <v>3200</v>
@@ -5229,25 +5229,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>860500</v>
+        <v>866300</v>
       </c>
       <c r="E66" s="3">
-        <v>889900</v>
+        <v>895900</v>
       </c>
       <c r="F66" s="3">
-        <v>885100</v>
+        <v>891000</v>
       </c>
       <c r="G66" s="3">
-        <v>774300</v>
+        <v>779500</v>
       </c>
       <c r="H66" s="3">
-        <v>758600</v>
+        <v>763700</v>
       </c>
       <c r="I66" s="3">
-        <v>216800</v>
+        <v>218200</v>
       </c>
       <c r="J66" s="3">
-        <v>227900</v>
+        <v>229500</v>
       </c>
       <c r="K66" s="3">
         <v>173900</v>
@@ -5691,25 +5691,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2108300</v>
+        <v>-2122400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2003600</v>
+        <v>-2017000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1657800</v>
+        <v>-1668900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1490400</v>
+        <v>-1500400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1420900</v>
+        <v>-1430400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1307300</v>
+        <v>-1316000</v>
       </c>
       <c r="J72" s="3">
-        <v>-1208300</v>
+        <v>-1216400</v>
       </c>
       <c r="K72" s="3">
         <v>-1116100</v>
@@ -6035,25 +6035,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>180100</v>
+        <v>181300</v>
       </c>
       <c r="E76" s="3">
-        <v>283600</v>
+        <v>285500</v>
       </c>
       <c r="F76" s="3">
-        <v>486300</v>
+        <v>489500</v>
       </c>
       <c r="G76" s="3">
-        <v>654600</v>
+        <v>659000</v>
       </c>
       <c r="H76" s="3">
-        <v>724600</v>
+        <v>729400</v>
       </c>
       <c r="I76" s="3">
-        <v>951600</v>
+        <v>957900</v>
       </c>
       <c r="J76" s="3">
-        <v>1070000</v>
+        <v>1077100</v>
       </c>
       <c r="K76" s="3">
         <v>727400</v>
@@ -6298,25 +6298,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-119400</v>
+        <v>-120200</v>
       </c>
       <c r="E81" s="3">
-        <v>-223400</v>
+        <v>-224900</v>
       </c>
       <c r="F81" s="3">
-        <v>-181900</v>
+        <v>-183200</v>
       </c>
       <c r="G81" s="3">
-        <v>-87600</v>
+        <v>-88200</v>
       </c>
       <c r="H81" s="3">
-        <v>-135100</v>
+        <v>-136100</v>
       </c>
       <c r="I81" s="3">
-        <v>-114200</v>
+        <v>-115000</v>
       </c>
       <c r="J81" s="3">
-        <v>-86500</v>
+        <v>-87100</v>
       </c>
       <c r="K81" s="3">
         <v>-142200</v>
@@ -6425,7 +6425,7 @@
         <v>4900</v>
       </c>
       <c r="G83" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H83" s="3">
         <v>4800</v>
@@ -6932,25 +6932,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-158400</v>
+        <v>-159400</v>
       </c>
       <c r="E89" s="3">
-        <v>-152600</v>
+        <v>-153600</v>
       </c>
       <c r="F89" s="3">
-        <v>-106400</v>
+        <v>-107100</v>
       </c>
       <c r="G89" s="3">
-        <v>-134000</v>
+        <v>-134900</v>
       </c>
       <c r="H89" s="3">
-        <v>-140800</v>
+        <v>-141800</v>
       </c>
       <c r="I89" s="3">
-        <v>-132800</v>
+        <v>-133700</v>
       </c>
       <c r="J89" s="3">
-        <v>-105000</v>
+        <v>-105700</v>
       </c>
       <c r="K89" s="3">
         <v>-121900</v>
@@ -7308,25 +7308,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>226800</v>
+        <v>228400</v>
       </c>
       <c r="E94" s="3">
         <v>-900</v>
       </c>
       <c r="F94" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G94" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="H94" s="3">
-        <v>41500</v>
+        <v>41800</v>
       </c>
       <c r="I94" s="3">
-        <v>-120500</v>
+        <v>-121300</v>
       </c>
       <c r="J94" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="K94" s="3">
         <v>11700</v>
@@ -7782,13 +7782,13 @@
         <v>-2400</v>
       </c>
       <c r="H100" s="3">
-        <v>428300</v>
+        <v>431200</v>
       </c>
       <c r="I100" s="3">
-        <v>-22200</v>
+        <v>-22400</v>
       </c>
       <c r="J100" s="3">
-        <v>399100</v>
+        <v>401800</v>
       </c>
       <c r="K100" s="3">
         <v>1500</v>
@@ -7859,22 +7859,22 @@
         <v>-6900</v>
       </c>
       <c r="E101" s="3">
-        <v>-24200</v>
+        <v>-24300</v>
       </c>
       <c r="F101" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="G101" s="3">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="H101" s="3">
         <v>4200</v>
       </c>
       <c r="I101" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="J101" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="K101" s="3">
         <v>-8200</v>
@@ -7942,25 +7942,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>60900</v>
+        <v>61300</v>
       </c>
       <c r="E102" s="3">
-        <v>-176100</v>
+        <v>-177300</v>
       </c>
       <c r="F102" s="3">
-        <v>-69000</v>
+        <v>-69400</v>
       </c>
       <c r="G102" s="3">
-        <v>-89700</v>
+        <v>-90300</v>
       </c>
       <c r="H102" s="3">
-        <v>333200</v>
+        <v>335400</v>
       </c>
       <c r="I102" s="3">
-        <v>-265600</v>
+        <v>-267400</v>
       </c>
       <c r="J102" s="3">
-        <v>332100</v>
+        <v>334300</v>
       </c>
       <c r="K102" s="3">
         <v>-116900</v>

--- a/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,239 +665,253 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36400</v>
+        <v>52100</v>
       </c>
       <c r="E8" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>36500</v>
+      </c>
+      <c r="G8" s="3">
         <v>24800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>16600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>12400</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>300</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>400</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>400</v>
       </c>
       <c r="AB8" s="3">
         <v>400</v>
       </c>
       <c r="AC8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -955,35 +969,41 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F10" s="3">
         <v>31400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>19300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>14800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1041,8 +1061,14 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,94 +1099,102 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>112100</v>
+        <v>120900</v>
       </c>
       <c r="E12" s="3">
-        <v>114700</v>
+        <v>110600</v>
       </c>
       <c r="F12" s="3">
-        <v>102700</v>
+        <v>112200</v>
       </c>
       <c r="G12" s="3">
+        <v>114800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>102800</v>
+      </c>
+      <c r="I12" s="3">
         <v>95100</v>
       </c>
-      <c r="H12" s="3">
-        <v>87200</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K12" s="3">
         <v>71200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>63700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>88100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>90000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>75600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>66500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>69400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>64900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>57400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>52700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>52600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>60400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>44900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>37300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>44200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>33500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>31500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>32600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>24500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>23100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>23500</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AF12" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1279,14 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,31 +1371,37 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>2900</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F15" s="3">
         <v>2900</v>
       </c>
       <c r="G15" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H15" s="3">
         <v>2900</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1375,35 +1421,35 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>1800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>1800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>1500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>1200</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1417,8 +1463,14 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1498,194 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>192200</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>184600</v>
+        <v>204200</v>
       </c>
       <c r="F17" s="3">
-        <v>173200</v>
+        <v>192300</v>
       </c>
       <c r="G17" s="3">
-        <v>160500</v>
+        <v>184800</v>
       </c>
       <c r="H17" s="3">
-        <v>146200</v>
+        <v>173400</v>
       </c>
       <c r="I17" s="3">
+        <v>160600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K17" s="3">
         <v>127400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>106300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>125500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>128000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>95900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>84700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>92100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>85200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>78600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>65700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>67100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>73800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>54800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>45300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>49900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>38700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>36000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>35800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>28200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>26900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>27300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-155800</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-159800</v>
+        <v>-152800</v>
       </c>
       <c r="F18" s="3">
-        <v>-156600</v>
+        <v>-155900</v>
       </c>
       <c r="G18" s="3">
-        <v>-153800</v>
+        <v>-159900</v>
       </c>
       <c r="H18" s="3">
-        <v>-138800</v>
+        <v>-156800</v>
       </c>
       <c r="I18" s="3">
+        <v>-153900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-122000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-105100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-124500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-127300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-95400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-81800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-90500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-82700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-75700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-63100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-63200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-67300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-42400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-45300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-49900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-38700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-35700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-35400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-27700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-26400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-26100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1716,194 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>36900</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>37000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-59300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-26700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>65600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>6900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>18000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-17800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>63000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-43200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-44600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-13200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>11100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-17800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>34200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-8800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>4500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>5000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>24800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-6800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>6900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AF20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-113900</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-214000</v>
+        <v>-127200</v>
       </c>
       <c r="F21" s="3">
-        <v>-178500</v>
+        <v>-114000</v>
       </c>
       <c r="G21" s="3">
-        <v>-83400</v>
+        <v>-214200</v>
       </c>
       <c r="H21" s="3">
-        <v>-131000</v>
+        <v>-178600</v>
       </c>
       <c r="I21" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-131100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-110500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-83000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-138400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-60500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-135600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-124000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-101300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-69300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-91200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-26700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-70200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-62500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-37600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-40000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-24900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-45300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-38100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-34300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-28000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-19100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>-21300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1848,11 +1928,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1866,35 +1946,35 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1908,144 +1988,156 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-118800</v>
+        <v>-175300</v>
       </c>
       <c r="E23" s="3">
-        <v>-219100</v>
+        <v>-132200</v>
       </c>
       <c r="F23" s="3">
-        <v>-183300</v>
+        <v>-118900</v>
       </c>
       <c r="G23" s="3">
-        <v>-88200</v>
+        <v>-219200</v>
       </c>
       <c r="H23" s="3">
-        <v>-135800</v>
+        <v>-183500</v>
       </c>
       <c r="I23" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-115100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-87100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-142200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-64300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-138600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-126400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-103700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-71600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-93900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-29400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-72200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-64200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-37900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-40300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-25100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-45500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-38600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-38300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-34500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-28200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-19300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
       </c>
       <c r="S24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>-100</v>
@@ -2063,25 +2155,31 @@
         <v>-100</v>
       </c>
       <c r="Y24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-300</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
       <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2264,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-120200</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-224900</v>
+        <v>-131800</v>
       </c>
       <c r="F26" s="3">
-        <v>-183200</v>
+        <v>-120300</v>
       </c>
       <c r="G26" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-183300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-88200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-136100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-115000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-87100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-142200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-64100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-138600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-126400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-103600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-71500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-93800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-29300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-72200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-64200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-37800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-40200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-25000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-45400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-34500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-28200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-19300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-120200</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-224900</v>
+        <v>-131800</v>
       </c>
       <c r="F27" s="3">
-        <v>-183200</v>
+        <v>-120300</v>
       </c>
       <c r="G27" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-183300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-88200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-136100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-115000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-87100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-142200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-64100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-138600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-126400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-103600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-71500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-93800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-29300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-72200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-64200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-37800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-40200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-25000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-45400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-34500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-28200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-19300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2632,14 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2816,198 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-36900</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="G32" s="3">
         <v>59300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>26700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-65600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-6900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-18000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>17800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-63000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>43200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>44600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>13200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>17800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-34200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>8800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-4500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-5000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-24800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>6900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>6800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>1800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-6900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AF32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-120200</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-224900</v>
+        <v>-131800</v>
       </c>
       <c r="F33" s="3">
-        <v>-183200</v>
+        <v>-120300</v>
       </c>
       <c r="G33" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-183300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-88200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-136100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-115000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-87100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-142200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-64100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-138600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-126400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-103600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-71500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-93800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-29300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-72200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-64200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-37800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-40200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-25000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-45400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-34500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-28200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-19300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3092,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-120200</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-224900</v>
+        <v>-131800</v>
       </c>
       <c r="F35" s="3">
-        <v>-183200</v>
+        <v>-120300</v>
       </c>
       <c r="G35" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-183300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-88200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-136100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-115000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-87100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-142200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-64100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-138600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-126400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-103600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-71500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-93800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-29300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-72200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-64200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-37800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-40200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-25000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-45400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-34500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-28200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-19300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,139 +3353,147 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>543400</v>
+        <v>478800</v>
       </c>
       <c r="E41" s="3">
-        <v>482200</v>
+        <v>427700</v>
       </c>
       <c r="F41" s="3">
-        <v>659500</v>
+        <v>543900</v>
       </c>
       <c r="G41" s="3">
-        <v>728900</v>
+        <v>482600</v>
       </c>
       <c r="H41" s="3">
-        <v>819200</v>
+        <v>660000</v>
       </c>
       <c r="I41" s="3">
+        <v>729500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>819900</v>
+      </c>
+      <c r="K41" s="3">
         <v>483800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>751200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>406800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>505300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>583000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>792400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>262500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>603400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>698200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>768900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>845700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>833300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>328700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>367100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>387200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>382600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>219200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>231500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>142900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>176900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>211700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>87500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F42" s="3">
         <v>91600</v>
       </c>
-      <c r="E42" s="3">
-        <v>315100</v>
-      </c>
-      <c r="F42" s="3">
-        <v>337700</v>
-      </c>
       <c r="G42" s="3">
-        <v>306500</v>
+        <v>315400</v>
       </c>
       <c r="H42" s="3">
-        <v>241800</v>
+        <v>338000</v>
       </c>
       <c r="I42" s="3">
+        <v>306800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>242000</v>
+      </c>
+      <c r="K42" s="3">
         <v>255600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>179300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>175700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>173200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>133900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>172600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>252000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3323,11 +3503,11 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3353,124 +3533,136 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F43" s="3">
         <v>37500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>27800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>23400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>22300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>23800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>25100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>22500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>8900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>7700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>7900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>6300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>9400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>5000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>3400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>2500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>3000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>3600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>2000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AF43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>163500</v>
+        <v>205200</v>
       </c>
       <c r="E44" s="3">
-        <v>141700</v>
+        <v>182200</v>
       </c>
       <c r="F44" s="3">
-        <v>112700</v>
+        <v>163700</v>
       </c>
       <c r="G44" s="3">
-        <v>109800</v>
+        <v>141800</v>
       </c>
       <c r="H44" s="3">
-        <v>100200</v>
+        <v>112800</v>
       </c>
       <c r="I44" s="3">
+        <v>109900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K44" s="3">
         <v>81700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>59900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3483,11 +3675,11 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3525,251 +3717,269 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41900</v>
+        <v>41600</v>
       </c>
       <c r="E45" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>42000</v>
+      </c>
+      <c r="G45" s="3">
         <v>34400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>37500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>38000</v>
       </c>
-      <c r="H45" s="3">
-        <v>30300</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K45" s="3">
         <v>27400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>24100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>23100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>15600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>15800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>14200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>8900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>9300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>12100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>13500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>14700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>14700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>6500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>7800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>7700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>8100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>6800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>6300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>2300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AF45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>878000</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
-        <v>1001100</v>
+        <v>735300</v>
       </c>
       <c r="F46" s="3">
-        <v>1170700</v>
+        <v>878700</v>
       </c>
       <c r="G46" s="3">
-        <v>1205600</v>
+        <v>1002000</v>
       </c>
       <c r="H46" s="3">
-        <v>1215400</v>
+        <v>1171700</v>
       </c>
       <c r="I46" s="3">
+        <v>1206600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1216400</v>
+      </c>
+      <c r="K46" s="3">
         <v>873700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1037000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>618100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>701600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>738200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>989700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>536300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>622800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>713500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>781800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>861000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>856200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>346500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>386800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>397100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>392800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>229600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>242100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>152600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>186700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>215900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AF46" s="3">
         <v>94600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F47" s="3">
         <v>26000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>35100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>53400</v>
       </c>
-      <c r="G47" s="3">
-        <v>82900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>133700</v>
-      </c>
       <c r="I47" s="3">
+        <v>83000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K47" s="3">
         <v>160100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>124900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>146200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>161500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>125500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>40800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>15500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>17300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>18100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>19900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>20700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>20900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>20200</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3783,165 +3993,177 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>138600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>140100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>151200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>144500</v>
+      </c>
+      <c r="J48" s="3">
         <v>138500</v>
       </c>
-      <c r="E48" s="3">
-        <v>140000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>151100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>144400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>138400</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>136600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>136900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>131100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>116600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>107800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>49100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>54300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>56200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>52600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>50500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>52100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>28700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>4200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2900</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2700</v>
       </c>
       <c r="Y48" s="3">
         <v>2900</v>
       </c>
       <c r="Z48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="AA48" s="3">
         <v>2900</v>
       </c>
       <c r="AB48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AC48" s="3">
         <v>2900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AE48" s="3">
         <v>2800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AF48" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F49" s="3">
         <v>5100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>4100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>4100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>3800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>3800</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>3900</v>
       </c>
       <c r="AA49" s="3">
         <v>3900</v>
@@ -3950,13 +4172,19 @@
         <v>3900</v>
       </c>
       <c r="AC49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AE49" s="3">
         <v>4100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AF49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,79 +4361,85 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1700</v>
       </c>
       <c r="S52" s="3">
         <v>1700</v>
       </c>
       <c r="T52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V52" s="3">
         <v>1400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>300</v>
       </c>
       <c r="AA52" s="3">
         <v>300</v>
@@ -4213,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4545,106 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1047500</v>
+        <v>947400</v>
       </c>
       <c r="E54" s="3">
-        <v>1181400</v>
+        <v>893800</v>
       </c>
       <c r="F54" s="3">
-        <v>1380500</v>
+        <v>1048400</v>
       </c>
       <c r="G54" s="3">
-        <v>1438400</v>
+        <v>1182400</v>
       </c>
       <c r="H54" s="3">
-        <v>1493100</v>
+        <v>1381700</v>
       </c>
       <c r="I54" s="3">
+        <v>1439600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1494300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1176200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1306600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>901300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>985400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>977200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1085800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>611600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>701600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>790000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>858000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>939800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>911400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>377300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>396500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>405000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>400600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>236700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>249100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>159800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>193800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>223100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,165 +4709,173 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>142500</v>
+        <v>131900</v>
       </c>
       <c r="E57" s="3">
-        <v>109500</v>
+        <v>132500</v>
       </c>
       <c r="F57" s="3">
-        <v>93300</v>
+        <v>142600</v>
       </c>
       <c r="G57" s="3">
-        <v>81300</v>
+        <v>109600</v>
       </c>
       <c r="H57" s="3">
-        <v>76600</v>
+        <v>93400</v>
       </c>
       <c r="I57" s="3">
+        <v>81400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>76700</v>
+      </c>
+      <c r="K57" s="3">
         <v>64400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>82900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>46800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>55300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>21800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>39600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>34400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>30800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>32400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>28400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>26000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>23000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>23400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>36700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>40200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>19100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>26700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>22000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>17400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>19600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>15400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27500</v>
+        <v>97800</v>
       </c>
       <c r="E58" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F58" s="3">
         <v>27600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>27600</v>
+      </c>
+      <c r="H58" s="3">
         <v>21800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>15300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>9700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>6300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4621,240 +4889,258 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45000</v>
+        <v>29600</v>
       </c>
       <c r="E59" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45100</v>
+      </c>
+      <c r="G59" s="3">
         <v>48600</v>
       </c>
-      <c r="F59" s="3">
-        <v>39700</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>39800</v>
+      </c>
+      <c r="I59" s="3">
         <v>28300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>36800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>35700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>24000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>20700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>16700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>14900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>42300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>10200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>22700</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>400</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>500</v>
       </c>
       <c r="AC59" s="3">
         <v>400</v>
       </c>
       <c r="AD59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>215000</v>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="3">
-        <v>185700</v>
+        <v>208600</v>
       </c>
       <c r="F60" s="3">
-        <v>154900</v>
+        <v>215200</v>
       </c>
       <c r="G60" s="3">
-        <v>124800</v>
+        <v>185800</v>
       </c>
       <c r="H60" s="3">
-        <v>103400</v>
+        <v>155000</v>
       </c>
       <c r="I60" s="3">
+        <v>124900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K60" s="3">
         <v>108800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>125900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>74400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>74400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>52700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>66900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>59300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>47200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>56000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>49700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>74300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>38400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>46000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>36700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>40200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>19100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>26700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>22300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>17900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>20100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>15800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>520400</v>
+        <v>15700</v>
       </c>
       <c r="E61" s="3">
-        <v>523600</v>
+        <v>520100</v>
       </c>
       <c r="F61" s="3">
-        <v>578000</v>
+        <v>520800</v>
       </c>
       <c r="G61" s="3">
-        <v>540000</v>
+        <v>524000</v>
       </c>
       <c r="H61" s="3">
-        <v>503800</v>
+        <v>578500</v>
       </c>
       <c r="I61" s="3">
+        <v>540500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>504200</v>
+      </c>
+      <c r="K61" s="3">
         <v>106200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>103600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>99500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>91400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>84900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>28000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>31700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>34700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>35900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>36800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>38500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>15800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4879,59 +5165,65 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>130900</v>
+        <v>101300</v>
       </c>
       <c r="E62" s="3">
-        <v>186600</v>
+        <v>94800</v>
       </c>
       <c r="F62" s="3">
-        <v>158200</v>
+        <v>131000</v>
       </c>
       <c r="G62" s="3">
-        <v>114600</v>
+        <v>186800</v>
       </c>
       <c r="H62" s="3">
-        <v>156500</v>
+        <v>158300</v>
       </c>
       <c r="I62" s="3">
+        <v>114700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>156600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3200</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>3200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3300</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4941,11 +5233,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4965,8 +5257,14 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5533,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>866300</v>
+        <v>1027100</v>
       </c>
       <c r="E66" s="3">
-        <v>895900</v>
+        <v>823500</v>
       </c>
       <c r="F66" s="3">
-        <v>891000</v>
+        <v>867000</v>
       </c>
       <c r="G66" s="3">
-        <v>779500</v>
+        <v>896600</v>
       </c>
       <c r="H66" s="3">
-        <v>763700</v>
+        <v>891700</v>
       </c>
       <c r="I66" s="3">
+        <v>780100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>764300</v>
+      </c>
+      <c r="K66" s="3">
         <v>218200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>229500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>173900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>165900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>140700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>98100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>91100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>81900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>92900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>86400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>112800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>54200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>46000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>36700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>40200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>19100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>26700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>22300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>17900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>20100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>15800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,55 +6027,61 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-2122400</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E72" s="3">
-        <v>-2017000</v>
+        <v>-2234300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1668900</v>
+        <v>-2124100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1500400</v>
+        <v>-2018600</v>
       </c>
       <c r="H72" s="3">
-        <v>-1430400</v>
+        <v>-1670200</v>
       </c>
       <c r="I72" s="3">
+        <v>-1501600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1431600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1316000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1216400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1116100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-956400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -5753,26 +6101,32 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
+      <c r="Y72" s="3">
+        <v>0</v>
       </c>
       <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB72" s="3">
         <v>221300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>137000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>168800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>202200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6395,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>181300</v>
+        <v>-79700</v>
       </c>
       <c r="E76" s="3">
-        <v>285500</v>
+        <v>70400</v>
       </c>
       <c r="F76" s="3">
-        <v>489500</v>
+        <v>181400</v>
       </c>
       <c r="G76" s="3">
-        <v>659000</v>
+        <v>285700</v>
       </c>
       <c r="H76" s="3">
-        <v>729400</v>
+        <v>489900</v>
       </c>
       <c r="I76" s="3">
+        <v>659500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>730000</v>
+      </c>
+      <c r="K76" s="3">
         <v>957900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1077100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>727400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>819500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>836500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>987700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>520500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>619700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>697100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>771600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>827000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>857300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>331300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>359800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>364800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>381500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>210000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>226800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>141900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>173700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>207300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6579,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-120200</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-224900</v>
+        <v>-131800</v>
       </c>
       <c r="F81" s="3">
-        <v>-183200</v>
+        <v>-120300</v>
       </c>
       <c r="G81" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-183300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-88200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-136100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-115000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-87100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-142200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-64100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-138600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-126400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-103600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-71500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-93800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-29300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-72200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-64200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-37800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-40200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-25000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-45400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-34500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-28200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-19300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,13 +6806,15 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4900</v>
+        <v>-10000</v>
       </c>
       <c r="E83" s="3">
         <v>5000</v>
@@ -6425,58 +6823,58 @@
         <v>4900</v>
       </c>
       <c r="G83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I83" s="3">
         <v>4800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>1600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
-      </c>
-      <c r="X83" s="3">
-        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>200</v>
@@ -6496,8 +6894,14 @@
       <c r="AD83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7354,106 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-159400</v>
+        <v>325200</v>
       </c>
       <c r="E89" s="3">
-        <v>-153600</v>
+        <v>-166100</v>
       </c>
       <c r="F89" s="3">
-        <v>-107100</v>
+        <v>-159500</v>
       </c>
       <c r="G89" s="3">
-        <v>-134900</v>
+        <v>-153700</v>
       </c>
       <c r="H89" s="3">
-        <v>-141800</v>
+        <v>-107200</v>
       </c>
       <c r="I89" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-133700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-105700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-121900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-83300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-90100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-60000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-61800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-75400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-57500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-70000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-7200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-72800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-42100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-54900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-22100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-40300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-27100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-28900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-26800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-23800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-19600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7484,102 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-300</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AF91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7756,106 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>228400</v>
+        <v>-279200</v>
       </c>
       <c r="E94" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>228600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>15300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>10700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>41800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-121300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>22100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>11700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-30700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-70900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>25300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-260000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-300</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AF94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7886,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8250,286 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
-        <v>431200</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>431500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-22400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>401800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>10300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>606800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>9600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>10000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>573100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>3700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>216200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>18400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>120800</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>137100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-6900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-24300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>22500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>36300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>16100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-8200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>22700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-27700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-29500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-8300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>11700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-16900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>32000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-10100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>3700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>3800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>3800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>23400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>6700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AF101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-116200</v>
+      </c>
+      <c r="F102" s="3">
         <v>61300</v>
       </c>
-      <c r="E102" s="3">
-        <v>-177300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-69400</v>
-      </c>
       <c r="G102" s="3">
+        <v>-177500</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-90300</v>
       </c>
-      <c r="H102" s="3">
-        <v>335400</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>335700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-267400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>334300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-116900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-91300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-178500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>542700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-320500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-70700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-37000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>501000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-38400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-50000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>4600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>168100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-12300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>88600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-34000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-25400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>124200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>-19000</v>
       </c>
     </row>
